--- a/artfynd/A 34417-2023.xlsx
+++ b/artfynd/A 34417-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111713457</v>
+        <v>111713455</v>
       </c>
       <c r="B2" t="n">
-        <v>98535</v>
+        <v>94173</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222498</v>
+        <v>2590</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Öster om Brevik, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>695859.6211092162</v>
+        <v>695863.9162259072</v>
       </c>
       <c r="R2" t="n">
-        <v>6553693.989318338</v>
+        <v>6553559.8065641</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +759,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,7 +769,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -774,8 +778,19 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Gransumpskog</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Klen fuktig låga.</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -792,10 +807,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111713455</v>
+        <v>111713457</v>
       </c>
       <c r="B3" t="n">
-        <v>94173</v>
+        <v>98535</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,38 +823,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2590</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Öster om Brevik, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>695863.9162259072</v>
+        <v>695859.6211092162</v>
       </c>
       <c r="R3" t="n">
-        <v>6553559.8065641</v>
+        <v>6553693.989318338</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -871,7 +882,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -881,7 +892,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -890,19 +901,8 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Gransumpskog</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Klen fuktig låga.</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -1041,10 +1041,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111803769</v>
+        <v>111803593</v>
       </c>
       <c r="B5" t="n">
-        <v>90666</v>
+        <v>85188</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1053,30 +1053,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>1980</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Porslinsblå spindling</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cortinarius cumatilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1163,10 +1163,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111803593</v>
+        <v>111803769</v>
       </c>
       <c r="B6" t="n">
-        <v>85188</v>
+        <v>90666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1175,30 +1175,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1980</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Porslinsblå spindling</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cortinarius cumatilis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 34417-2023.xlsx
+++ b/artfynd/A 34417-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111713455</v>
+        <v>111713457</v>
       </c>
       <c r="B2" t="n">
-        <v>94173</v>
+        <v>98535</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2590</v>
+        <v>222498</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Öster om Brevik, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>695863.9162259072</v>
+        <v>695859.6211092162</v>
       </c>
       <c r="R2" t="n">
-        <v>6553559.8065641</v>
+        <v>6553693.989318338</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -759,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -769,7 +765,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -778,19 +774,8 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Gransumpskog</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Klen fuktig låga.</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -807,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111713457</v>
+        <v>111713455</v>
       </c>
       <c r="B3" t="n">
-        <v>98535</v>
+        <v>94173</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -823,34 +808,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>2590</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Öster om Brevik, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>695859.6211092162</v>
+        <v>695863.9162259072</v>
       </c>
       <c r="R3" t="n">
-        <v>6553693.989318338</v>
+        <v>6553559.8065641</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -882,7 +871,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -892,7 +881,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -901,8 +890,19 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Gransumpskog</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Klen fuktig låga.</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">

--- a/artfynd/A 34417-2023.xlsx
+++ b/artfynd/A 34417-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,10 +919,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111804210</v>
+        <v>111803593</v>
       </c>
       <c r="B4" t="n">
-        <v>85062</v>
+        <v>85188</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -931,30 +931,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>249278</v>
+        <v>1980</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Porslinsblå spindling</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Cortinarius cumatilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -969,13 +969,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>695942.6774062206</v>
+        <v>695812.1972037496</v>
       </c>
       <c r="R4" t="n">
-        <v>6553663.74395387</v>
+        <v>6553542.22335465</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1041,10 +1041,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111803593</v>
+        <v>111803769</v>
       </c>
       <c r="B5" t="n">
-        <v>85188</v>
+        <v>90666</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1053,30 +1053,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1980</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Porslinsblå spindling</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cortinarius cumatilis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1163,10 +1163,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111803769</v>
+        <v>111804210</v>
       </c>
       <c r="B6" t="n">
-        <v>90666</v>
+        <v>85062</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1175,30 +1175,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>249278</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1213,13 +1213,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>695812.1972037496</v>
+        <v>695942.6774062206</v>
       </c>
       <c r="R6" t="n">
-        <v>6553542.22335465</v>
+        <v>6553663.74395387</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1282,6 +1282,123 @@
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>111891039</v>
+      </c>
+      <c r="B7" t="n">
+        <v>108219</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>219711</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sårläka</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sanicula europaea</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Ornö 1, Srm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>695862.1592837617</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6553543.752691799</v>
+      </c>
+      <c r="S7" t="n">
+        <v>25</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Måns Persson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Måns Persson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 34417-2023.xlsx
+++ b/artfynd/A 34417-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AY43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,10 +919,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111803593</v>
+        <v>111804210</v>
       </c>
       <c r="B4" t="n">
-        <v>85188</v>
+        <v>85062</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -931,30 +931,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1980</v>
+        <v>249278</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Porslinsblå spindling</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cortinarius cumatilis</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -969,13 +969,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>695812.1972037496</v>
+        <v>695942.6774062206</v>
       </c>
       <c r="R4" t="n">
-        <v>6553542.22335465</v>
+        <v>6553663.74395387</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1163,10 +1163,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111804210</v>
+        <v>111803593</v>
       </c>
       <c r="B6" t="n">
-        <v>85062</v>
+        <v>85188</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1175,30 +1175,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>249278</v>
+        <v>1980</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Porslinsblå spindling</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Cortinarius cumatilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1213,13 +1213,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>695942.6774062206</v>
+        <v>695812.1972037496</v>
       </c>
       <c r="R6" t="n">
-        <v>6553663.74395387</v>
+        <v>6553542.22335465</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1400,6 +1400,4222 @@
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>111954101</v>
+      </c>
+      <c r="B8" t="n">
+        <v>94134</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>53</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Crossocalyx hellerianus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>695926.4066281476</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6553628.923229965</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>16:09</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>16:09</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>111954158</v>
+      </c>
+      <c r="B9" t="n">
+        <v>95532</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>221945</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Lycopodium annotinum</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>695877.0654070158</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6553625.364951649</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>11:48</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>11:48</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>111954126</v>
+      </c>
+      <c r="B10" t="n">
+        <v>77186</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>353</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dvärgbägarlav</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cladonia parasitica</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>695699.5864493458</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6553424.193865892</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>14:04</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>14:04</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>Gammal högstubbe som det växte en gran i mitten av.</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Gammal högstubbe som det växte en gran i mitten av.</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>111954144</v>
+      </c>
+      <c r="B11" t="n">
+        <v>93145</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2671</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fällmossa</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Antitrichia curtipendula</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Hedw.) Brid.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>695851.2107494868</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6553646.698234474</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>12:54</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>12:54</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk sbergart.</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111954161</v>
+      </c>
+      <c r="B12" t="n">
+        <v>95532</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>221945</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Lycopodium annotinum</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>695896.3658051894</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6553621.204334841</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>111954112</v>
+      </c>
+      <c r="B13" t="n">
+        <v>57580</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>208249</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Vanlig groda</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Rana temporaria</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>695777.6414421956</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6553521.914919985</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>15:18</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>15:18</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111954106</v>
+      </c>
+      <c r="B14" t="n">
+        <v>92952</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2779</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Guldlockmossa</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Homalothecium sericeum</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Hedw.) Schimp.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>695918.5640496905</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6553580.630297415</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111954135</v>
+      </c>
+      <c r="B15" t="n">
+        <v>92952</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2779</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Guldlockmossa</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Homalothecium sericeum</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Hedw.) Schimp.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>695759.3320388016</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6553536.94127673</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>13:26</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>13:26</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111954167</v>
+      </c>
+      <c r="B16" t="n">
+        <v>93171</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2818</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Stubbspretmossa</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Herzogiella seligeri</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Brid.) Z.Iwats.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>695901.3675654647</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6553634.334477904</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111954116</v>
+      </c>
+      <c r="B17" t="n">
+        <v>94173</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2590</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kornknutmossa</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Odontoschisma denudatum</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>695813.6703547441</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6553513.460727843</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>15:05</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>15:05</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111954131</v>
+      </c>
+      <c r="B18" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>695672.0487292509</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6553407.850045409</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>13:46</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>13:46</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111954111</v>
+      </c>
+      <c r="B19" t="n">
+        <v>94173</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2590</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kornknutmossa</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Odontoschisma denudatum</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>695776.66497851</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6553520.834985243</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>15:19</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>15:19</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>111954145</v>
+      </c>
+      <c r="B20" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>695858.182829462</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6553691.855853913</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>111954120</v>
+      </c>
+      <c r="B21" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>695735.6871222925</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6553444.581050223</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Hack på levande gran.</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>111954147</v>
+      </c>
+      <c r="B22" t="n">
+        <v>89789</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6040162</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Leptoporus erubescens</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Fr.) Bourdot &amp; Galzin</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>695863.7275062524</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6553815.209723577</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>111954136</v>
+      </c>
+      <c r="B23" t="n">
+        <v>93145</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2671</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Fällmossa</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Antitrichia curtipendula</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Hedw.) Brid.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>695759.3320388016</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6553536.94127673</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>13:26</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>13:26</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>111954113</v>
+      </c>
+      <c r="B24" t="n">
+        <v>93171</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2818</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Stubbspretmossa</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Herzogiella seligeri</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Brid.) Z.Iwats.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>695802.5905180702</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6553528.34225694</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>15:09</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>15:09</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>111954108</v>
+      </c>
+      <c r="B25" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>695830.749629521</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6553562.742190208</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Intill gran.</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>111954160</v>
+      </c>
+      <c r="B26" t="n">
+        <v>94173</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2590</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kornknutmossa</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Odontoschisma denudatum</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>695890.4165971773</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6553626.563991487</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>111954165</v>
+      </c>
+      <c r="B27" t="n">
+        <v>108219</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>219711</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sårläka</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Sanicula europaea</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>695912.2225252972</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6553613.777598281</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>111954150</v>
+      </c>
+      <c r="B28" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>695844.0803595956</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6553785.881987686</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>111954107</v>
+      </c>
+      <c r="B29" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>695831.158922115</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6553564.82300008</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>111954164</v>
+      </c>
+      <c r="B30" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>695912.2225252972</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6553613.777598281</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>111954188</v>
+      </c>
+      <c r="B31" t="n">
+        <v>93248</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>210</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Grön sköldmossa</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Buxbaumia viridis</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>695854.3031294853</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6553777.651865888</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>09:58</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>09:58</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>111954124</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>695736.8704301633</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6553421.467662166</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>14:19</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>14:19</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Picea abies # Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>111954157</v>
+      </c>
+      <c r="B33" t="n">
+        <v>94173</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2590</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kornknutmossa</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Odontoschisma denudatum</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>695879.2959036676</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6553632.173627001</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>11:51</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>11:51</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>111954162</v>
+      </c>
+      <c r="B34" t="n">
+        <v>57580</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>208249</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Vanlig groda</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Rana temporaria</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>695902.3413484473</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6553615.331072005</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>11:26</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>11:26</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>111954102</v>
+      </c>
+      <c r="B35" t="n">
+        <v>93171</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2818</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Stubbspretmossa</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Herzogiella seligeri</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Brid.) Z.Iwats.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>695926.4066281476</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6553628.923229965</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>16:09</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>16:09</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>111954123</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5135</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>105930</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Semanotus undatus</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>695736.8704301633</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6553421.467662166</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>14:19</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>14:19</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Picea abies # Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>111954170</v>
+      </c>
+      <c r="B37" t="n">
+        <v>94173</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2590</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kornknutmossa</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Odontoschisma denudatum</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>695866.660800101</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6553657.273816385</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>111954159</v>
+      </c>
+      <c r="B38" t="n">
+        <v>94173</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2590</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Kornknutmossa</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Odontoschisma denudatum</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>695890.7796608348</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6553579.206556734</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>11:41</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>11:41</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>111954118</v>
+      </c>
+      <c r="B39" t="n">
+        <v>94173</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2590</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Kornknutmossa</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Odontoschisma denudatum</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>695797.07051896</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6553495.101629349</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>14:44</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>14:44</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>111954114</v>
+      </c>
+      <c r="B40" t="n">
+        <v>94173</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2590</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Kornknutmossa</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Odontoschisma denudatum</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>695802.5905180702</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6553528.34225694</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>15:09</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>15:09</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>111954134</v>
+      </c>
+      <c r="B41" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>695759.3320388016</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6553536.94127673</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>13:26</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>13:26</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>111954187</v>
+      </c>
+      <c r="B42" t="n">
+        <v>93171</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2818</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Stubbspretmossa</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Herzogiella seligeri</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Brid.) Z.Iwats.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>695854.3031294853</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6553777.651865888</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>09:58</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>09:58</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>111954163</v>
+      </c>
+      <c r="B43" t="n">
+        <v>108219</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>219711</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sårläka</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Sanicula europaea</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Ornö, öster om Brevik, Srm</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>695909.345953525</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6553609.510540643</v>
+      </c>
+      <c r="S43" t="n">
+        <v>10</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>11:24</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>11:24</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 34417-2023.xlsx
+++ b/artfynd/A 34417-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY43"/>
+  <dimension ref="A1:AY42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111803769</v>
+        <v>111891039</v>
       </c>
       <c r="B5" t="n">
-        <v>90666</v>
+        <v>108219</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1057,47 +1057,41 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>219711</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Björnmossen, Srm</t>
+          <t>Ornö 1, Srm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>695812.1972037496</v>
+        <v>695862.1592837617</v>
       </c>
       <c r="R5" t="n">
-        <v>6553542.22335465</v>
+        <v>6553543.752691799</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1121,22 +1115,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1145,28 +1139,29 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Cecilia Gottfries</t>
+          <t>Måns Persson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Cecilia Gottfries</t>
+          <t>Måns Persson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111803593</v>
+        <v>111954101</v>
       </c>
       <c r="B6" t="n">
-        <v>85188</v>
+        <v>94134</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1175,51 +1170,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1980</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Porslinsblå spindling</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cortinarius cumatilis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Fr.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Björnmossen, Srm</t>
+          <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>695812.1972037496</v>
+        <v>695926.4066281476</v>
       </c>
       <c r="R6" t="n">
-        <v>6553542.22335465</v>
+        <v>6553628.923229965</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1243,22 +1228,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1269,26 +1254,46 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Cecilia Gottfries</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Cecilia Gottfries</t>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111891039</v>
+        <v>111954158</v>
       </c>
       <c r="B7" t="n">
-        <v>108219</v>
+        <v>95532</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1301,16 +1306,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219711</v>
+        <v>221945</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1319,23 +1324,19 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Ornö 1, Srm</t>
+          <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>695862.1592837617</v>
+        <v>695877.0654070158</v>
       </c>
       <c r="R7" t="n">
-        <v>6553543.752691799</v>
+        <v>6553625.364951649</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1364,7 +1365,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1374,7 +1375,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1383,29 +1384,28 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Måns Persson</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Måns Persson</t>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111954101</v>
+        <v>111954126</v>
       </c>
       <c r="B8" t="n">
-        <v>94134</v>
+        <v>77186</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1418,21 +1418,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>353</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>695926.4066281476</v>
+        <v>695699.5864493458</v>
       </c>
       <c r="R8" t="n">
-        <v>6553628.923229965</v>
+        <v>6553424.193865892</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1501,22 +1501,22 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>Gammal barklös granlåga.</t>
+          <t>Gammal högstubbe som det växte en gran i mitten av.</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
+          <t>Pinus sylvestris # Gammal högstubbe som det växte en gran i mitten av.</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111954158</v>
+        <v>111954144</v>
       </c>
       <c r="B9" t="n">
-        <v>95532</v>
+        <v>93145</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1550,21 +1550,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221945</v>
+        <v>2671</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1574,10 +1574,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>695877.0654070158</v>
+        <v>695851.2107494868</v>
       </c>
       <c r="R9" t="n">
-        <v>6553625.364951649</v>
+        <v>6553646.698234474</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1630,6 +1630,11 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk sbergart.</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1646,10 +1651,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111954126</v>
+        <v>111954161</v>
       </c>
       <c r="B10" t="n">
-        <v>77186</v>
+        <v>95532</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1658,25 +1663,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>353</v>
+        <v>221945</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1686,10 +1691,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>695699.5864493458</v>
+        <v>695896.3658051894</v>
       </c>
       <c r="R10" t="n">
-        <v>6553424.193865892</v>
+        <v>6553621.204334841</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1721,7 +1726,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1731,7 +1736,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1742,26 +1747,6 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>Gammal högstubbe som det växte en gran i mitten av.</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Gammal högstubbe som det växte en gran i mitten av.</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1778,10 +1763,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111954144</v>
+        <v>111954112</v>
       </c>
       <c r="B11" t="n">
-        <v>93145</v>
+        <v>57580</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1794,21 +1779,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2671</v>
+        <v>208249</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1818,10 +1803,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>695851.2107494868</v>
+        <v>695777.6414421956</v>
       </c>
       <c r="R11" t="n">
-        <v>6553646.698234474</v>
+        <v>6553521.914919985</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1853,7 +1838,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1863,7 +1848,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1874,11 +1859,6 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk sbergart.</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1895,10 +1875,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111954161</v>
+        <v>111954106</v>
       </c>
       <c r="B12" t="n">
-        <v>95532</v>
+        <v>92952</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1911,21 +1891,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221945</v>
+        <v>2779</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1935,10 +1915,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>695896.3658051894</v>
+        <v>695918.5640496905</v>
       </c>
       <c r="R12" t="n">
-        <v>6553621.204334841</v>
+        <v>6553580.630297415</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1970,7 +1950,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1980,7 +1960,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1991,6 +1971,11 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2007,10 +1992,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111954112</v>
+        <v>111954135</v>
       </c>
       <c r="B13" t="n">
-        <v>57580</v>
+        <v>92952</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2023,21 +2008,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>208249</v>
+        <v>2779</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2047,10 +2032,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>695777.6414421956</v>
+        <v>695759.3320388016</v>
       </c>
       <c r="R13" t="n">
-        <v>6553521.914919985</v>
+        <v>6553536.94127673</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2082,7 +2067,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2092,7 +2077,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2103,6 +2088,11 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2119,10 +2109,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111954106</v>
+        <v>111954167</v>
       </c>
       <c r="B14" t="n">
-        <v>92952</v>
+        <v>93171</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2135,21 +2125,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2779</v>
+        <v>2818</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2159,10 +2149,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>695918.5640496905</v>
+        <v>695901.3675654647</v>
       </c>
       <c r="R14" t="n">
-        <v>6553580.630297415</v>
+        <v>6553634.334477904</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2194,7 +2184,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2204,7 +2194,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2215,11 +2205,6 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2236,10 +2221,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111954135</v>
+        <v>111954116</v>
       </c>
       <c r="B15" t="n">
-        <v>92952</v>
+        <v>94173</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2252,21 +2237,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2779</v>
+        <v>2590</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2276,10 +2261,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>695759.3320388016</v>
+        <v>695813.6703547441</v>
       </c>
       <c r="R15" t="n">
-        <v>6553536.94127673</v>
+        <v>6553513.460727843</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2311,7 +2296,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2321,7 +2306,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2332,11 +2317,6 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2353,10 +2333,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111954167</v>
+        <v>111954131</v>
       </c>
       <c r="B16" t="n">
-        <v>93171</v>
+        <v>89183</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2369,21 +2349,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2818</v>
+        <v>3215</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2393,10 +2373,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>695901.3675654647</v>
+        <v>695672.0487292509</v>
       </c>
       <c r="R16" t="n">
-        <v>6553634.334477904</v>
+        <v>6553407.850045409</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2428,7 +2408,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2438,7 +2418,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2465,7 +2445,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111954116</v>
+        <v>111954111</v>
       </c>
       <c r="B17" t="n">
         <v>94173</v>
@@ -2505,10 +2485,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>695813.6703547441</v>
+        <v>695776.66497851</v>
       </c>
       <c r="R17" t="n">
-        <v>6553513.460727843</v>
+        <v>6553520.834985243</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2540,7 +2520,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2550,7 +2530,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2577,10 +2557,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111954131</v>
+        <v>111954145</v>
       </c>
       <c r="B18" t="n">
-        <v>89183</v>
+        <v>98535</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2593,21 +2573,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3215</v>
+        <v>222498</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2617,10 +2597,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>695672.0487292509</v>
+        <v>695858.182829462</v>
       </c>
       <c r="R18" t="n">
-        <v>6553407.850045409</v>
+        <v>6553691.855853913</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2652,7 +2632,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2662,7 +2642,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2689,10 +2669,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111954111</v>
+        <v>111954120</v>
       </c>
       <c r="B19" t="n">
-        <v>94173</v>
+        <v>56414</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2701,38 +2681,43 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2590</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>695776.66497851</v>
+        <v>695735.6871222925</v>
       </c>
       <c r="R19" t="n">
-        <v>6553520.834985243</v>
+        <v>6553444.581050223</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2764,7 +2749,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2774,7 +2759,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Hack på levande gran.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2801,10 +2791,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111954145</v>
+        <v>111954147</v>
       </c>
       <c r="B20" t="n">
-        <v>98535</v>
+        <v>89789</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2813,25 +2803,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>222498</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
+        <v>6040162</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Leptoporus erubescens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Bourdot &amp; Galzin</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2841,10 +2826,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>695858.182829462</v>
+        <v>695863.7275062524</v>
       </c>
       <c r="R20" t="n">
-        <v>6553691.855853913</v>
+        <v>6553815.209723577</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2876,7 +2861,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2886,7 +2871,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2913,10 +2898,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111954120</v>
+        <v>111954136</v>
       </c>
       <c r="B21" t="n">
-        <v>56414</v>
+        <v>93145</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2925,43 +2910,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100049</v>
+        <v>2671</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>695735.6871222925</v>
+        <v>695759.3320388016</v>
       </c>
       <c r="R21" t="n">
-        <v>6553444.581050223</v>
+        <v>6553536.94127673</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2993,7 +2973,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3003,12 +2983,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:27</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Hack på levande gran.</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3019,6 +2994,11 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3035,10 +3015,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111954147</v>
+        <v>111954113</v>
       </c>
       <c r="B22" t="n">
-        <v>89789</v>
+        <v>93171</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3047,20 +3027,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6040162</v>
+        <v>2818</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Stubbspretmossa</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Leptoporus erubescens</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Bourdot &amp; Galzin</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3070,10 +3055,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>695863.7275062524</v>
+        <v>695802.5905180702</v>
       </c>
       <c r="R22" t="n">
-        <v>6553815.209723577</v>
+        <v>6553528.34225694</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3105,7 +3090,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3115,7 +3100,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3142,10 +3127,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111954136</v>
+        <v>111954108</v>
       </c>
       <c r="B23" t="n">
-        <v>93145</v>
+        <v>90332</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3158,21 +3143,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2671</v>
+        <v>4769</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3182,10 +3167,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>695759.3320388016</v>
+        <v>695830.749629521</v>
       </c>
       <c r="R23" t="n">
-        <v>6553536.94127673</v>
+        <v>6553562.742190208</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3217,7 +3202,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3227,7 +3212,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Intill gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3238,11 +3228,6 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3259,10 +3244,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111954113</v>
+        <v>111954160</v>
       </c>
       <c r="B24" t="n">
-        <v>93171</v>
+        <v>94173</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3275,21 +3260,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2818</v>
+        <v>2590</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3299,10 +3284,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>695802.5905180702</v>
+        <v>695890.4165971773</v>
       </c>
       <c r="R24" t="n">
-        <v>6553528.34225694</v>
+        <v>6553626.563991487</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3334,7 +3319,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3344,7 +3329,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3371,10 +3356,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111954108</v>
+        <v>111954165</v>
       </c>
       <c r="B25" t="n">
-        <v>90332</v>
+        <v>108219</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3387,21 +3372,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4769</v>
+        <v>219711</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3411,10 +3396,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>695830.749629521</v>
+        <v>695912.2225252972</v>
       </c>
       <c r="R25" t="n">
-        <v>6553562.742190208</v>
+        <v>6553613.777598281</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3446,7 +3431,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3456,12 +3441,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:45</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Intill gran.</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3488,10 +3468,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111954160</v>
+        <v>111954150</v>
       </c>
       <c r="B26" t="n">
-        <v>94173</v>
+        <v>89183</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3504,21 +3484,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2590</v>
+        <v>3215</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3528,10 +3508,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>695890.4165971773</v>
+        <v>695844.0803595956</v>
       </c>
       <c r="R26" t="n">
-        <v>6553626.563991487</v>
+        <v>6553785.881987686</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3563,7 +3543,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3573,7 +3553,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3600,10 +3580,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111954165</v>
+        <v>111954107</v>
       </c>
       <c r="B27" t="n">
-        <v>108219</v>
+        <v>98535</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3616,21 +3596,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>219711</v>
+        <v>222498</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3640,10 +3620,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>695912.2225252972</v>
+        <v>695831.158922115</v>
       </c>
       <c r="R27" t="n">
-        <v>6553613.777598281</v>
+        <v>6553564.82300008</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3675,7 +3655,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3685,7 +3665,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3712,10 +3692,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111954150</v>
+        <v>111954164</v>
       </c>
       <c r="B28" t="n">
-        <v>89183</v>
+        <v>98535</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3728,21 +3708,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3215</v>
+        <v>222498</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3752,10 +3732,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>695844.0803595956</v>
+        <v>695912.2225252972</v>
       </c>
       <c r="R28" t="n">
-        <v>6553785.881987686</v>
+        <v>6553613.777598281</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3787,7 +3767,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3797,7 +3777,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3824,10 +3804,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111954107</v>
+        <v>111954188</v>
       </c>
       <c r="B29" t="n">
-        <v>98535</v>
+        <v>93248</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3840,34 +3820,43 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>222498</v>
+        <v>210</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>695831.158922115</v>
+        <v>695854.3031294853</v>
       </c>
       <c r="R29" t="n">
-        <v>6553564.82300008</v>
+        <v>6553777.651865888</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3899,7 +3888,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3909,7 +3898,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3920,6 +3909,26 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -3936,10 +3945,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111954164</v>
+        <v>111954124</v>
       </c>
       <c r="B30" t="n">
-        <v>98535</v>
+        <v>5113</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3952,21 +3961,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>222498</v>
+        <v>100526</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3976,10 +3985,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>695912.2225252972</v>
+        <v>695736.8704301633</v>
       </c>
       <c r="R30" t="n">
-        <v>6553613.777598281</v>
+        <v>6553421.467662166</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4011,7 +4020,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4021,7 +4030,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4032,6 +4041,26 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Picea abies # Lutande död gran.</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4048,10 +4077,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111954188</v>
+        <v>111954157</v>
       </c>
       <c r="B31" t="n">
-        <v>93248</v>
+        <v>94173</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4064,43 +4093,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>210</v>
+        <v>2590</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>695854.3031294853</v>
+        <v>695879.2959036676</v>
       </c>
       <c r="R31" t="n">
-        <v>6553777.651865888</v>
+        <v>6553632.173627001</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4132,7 +4152,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4142,7 +4162,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4153,26 +4173,6 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>Längs ned på förrötad granlåga.</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4189,10 +4189,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111954124</v>
+        <v>111954162</v>
       </c>
       <c r="B32" t="n">
-        <v>5113</v>
+        <v>57580</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4205,21 +4205,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100526</v>
+        <v>208249</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4229,10 +4229,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>695736.8704301633</v>
+        <v>695902.3413484473</v>
       </c>
       <c r="R32" t="n">
-        <v>6553421.467662166</v>
+        <v>6553615.331072005</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4285,26 +4285,6 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Picea abies # Lutande död gran.</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4321,10 +4301,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111954157</v>
+        <v>111954102</v>
       </c>
       <c r="B33" t="n">
-        <v>94173</v>
+        <v>93171</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4337,21 +4317,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2590</v>
+        <v>2818</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4361,10 +4341,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>695879.2959036676</v>
+        <v>695926.4066281476</v>
       </c>
       <c r="R33" t="n">
-        <v>6553632.173627001</v>
+        <v>6553628.923229965</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4396,7 +4376,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4406,7 +4386,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4417,6 +4397,26 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4433,10 +4433,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111954162</v>
+        <v>111954123</v>
       </c>
       <c r="B34" t="n">
-        <v>57580</v>
+        <v>5135</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4449,21 +4449,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>208249</v>
+        <v>105930</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4473,10 +4473,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>695902.3413484473</v>
+        <v>695736.8704301633</v>
       </c>
       <c r="R34" t="n">
-        <v>6553615.331072005</v>
+        <v>6553421.467662166</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4529,6 +4529,26 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Picea abies # Lutande död gran.</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4545,10 +4565,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111954102</v>
+        <v>111954170</v>
       </c>
       <c r="B35" t="n">
-        <v>93171</v>
+        <v>94173</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4561,34 +4581,38 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2818</v>
+        <v>2590</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>695926.4066281476</v>
+        <v>695866.660800101</v>
       </c>
       <c r="R35" t="n">
-        <v>6553628.923229965</v>
+        <v>6553657.273816385</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4620,7 +4644,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4630,7 +4654,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4639,28 +4663,9 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>Gammal barklös granlåga.</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4677,10 +4682,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111954123</v>
+        <v>111954159</v>
       </c>
       <c r="B36" t="n">
-        <v>5135</v>
+        <v>94173</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4693,21 +4698,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>105930</v>
+        <v>2590</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4717,10 +4722,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>695736.8704301633</v>
+        <v>695890.7796608348</v>
       </c>
       <c r="R36" t="n">
-        <v>6553421.467662166</v>
+        <v>6553579.206556734</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4752,7 +4757,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4762,7 +4767,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4773,26 +4778,6 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Picea abies # Lutande död gran.</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4809,7 +4794,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111954170</v>
+        <v>111954118</v>
       </c>
       <c r="B37" t="n">
         <v>94173</v>
@@ -4843,20 +4828,16 @@
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>695866.660800101</v>
+        <v>695797.07051896</v>
       </c>
       <c r="R37" t="n">
-        <v>6553657.273816385</v>
+        <v>6553495.101629349</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4888,7 +4869,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4898,7 +4879,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4907,7 +4888,6 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -4926,7 +4906,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111954159</v>
+        <v>111954114</v>
       </c>
       <c r="B38" t="n">
         <v>94173</v>
@@ -4966,10 +4946,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>695890.7796608348</v>
+        <v>695802.5905180702</v>
       </c>
       <c r="R38" t="n">
-        <v>6553579.206556734</v>
+        <v>6553528.34225694</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5001,7 +4981,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5011,7 +4991,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5038,10 +5018,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111954118</v>
+        <v>111954134</v>
       </c>
       <c r="B39" t="n">
-        <v>94173</v>
+        <v>98535</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5054,21 +5034,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2590</v>
+        <v>222498</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5078,10 +5058,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>695797.07051896</v>
+        <v>695759.3320388016</v>
       </c>
       <c r="R39" t="n">
-        <v>6553495.101629349</v>
+        <v>6553536.94127673</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5113,7 +5093,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5123,7 +5103,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5150,10 +5130,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111954114</v>
+        <v>111954187</v>
       </c>
       <c r="B40" t="n">
-        <v>94173</v>
+        <v>93171</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5166,21 +5146,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2590</v>
+        <v>2818</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5190,10 +5170,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>695802.5905180702</v>
+        <v>695854.3031294853</v>
       </c>
       <c r="R40" t="n">
-        <v>6553528.34225694</v>
+        <v>6553777.651865888</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5225,7 +5205,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5235,7 +5215,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5246,6 +5226,26 @@
       </c>
       <c r="AG40" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5262,10 +5262,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111954134</v>
+        <v>111954163</v>
       </c>
       <c r="B41" t="n">
-        <v>98535</v>
+        <v>108219</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5278,21 +5278,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>222498</v>
+        <v>219711</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5302,10 +5302,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>695759.3320388016</v>
+        <v>695909.345953525</v>
       </c>
       <c r="R41" t="n">
-        <v>6553536.94127673</v>
+        <v>6553609.510540643</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5374,10 +5374,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111954187</v>
+        <v>111962068</v>
       </c>
       <c r="B42" t="n">
-        <v>93171</v>
+        <v>90666</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5390,37 +5390,47 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2818</v>
+        <v>4364</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Ornö, öster om Brevik, Srm</t>
+          <t>Björnmossen, Srm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>695854.3031294853</v>
+        <v>695715.315722955</v>
       </c>
       <c r="R42" t="n">
-        <v>6553777.651865888</v>
+        <v>6553439.418369018</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5444,22 +5454,22 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5470,151 +5480,19 @@
       </c>
       <c r="AG42" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ42" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL42" t="inlineStr">
-        <is>
-          <t>Längs ned på förrötad granlåga.</t>
-        </is>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
-        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Cecilia Gottfries</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+          <t>Cecilia Gottfries</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>111954163</v>
-      </c>
-      <c r="B43" t="n">
-        <v>108219</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>LC</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>219711</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sårläka</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Sanicula europaea</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Ornö, öster om Brevik, Srm</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>695909.345953525</v>
-      </c>
-      <c r="R43" t="n">
-        <v>6553609.510540643</v>
-      </c>
-      <c r="S43" t="n">
-        <v>10</v>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>Stockholm</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>Haninge</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>Södermanland</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>Ornö</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>11:24</t>
-        </is>
-      </c>
-      <c r="AA43" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>11:24</t>
-        </is>
-      </c>
-      <c r="AD43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT43" t="inlineStr"/>
-      <c r="AW43" t="inlineStr">
-        <is>
-          <t>Klas Magnusson</t>
-        </is>
-      </c>
-      <c r="AX43" t="inlineStr">
-        <is>
-          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
-        </is>
-      </c>
-      <c r="AY43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 34417-2023.xlsx
+++ b/artfynd/A 34417-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111713457</v>
+        <v>111713455</v>
       </c>
       <c r="B2" t="n">
-        <v>98535</v>
+        <v>94173</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222498</v>
+        <v>2590</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Öster om Brevik, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>695859.6211092162</v>
+        <v>695863.9162259072</v>
       </c>
       <c r="R2" t="n">
-        <v>6553693.989318338</v>
+        <v>6553559.8065641</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +759,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,7 +769,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -774,8 +778,19 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Gransumpskog</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Klen fuktig låga.</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -792,10 +807,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111713455</v>
+        <v>111713457</v>
       </c>
       <c r="B3" t="n">
-        <v>94173</v>
+        <v>98535</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,38 +823,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2590</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Öster om Brevik, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>695863.9162259072</v>
+        <v>695859.6211092162</v>
       </c>
       <c r="R3" t="n">
-        <v>6553559.8065641</v>
+        <v>6553693.989318338</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -871,7 +882,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -881,7 +892,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -890,19 +901,8 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Gransumpskog</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Klen fuktig låga.</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -1158,10 +1158,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111954101</v>
+        <v>111954188</v>
       </c>
       <c r="B6" t="n">
-        <v>94134</v>
+        <v>93248</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1170,38 +1170,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>695926.4066281476</v>
+        <v>695854.3031294853</v>
       </c>
       <c r="R6" t="n">
-        <v>6553628.923229965</v>
+        <v>6553777.651865888</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1233,7 +1242,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1243,7 +1252,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1267,12 +1276,12 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>Gammal barklös granlåga.</t>
+          <t>Längs ned på förrötad granlåga.</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1290,10 +1299,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111954158</v>
+        <v>111954112</v>
       </c>
       <c r="B7" t="n">
-        <v>95532</v>
+        <v>57580</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1306,21 +1315,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221945</v>
+        <v>208249</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1330,10 +1339,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>695877.0654070158</v>
+        <v>695777.6414421956</v>
       </c>
       <c r="R7" t="n">
-        <v>6553625.364951649</v>
+        <v>6553521.914919985</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1365,7 +1374,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1375,7 +1384,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1402,10 +1411,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111954126</v>
+        <v>111954116</v>
       </c>
       <c r="B8" t="n">
-        <v>77186</v>
+        <v>94173</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1414,25 +1423,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>353</v>
+        <v>2590</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1442,10 +1451,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>695699.5864493458</v>
+        <v>695813.6703547441</v>
       </c>
       <c r="R8" t="n">
-        <v>6553424.193865892</v>
+        <v>6553513.460727843</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1477,7 +1486,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1487,7 +1496,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1498,26 +1507,6 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>Gammal högstubbe som det växte en gran i mitten av.</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Gammal högstubbe som det växte en gran i mitten av.</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1534,10 +1523,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111954144</v>
+        <v>111954157</v>
       </c>
       <c r="B9" t="n">
-        <v>93145</v>
+        <v>94173</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1550,21 +1539,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2671</v>
+        <v>2590</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1574,10 +1563,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>695851.2107494868</v>
+        <v>695879.2959036676</v>
       </c>
       <c r="R9" t="n">
-        <v>6553646.698234474</v>
+        <v>6553632.173627001</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1609,7 +1598,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1619,7 +1608,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1630,11 +1619,6 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk sbergart.</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1651,10 +1635,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111954161</v>
+        <v>111954164</v>
       </c>
       <c r="B10" t="n">
-        <v>95532</v>
+        <v>98535</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1667,21 +1651,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1691,10 +1675,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>695896.3658051894</v>
+        <v>695912.2225252972</v>
       </c>
       <c r="R10" t="n">
-        <v>6553621.204334841</v>
+        <v>6553613.777598281</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1726,7 +1710,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1736,7 +1720,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1763,10 +1747,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111954112</v>
+        <v>111954144</v>
       </c>
       <c r="B11" t="n">
-        <v>57580</v>
+        <v>93145</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1779,21 +1763,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>208249</v>
+        <v>2671</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1803,10 +1787,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>695777.6414421956</v>
+        <v>695851.2107494868</v>
       </c>
       <c r="R11" t="n">
-        <v>6553521.914919985</v>
+        <v>6553646.698234474</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1838,7 +1822,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1848,7 +1832,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1859,6 +1843,11 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk sbergart.</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1875,10 +1864,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111954106</v>
+        <v>111954113</v>
       </c>
       <c r="B12" t="n">
-        <v>92952</v>
+        <v>93171</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1891,21 +1880,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2779</v>
+        <v>2818</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1915,10 +1904,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>695918.5640496905</v>
+        <v>695802.5905180702</v>
       </c>
       <c r="R12" t="n">
-        <v>6553580.630297415</v>
+        <v>6553528.34225694</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1950,7 +1939,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1960,7 +1949,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1971,11 +1960,6 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2109,10 +2093,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111954167</v>
+        <v>111954114</v>
       </c>
       <c r="B14" t="n">
-        <v>93171</v>
+        <v>94173</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2125,21 +2109,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2818</v>
+        <v>2590</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2149,10 +2133,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>695901.3675654647</v>
+        <v>695802.5905180702</v>
       </c>
       <c r="R14" t="n">
-        <v>6553634.334477904</v>
+        <v>6553528.34225694</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2184,7 +2168,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2194,7 +2178,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2221,10 +2205,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111954116</v>
+        <v>111954165</v>
       </c>
       <c r="B15" t="n">
-        <v>94173</v>
+        <v>108219</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2237,21 +2221,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2590</v>
+        <v>219711</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2261,10 +2245,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>695813.6703547441</v>
+        <v>695912.2225252972</v>
       </c>
       <c r="R15" t="n">
-        <v>6553513.460727843</v>
+        <v>6553613.777598281</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2296,7 +2280,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2306,7 +2290,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2445,10 +2429,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111954111</v>
+        <v>111954108</v>
       </c>
       <c r="B17" t="n">
-        <v>94173</v>
+        <v>90332</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2461,21 +2445,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2590</v>
+        <v>4769</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2485,10 +2469,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>695776.66497851</v>
+        <v>695830.749629521</v>
       </c>
       <c r="R17" t="n">
-        <v>6553520.834985243</v>
+        <v>6553562.742190208</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2520,7 +2504,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2530,7 +2514,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Intill gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2557,10 +2546,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111954145</v>
+        <v>111954158</v>
       </c>
       <c r="B18" t="n">
-        <v>98535</v>
+        <v>95532</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2573,21 +2562,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2597,10 +2586,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>695858.182829462</v>
+        <v>695877.0654070158</v>
       </c>
       <c r="R18" t="n">
-        <v>6553691.855853913</v>
+        <v>6553625.364951649</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2632,7 +2621,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2642,7 +2631,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2669,10 +2658,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111954120</v>
+        <v>111954145</v>
       </c>
       <c r="B19" t="n">
-        <v>56414</v>
+        <v>98535</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2681,43 +2670,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>695735.6871222925</v>
+        <v>695858.182829462</v>
       </c>
       <c r="R19" t="n">
-        <v>6553444.581050223</v>
+        <v>6553691.855853913</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2749,7 +2733,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2759,12 +2743,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:27</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Hack på levande gran.</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2791,10 +2770,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111954147</v>
+        <v>111954102</v>
       </c>
       <c r="B20" t="n">
-        <v>89789</v>
+        <v>93171</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2803,20 +2782,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6040162</v>
+        <v>2818</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Stubbspretmossa</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Leptoporus erubescens</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Bourdot &amp; Galzin</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2826,10 +2810,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>695863.7275062524</v>
+        <v>695926.4066281476</v>
       </c>
       <c r="R20" t="n">
-        <v>6553815.209723577</v>
+        <v>6553628.923229965</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2861,7 +2845,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2871,7 +2855,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2882,6 +2866,26 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2898,10 +2902,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111954136</v>
+        <v>111954161</v>
       </c>
       <c r="B21" t="n">
-        <v>93145</v>
+        <v>95532</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2914,21 +2918,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2671</v>
+        <v>221945</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2938,10 +2942,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>695759.3320388016</v>
+        <v>695896.3658051894</v>
       </c>
       <c r="R21" t="n">
-        <v>6553536.94127673</v>
+        <v>6553621.204334841</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2973,7 +2977,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2983,7 +2987,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2994,11 +2998,6 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3015,10 +3014,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111954113</v>
+        <v>111954134</v>
       </c>
       <c r="B22" t="n">
-        <v>93171</v>
+        <v>98535</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3031,21 +3030,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2818</v>
+        <v>222498</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3055,10 +3054,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>695802.5905180702</v>
+        <v>695759.3320388016</v>
       </c>
       <c r="R22" t="n">
-        <v>6553528.34225694</v>
+        <v>6553536.94127673</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3090,7 +3089,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3100,7 +3099,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3127,10 +3126,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111954108</v>
+        <v>111954147</v>
       </c>
       <c r="B23" t="n">
-        <v>90332</v>
+        <v>89789</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3139,25 +3138,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4769</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Svavelriska</t>
-        </is>
+        <v>6040162</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Leptoporus erubescens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Bourdot &amp; Galzin</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3167,10 +3161,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>695830.749629521</v>
+        <v>695863.7275062524</v>
       </c>
       <c r="R23" t="n">
-        <v>6553562.742190208</v>
+        <v>6553815.209723577</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3202,7 +3196,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3212,12 +3206,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:45</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Intill gran.</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3244,10 +3233,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111954160</v>
+        <v>111954162</v>
       </c>
       <c r="B24" t="n">
-        <v>94173</v>
+        <v>57580</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3260,21 +3249,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2590</v>
+        <v>208249</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3284,10 +3273,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>695890.4165971773</v>
+        <v>695902.3413484473</v>
       </c>
       <c r="R24" t="n">
-        <v>6553626.563991487</v>
+        <v>6553615.331072005</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3319,7 +3308,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3329,7 +3318,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3356,10 +3345,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111954165</v>
+        <v>111954126</v>
       </c>
       <c r="B25" t="n">
-        <v>108219</v>
+        <v>77186</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3368,25 +3357,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>219711</v>
+        <v>353</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3396,10 +3385,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>695912.2225252972</v>
+        <v>695699.5864493458</v>
       </c>
       <c r="R25" t="n">
-        <v>6553613.777598281</v>
+        <v>6553424.193865892</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3431,7 +3420,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3441,7 +3430,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3452,6 +3441,26 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>Gammal högstubbe som det växte en gran i mitten av.</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Gammal högstubbe som det växte en gran i mitten av.</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3468,10 +3477,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111954150</v>
+        <v>111954120</v>
       </c>
       <c r="B26" t="n">
-        <v>89183</v>
+        <v>56414</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3480,38 +3489,43 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3215</v>
+        <v>100049</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>695844.0803595956</v>
+        <v>695735.6871222925</v>
       </c>
       <c r="R26" t="n">
-        <v>6553785.881987686</v>
+        <v>6553444.581050223</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3543,7 +3557,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3553,7 +3567,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Hack på levande gran.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3580,10 +3599,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111954107</v>
+        <v>111954167</v>
       </c>
       <c r="B27" t="n">
-        <v>98535</v>
+        <v>93171</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3596,21 +3615,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>222498</v>
+        <v>2818</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3620,10 +3639,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>695831.158922115</v>
+        <v>695901.3675654647</v>
       </c>
       <c r="R27" t="n">
-        <v>6553564.82300008</v>
+        <v>6553634.334477904</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3655,7 +3674,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3665,7 +3684,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3692,10 +3711,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111954164</v>
+        <v>111954187</v>
       </c>
       <c r="B28" t="n">
-        <v>98535</v>
+        <v>93171</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3708,21 +3727,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>222498</v>
+        <v>2818</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3732,10 +3751,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>695912.2225252972</v>
+        <v>695854.3031294853</v>
       </c>
       <c r="R28" t="n">
-        <v>6553613.777598281</v>
+        <v>6553777.651865888</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3767,7 +3786,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3777,7 +3796,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3788,6 +3807,26 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3804,10 +3843,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111954188</v>
+        <v>111954170</v>
       </c>
       <c r="B29" t="n">
-        <v>93248</v>
+        <v>94173</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3820,43 +3859,38 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>210</v>
+        <v>2590</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>695854.3031294853</v>
+        <v>695866.660800101</v>
       </c>
       <c r="R29" t="n">
-        <v>6553777.651865888</v>
+        <v>6553657.273816385</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3888,7 +3922,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3898,7 +3932,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3907,28 +3941,9 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>Längs ned på förrötad granlåga.</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
-        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -3945,10 +3960,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111954124</v>
+        <v>111954101</v>
       </c>
       <c r="B30" t="n">
-        <v>5113</v>
+        <v>94134</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3957,25 +3972,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100526</v>
+        <v>53</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3985,10 +4000,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>695736.8704301633</v>
+        <v>695926.4066281476</v>
       </c>
       <c r="R30" t="n">
-        <v>6553421.467662166</v>
+        <v>6553628.923229965</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4020,7 +4035,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4030,7 +4045,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4054,12 +4069,12 @@
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>Lutande död gran.</t>
+          <t>Gammal barklös granlåga.</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Picea abies # Lutande död gran.</t>
+          <t>Picea abies # Gammal barklös granlåga.</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4077,7 +4092,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111954157</v>
+        <v>111954159</v>
       </c>
       <c r="B31" t="n">
         <v>94173</v>
@@ -4117,10 +4132,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>695879.2959036676</v>
+        <v>695890.7796608348</v>
       </c>
       <c r="R31" t="n">
-        <v>6553632.173627001</v>
+        <v>6553579.206556734</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4152,7 +4167,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4162,7 +4177,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4189,10 +4204,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111954162</v>
+        <v>111954160</v>
       </c>
       <c r="B32" t="n">
-        <v>57580</v>
+        <v>94173</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4205,21 +4220,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>208249</v>
+        <v>2590</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4229,10 +4244,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>695902.3413484473</v>
+        <v>695890.4165971773</v>
       </c>
       <c r="R32" t="n">
-        <v>6553615.331072005</v>
+        <v>6553626.563991487</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4264,7 +4279,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4274,7 +4289,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4301,10 +4316,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111954102</v>
+        <v>111954106</v>
       </c>
       <c r="B33" t="n">
-        <v>93171</v>
+        <v>92952</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4317,21 +4332,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2818</v>
+        <v>2779</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4341,10 +4356,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>695926.4066281476</v>
+        <v>695918.5640496905</v>
       </c>
       <c r="R33" t="n">
-        <v>6553628.923229965</v>
+        <v>6553580.630297415</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4376,7 +4391,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4386,7 +4401,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4398,24 +4413,9 @@
       <c r="AG33" t="b">
         <v>0</v>
       </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>Gammal barklös granlåga.</t>
-        </is>
-      </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4433,10 +4433,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111954123</v>
+        <v>111954118</v>
       </c>
       <c r="B34" t="n">
-        <v>5135</v>
+        <v>94173</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4449,21 +4449,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>105930</v>
+        <v>2590</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4473,10 +4473,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>695736.8704301633</v>
+        <v>695797.07051896</v>
       </c>
       <c r="R34" t="n">
-        <v>6553421.467662166</v>
+        <v>6553495.101629349</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4529,26 +4529,6 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Picea abies # Lutande död gran.</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4565,10 +4545,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111954170</v>
+        <v>111954123</v>
       </c>
       <c r="B35" t="n">
-        <v>94173</v>
+        <v>5135</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4581,38 +4561,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2590</v>
+        <v>105930</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>695866.660800101</v>
+        <v>695736.8704301633</v>
       </c>
       <c r="R35" t="n">
-        <v>6553657.273816385</v>
+        <v>6553421.467662166</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4644,7 +4620,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4654,7 +4630,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4663,9 +4639,28 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Picea abies # Lutande död gran.</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4682,10 +4677,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111954159</v>
+        <v>111954107</v>
       </c>
       <c r="B36" t="n">
-        <v>94173</v>
+        <v>98535</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4698,21 +4693,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2590</v>
+        <v>222498</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4722,10 +4717,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>695890.7796608348</v>
+        <v>695831.158922115</v>
       </c>
       <c r="R36" t="n">
-        <v>6553579.206556734</v>
+        <v>6553564.82300008</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4757,7 +4752,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4767,7 +4762,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4794,7 +4789,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111954118</v>
+        <v>111954111</v>
       </c>
       <c r="B37" t="n">
         <v>94173</v>
@@ -4834,10 +4829,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>695797.07051896</v>
+        <v>695776.66497851</v>
       </c>
       <c r="R37" t="n">
-        <v>6553495.101629349</v>
+        <v>6553520.834985243</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4869,7 +4864,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4879,7 +4874,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4906,10 +4901,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111954114</v>
+        <v>111954150</v>
       </c>
       <c r="B38" t="n">
-        <v>94173</v>
+        <v>89183</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4922,21 +4917,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2590</v>
+        <v>3215</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4946,10 +4941,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>695802.5905180702</v>
+        <v>695844.0803595956</v>
       </c>
       <c r="R38" t="n">
-        <v>6553528.34225694</v>
+        <v>6553785.881987686</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4981,7 +4976,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4991,7 +4986,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5018,10 +5013,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111954134</v>
+        <v>111954136</v>
       </c>
       <c r="B39" t="n">
-        <v>98535</v>
+        <v>93145</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5034,21 +5029,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>222498</v>
+        <v>2671</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5114,6 +5109,11 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5130,10 +5130,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111954187</v>
+        <v>111954124</v>
       </c>
       <c r="B40" t="n">
-        <v>93171</v>
+        <v>5113</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5146,21 +5146,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2818</v>
+        <v>100526</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5170,10 +5170,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>695854.3031294853</v>
+        <v>695736.8704301633</v>
       </c>
       <c r="R40" t="n">
-        <v>6553777.651865888</v>
+        <v>6553421.467662166</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5239,12 +5239,12 @@
       </c>
       <c r="AL40" t="inlineStr">
         <is>
-          <t>Längs ned på förrötad granlåga.</t>
+          <t>Lutande död gran.</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+          <t>Picea abies # Lutande död gran.</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>

--- a/artfynd/A 34417-2023.xlsx
+++ b/artfynd/A 34417-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY42"/>
+  <dimension ref="A1:AY39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111954112</v>
+        <v>111954116</v>
       </c>
       <c r="B7" t="n">
-        <v>57580</v>
+        <v>94173</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1315,21 +1315,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>208249</v>
+        <v>2590</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>695777.6414421956</v>
+        <v>695813.6703547441</v>
       </c>
       <c r="R7" t="n">
-        <v>6553521.914919985</v>
+        <v>6553513.460727843</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1411,7 +1411,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111954116</v>
+        <v>111954157</v>
       </c>
       <c r="B8" t="n">
         <v>94173</v>
@@ -1451,10 +1451,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>695813.6703547441</v>
+        <v>695879.2959036676</v>
       </c>
       <c r="R8" t="n">
-        <v>6553513.460727843</v>
+        <v>6553632.173627001</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1523,10 +1523,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111954157</v>
+        <v>111954164</v>
       </c>
       <c r="B9" t="n">
-        <v>94173</v>
+        <v>98535</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1539,21 +1539,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2590</v>
+        <v>222498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1563,10 +1563,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>695879.2959036676</v>
+        <v>695912.2225252972</v>
       </c>
       <c r="R9" t="n">
-        <v>6553632.173627001</v>
+        <v>6553613.777598281</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1635,10 +1635,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111954164</v>
+        <v>111954144</v>
       </c>
       <c r="B10" t="n">
-        <v>98535</v>
+        <v>93145</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1651,21 +1651,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222498</v>
+        <v>2671</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>695912.2225252972</v>
+        <v>695851.2107494868</v>
       </c>
       <c r="R10" t="n">
-        <v>6553613.777598281</v>
+        <v>6553646.698234474</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1731,6 +1731,11 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk sbergart.</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1747,10 +1752,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111954144</v>
+        <v>111954113</v>
       </c>
       <c r="B11" t="n">
-        <v>93145</v>
+        <v>93171</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1763,21 +1768,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2671</v>
+        <v>2818</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1787,10 +1792,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>695851.2107494868</v>
+        <v>695802.5905180702</v>
       </c>
       <c r="R11" t="n">
-        <v>6553646.698234474</v>
+        <v>6553528.34225694</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1822,7 +1827,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1832,7 +1837,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1843,11 +1848,6 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk sbergart.</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1864,10 +1864,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111954113</v>
+        <v>111954135</v>
       </c>
       <c r="B12" t="n">
-        <v>93171</v>
+        <v>92952</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1880,21 +1880,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2818</v>
+        <v>2779</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1904,10 +1904,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>695802.5905180702</v>
+        <v>695759.3320388016</v>
       </c>
       <c r="R12" t="n">
-        <v>6553528.34225694</v>
+        <v>6553536.94127673</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1960,6 +1960,11 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1976,10 +1981,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111954135</v>
+        <v>111954114</v>
       </c>
       <c r="B13" t="n">
-        <v>92952</v>
+        <v>94173</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1992,21 +1997,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2779</v>
+        <v>2590</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2016,10 +2021,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>695759.3320388016</v>
+        <v>695802.5905180702</v>
       </c>
       <c r="R13" t="n">
-        <v>6553536.94127673</v>
+        <v>6553528.34225694</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2051,7 +2056,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2061,7 +2066,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2072,11 +2077,6 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2093,10 +2093,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111954114</v>
+        <v>111954165</v>
       </c>
       <c r="B14" t="n">
-        <v>94173</v>
+        <v>108219</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2109,21 +2109,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2590</v>
+        <v>219711</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2133,10 +2133,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>695802.5905180702</v>
+        <v>695912.2225252972</v>
       </c>
       <c r="R14" t="n">
-        <v>6553528.34225694</v>
+        <v>6553613.777598281</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2205,10 +2205,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111954165</v>
+        <v>111954131</v>
       </c>
       <c r="B15" t="n">
-        <v>108219</v>
+        <v>89183</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2221,21 +2221,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>219711</v>
+        <v>3215</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>695912.2225252972</v>
+        <v>695672.0487292509</v>
       </c>
       <c r="R15" t="n">
-        <v>6553613.777598281</v>
+        <v>6553407.850045409</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2317,10 +2317,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111954131</v>
+        <v>111954108</v>
       </c>
       <c r="B16" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2333,21 +2333,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2357,10 +2357,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>695672.0487292509</v>
+        <v>695830.749629521</v>
       </c>
       <c r="R16" t="n">
-        <v>6553407.850045409</v>
+        <v>6553562.742190208</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2402,7 +2402,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Intill gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2429,10 +2434,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111954108</v>
+        <v>111954158</v>
       </c>
       <c r="B17" t="n">
-        <v>90332</v>
+        <v>95532</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2445,21 +2450,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4769</v>
+        <v>221945</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2469,10 +2474,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>695830.749629521</v>
+        <v>695877.0654070158</v>
       </c>
       <c r="R17" t="n">
-        <v>6553562.742190208</v>
+        <v>6553625.364951649</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2504,7 +2509,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2514,12 +2519,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:45</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Intill gran.</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2546,10 +2546,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111954158</v>
+        <v>111954145</v>
       </c>
       <c r="B18" t="n">
-        <v>95532</v>
+        <v>98535</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2562,21 +2562,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>695877.0654070158</v>
+        <v>695858.182829462</v>
       </c>
       <c r="R18" t="n">
-        <v>6553625.364951649</v>
+        <v>6553691.855853913</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2658,10 +2658,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111954145</v>
+        <v>111954102</v>
       </c>
       <c r="B19" t="n">
-        <v>98535</v>
+        <v>93171</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2674,21 +2674,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222498</v>
+        <v>2818</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2698,10 +2698,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>695858.182829462</v>
+        <v>695926.4066281476</v>
       </c>
       <c r="R19" t="n">
-        <v>6553691.855853913</v>
+        <v>6553628.923229965</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2754,6 +2754,26 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2770,10 +2790,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111954102</v>
+        <v>111954161</v>
       </c>
       <c r="B20" t="n">
-        <v>93171</v>
+        <v>95532</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2786,21 +2806,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2818</v>
+        <v>221945</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2810,10 +2830,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>695926.4066281476</v>
+        <v>695896.3658051894</v>
       </c>
       <c r="R20" t="n">
-        <v>6553628.923229965</v>
+        <v>6553621.204334841</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2845,7 +2865,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2855,7 +2875,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2866,26 +2886,6 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>Gammal barklös granlåga.</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2902,10 +2902,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111954161</v>
+        <v>111954134</v>
       </c>
       <c r="B21" t="n">
-        <v>95532</v>
+        <v>98535</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2918,21 +2918,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2942,10 +2942,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>695896.3658051894</v>
+        <v>695759.3320388016</v>
       </c>
       <c r="R21" t="n">
-        <v>6553621.204334841</v>
+        <v>6553536.94127673</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3014,10 +3014,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111954134</v>
+        <v>111954147</v>
       </c>
       <c r="B22" t="n">
-        <v>98535</v>
+        <v>89789</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3026,25 +3026,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>222498</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
+        <v>6040162</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Leptoporus erubescens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Bourdot &amp; Galzin</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3054,10 +3049,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>695759.3320388016</v>
+        <v>695863.7275062524</v>
       </c>
       <c r="R22" t="n">
-        <v>6553536.94127673</v>
+        <v>6553815.209723577</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3089,7 +3084,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3099,7 +3094,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3126,10 +3121,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111954147</v>
+        <v>111954120</v>
       </c>
       <c r="B23" t="n">
-        <v>89789</v>
+        <v>56414</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3142,29 +3137,39 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6040162</v>
+        <v>100049</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Leptoporus erubescens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Bourdot &amp; Galzin</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>695863.7275062524</v>
+        <v>695735.6871222925</v>
       </c>
       <c r="R23" t="n">
-        <v>6553815.209723577</v>
+        <v>6553444.581050223</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3196,7 +3201,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3206,7 +3211,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Hack på levande gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3233,10 +3243,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111954162</v>
+        <v>111954167</v>
       </c>
       <c r="B24" t="n">
-        <v>57580</v>
+        <v>93171</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3249,21 +3259,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>208249</v>
+        <v>2818</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3273,10 +3283,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>695902.3413484473</v>
+        <v>695901.3675654647</v>
       </c>
       <c r="R24" t="n">
-        <v>6553615.331072005</v>
+        <v>6553634.334477904</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3308,7 +3318,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3318,7 +3328,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3345,10 +3355,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111954126</v>
+        <v>111954187</v>
       </c>
       <c r="B25" t="n">
-        <v>77186</v>
+        <v>93171</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3357,25 +3367,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>353</v>
+        <v>2818</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3385,10 +3395,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>695699.5864493458</v>
+        <v>695854.3031294853</v>
       </c>
       <c r="R25" t="n">
-        <v>6553424.193865892</v>
+        <v>6553777.651865888</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3420,7 +3430,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3430,7 +3440,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3444,22 +3454,22 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>Gammal högstubbe som det växte en gran i mitten av.</t>
+          <t>Längs ned på förrötad granlåga.</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # Gammal högstubbe som det växte en gran i mitten av.</t>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3477,10 +3487,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111954120</v>
+        <v>111954170</v>
       </c>
       <c r="B26" t="n">
-        <v>56414</v>
+        <v>94173</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3489,43 +3499,42 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100049</v>
+        <v>2590</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>695735.6871222925</v>
+        <v>695866.660800101</v>
       </c>
       <c r="R26" t="n">
-        <v>6553444.581050223</v>
+        <v>6553657.273816385</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3557,7 +3566,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3567,12 +3576,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:27</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Hack på levande gran.</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3581,6 +3585,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3599,10 +3604,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111954167</v>
+        <v>111954101</v>
       </c>
       <c r="B27" t="n">
-        <v>93171</v>
+        <v>94134</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3611,25 +3616,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2818</v>
+        <v>53</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3639,10 +3644,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>695901.3675654647</v>
+        <v>695926.4066281476</v>
       </c>
       <c r="R27" t="n">
-        <v>6553634.334477904</v>
+        <v>6553628.923229965</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3674,7 +3679,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3684,7 +3689,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3695,6 +3700,26 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3711,10 +3736,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111954187</v>
+        <v>111954106</v>
       </c>
       <c r="B28" t="n">
-        <v>93171</v>
+        <v>92952</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3727,21 +3752,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2818</v>
+        <v>2779</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3751,10 +3776,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>695854.3031294853</v>
+        <v>695918.5640496905</v>
       </c>
       <c r="R28" t="n">
-        <v>6553777.651865888</v>
+        <v>6553580.630297415</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3786,7 +3811,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3796,7 +3821,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3808,24 +3833,9 @@
       <c r="AG28" t="b">
         <v>0</v>
       </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>Längs ned på förrötad granlåga.</t>
-        </is>
-      </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3843,7 +3853,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111954170</v>
+        <v>111954159</v>
       </c>
       <c r="B29" t="n">
         <v>94173</v>
@@ -3877,20 +3887,16 @@
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>695866.660800101</v>
+        <v>695890.7796608348</v>
       </c>
       <c r="R29" t="n">
-        <v>6553657.273816385</v>
+        <v>6553579.206556734</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3922,7 +3928,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3932,7 +3938,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3941,7 +3947,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3960,10 +3965,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111954101</v>
+        <v>111954160</v>
       </c>
       <c r="B30" t="n">
-        <v>94134</v>
+        <v>94173</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3972,25 +3977,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>53</v>
+        <v>2590</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4000,10 +4005,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>695926.4066281476</v>
+        <v>695890.4165971773</v>
       </c>
       <c r="R30" t="n">
-        <v>6553628.923229965</v>
+        <v>6553626.563991487</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4035,7 +4040,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4045,7 +4050,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4056,26 +4061,6 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>Gammal barklös granlåga.</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4092,7 +4077,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111954159</v>
+        <v>111954118</v>
       </c>
       <c r="B31" t="n">
         <v>94173</v>
@@ -4132,10 +4117,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>695890.7796608348</v>
+        <v>695797.07051896</v>
       </c>
       <c r="R31" t="n">
-        <v>6553579.206556734</v>
+        <v>6553495.101629349</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4167,7 +4152,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4177,7 +4162,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4204,10 +4189,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111954160</v>
+        <v>111954123</v>
       </c>
       <c r="B32" t="n">
-        <v>94173</v>
+        <v>5135</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4220,21 +4205,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2590</v>
+        <v>105930</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4244,10 +4229,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>695890.4165971773</v>
+        <v>695736.8704301633</v>
       </c>
       <c r="R32" t="n">
-        <v>6553626.563991487</v>
+        <v>6553421.467662166</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4279,7 +4264,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4289,7 +4274,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4300,6 +4285,26 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Picea abies # Lutande död gran.</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4316,10 +4321,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111954106</v>
+        <v>111954107</v>
       </c>
       <c r="B33" t="n">
-        <v>92952</v>
+        <v>98535</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4332,21 +4337,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2779</v>
+        <v>222498</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4356,10 +4361,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>695918.5640496905</v>
+        <v>695831.158922115</v>
       </c>
       <c r="R33" t="n">
-        <v>6553580.630297415</v>
+        <v>6553564.82300008</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4391,7 +4396,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4401,7 +4406,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4412,11 +4417,6 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4433,7 +4433,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111954118</v>
+        <v>111954111</v>
       </c>
       <c r="B34" t="n">
         <v>94173</v>
@@ -4473,10 +4473,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>695797.07051896</v>
+        <v>695776.66497851</v>
       </c>
       <c r="R34" t="n">
-        <v>6553495.101629349</v>
+        <v>6553520.834985243</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4545,10 +4545,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111954123</v>
+        <v>111954150</v>
       </c>
       <c r="B35" t="n">
-        <v>5135</v>
+        <v>89183</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4561,21 +4561,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>105930</v>
+        <v>3215</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4585,10 +4585,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>695736.8704301633</v>
+        <v>695844.0803595956</v>
       </c>
       <c r="R35" t="n">
-        <v>6553421.467662166</v>
+        <v>6553785.881987686</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4620,7 +4620,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4641,26 +4641,6 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Picea abies # Lutande död gran.</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4677,10 +4657,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111954107</v>
+        <v>111954136</v>
       </c>
       <c r="B36" t="n">
-        <v>98535</v>
+        <v>93145</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4693,21 +4673,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>222498</v>
+        <v>2671</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4717,10 +4697,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>695831.158922115</v>
+        <v>695759.3320388016</v>
       </c>
       <c r="R36" t="n">
-        <v>6553564.82300008</v>
+        <v>6553536.94127673</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4752,7 +4732,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4762,7 +4742,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4773,6 +4753,11 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4789,10 +4774,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111954111</v>
+        <v>111954124</v>
       </c>
       <c r="B37" t="n">
-        <v>94173</v>
+        <v>5113</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4805,21 +4790,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2590</v>
+        <v>100526</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4829,10 +4814,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>695776.66497851</v>
+        <v>695736.8704301633</v>
       </c>
       <c r="R37" t="n">
-        <v>6553520.834985243</v>
+        <v>6553421.467662166</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4864,7 +4849,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4874,7 +4859,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4885,6 +4870,26 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Picea abies # Lutande död gran.</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4901,10 +4906,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111954150</v>
+        <v>111954163</v>
       </c>
       <c r="B38" t="n">
-        <v>89183</v>
+        <v>108219</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4917,21 +4922,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3215</v>
+        <v>219711</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4941,10 +4946,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>695844.0803595956</v>
+        <v>695909.345953525</v>
       </c>
       <c r="R38" t="n">
-        <v>6553785.881987686</v>
+        <v>6553609.510540643</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4976,7 +4981,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4986,7 +4991,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5013,10 +5018,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111954136</v>
+        <v>111962068</v>
       </c>
       <c r="B39" t="n">
-        <v>93145</v>
+        <v>90666</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5029,37 +5034,47 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2671</v>
+        <v>4364</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Ornö, öster om Brevik, Srm</t>
+          <t>Björnmossen, Srm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>695759.3320388016</v>
+        <v>695715.315722955</v>
       </c>
       <c r="R39" t="n">
-        <v>6553536.94127673</v>
+        <v>6553439.418369018</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5083,22 +5098,22 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5109,390 +5124,19 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Cecilia Gottfries</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+          <t>Cecilia Gottfries</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>111954124</v>
-      </c>
-      <c r="B40" t="n">
-        <v>5113</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>LC</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>100526</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Bronshjon</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Callidium coriaceum</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Ornö, öster om Brevik, Srm</t>
-        </is>
-      </c>
-      <c r="Q40" t="n">
-        <v>695736.8704301633</v>
-      </c>
-      <c r="R40" t="n">
-        <v>6553421.467662166</v>
-      </c>
-      <c r="S40" t="n">
-        <v>10</v>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>Stockholm</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>Haninge</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Södermanland</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>Ornö</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>14:19</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>14:19</t>
-        </is>
-      </c>
-      <c r="AD40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL40" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Picea abies # Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AT40" t="inlineStr"/>
-      <c r="AW40" t="inlineStr">
-        <is>
-          <t>Klas Magnusson</t>
-        </is>
-      </c>
-      <c r="AX40" t="inlineStr">
-        <is>
-          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
-        </is>
-      </c>
-      <c r="AY40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>111954163</v>
-      </c>
-      <c r="B41" t="n">
-        <v>108219</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>LC</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>219711</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Sårläka</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Sanicula europaea</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Ornö, öster om Brevik, Srm</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
-        <v>695909.345953525</v>
-      </c>
-      <c r="R41" t="n">
-        <v>6553609.510540643</v>
-      </c>
-      <c r="S41" t="n">
-        <v>10</v>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>Stockholm</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>Haninge</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>Södermanland</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>Ornö</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>11:24</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>11:24</t>
-        </is>
-      </c>
-      <c r="AD41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT41" t="inlineStr"/>
-      <c r="AW41" t="inlineStr">
-        <is>
-          <t>Klas Magnusson</t>
-        </is>
-      </c>
-      <c r="AX41" t="inlineStr">
-        <is>
-          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
-        </is>
-      </c>
-      <c r="AY41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>111962068</v>
-      </c>
-      <c r="B42" t="n">
-        <v>90666</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>LC</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>4364</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Hydnellum ferrugineum</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Björnmossen, Srm</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>695715.315722955</v>
-      </c>
-      <c r="R42" t="n">
-        <v>6553439.418369018</v>
-      </c>
-      <c r="S42" t="n">
-        <v>50</v>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>Stockholm</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>Haninge</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>Södermanland</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>Ornö</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>10:53</t>
-        </is>
-      </c>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>10:53</t>
-        </is>
-      </c>
-      <c r="AD42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT42" t="inlineStr"/>
-      <c r="AW42" t="inlineStr">
-        <is>
-          <t>Cecilia Gottfries</t>
-        </is>
-      </c>
-      <c r="AX42" t="inlineStr">
-        <is>
-          <t>Cecilia Gottfries</t>
-        </is>
-      </c>
-      <c r="AY42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 34417-2023.xlsx
+++ b/artfynd/A 34417-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111713455</v>
+        <v>111713457</v>
       </c>
       <c r="B2" t="n">
-        <v>94173</v>
+        <v>98535</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2590</v>
+        <v>222498</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Öster om Brevik, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>695863.9162259072</v>
+        <v>695859.6211092162</v>
       </c>
       <c r="R2" t="n">
-        <v>6553559.8065641</v>
+        <v>6553693.989318338</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -759,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -769,7 +765,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -778,19 +774,8 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Gransumpskog</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Klen fuktig låga.</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -807,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111713457</v>
+        <v>111713455</v>
       </c>
       <c r="B3" t="n">
-        <v>98535</v>
+        <v>94173</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -823,34 +808,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>2590</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Öster om Brevik, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>695859.6211092162</v>
+        <v>695863.9162259072</v>
       </c>
       <c r="R3" t="n">
-        <v>6553693.989318338</v>
+        <v>6553559.8065641</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -882,7 +871,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -892,7 +881,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -901,8 +890,19 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Gransumpskog</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Klen fuktig låga.</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -1158,10 +1158,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111954188</v>
+        <v>111954123</v>
       </c>
       <c r="B6" t="n">
-        <v>93248</v>
+        <v>5135</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1174,43 +1174,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>210</v>
+        <v>105930</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>695854.3031294853</v>
+        <v>695736.8704301633</v>
       </c>
       <c r="R6" t="n">
-        <v>6553777.651865888</v>
+        <v>6553421.467662166</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1242,7 +1233,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1252,7 +1243,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1276,12 +1267,12 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>Längs ned på förrötad granlåga.</t>
+          <t>Lutande död gran.</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+          <t>Picea abies # Lutande död gran.</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1299,10 +1290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111954116</v>
+        <v>111954102</v>
       </c>
       <c r="B7" t="n">
-        <v>94173</v>
+        <v>93171</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1315,21 +1306,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2590</v>
+        <v>2818</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1339,10 +1330,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>695813.6703547441</v>
+        <v>695926.4066281476</v>
       </c>
       <c r="R7" t="n">
-        <v>6553513.460727843</v>
+        <v>6553628.923229965</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1374,7 +1365,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1384,7 +1375,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1395,6 +1386,26 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1411,10 +1422,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111954157</v>
+        <v>111954163</v>
       </c>
       <c r="B8" t="n">
-        <v>94173</v>
+        <v>108219</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1427,21 +1438,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2590</v>
+        <v>219711</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1451,10 +1462,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>695879.2959036676</v>
+        <v>695909.345953525</v>
       </c>
       <c r="R8" t="n">
-        <v>6553632.173627001</v>
+        <v>6553609.510540643</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1486,7 +1497,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1496,7 +1507,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1523,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111954164</v>
+        <v>111954144</v>
       </c>
       <c r="B9" t="n">
-        <v>98535</v>
+        <v>93145</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1539,21 +1550,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222498</v>
+        <v>2671</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1563,10 +1574,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>695912.2225252972</v>
+        <v>695851.2107494868</v>
       </c>
       <c r="R9" t="n">
-        <v>6553613.777598281</v>
+        <v>6553646.698234474</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1598,7 +1609,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1608,7 +1619,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1619,6 +1630,11 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk sbergart.</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1635,10 +1651,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111954144</v>
+        <v>111954164</v>
       </c>
       <c r="B10" t="n">
-        <v>93145</v>
+        <v>98535</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1651,21 +1667,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2671</v>
+        <v>222498</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1675,10 +1691,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>695851.2107494868</v>
+        <v>695912.2225252972</v>
       </c>
       <c r="R10" t="n">
-        <v>6553646.698234474</v>
+        <v>6553613.777598281</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1710,7 +1726,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1720,7 +1736,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1731,11 +1747,6 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk sbergart.</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1752,10 +1763,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111954113</v>
+        <v>111954114</v>
       </c>
       <c r="B11" t="n">
-        <v>93171</v>
+        <v>94173</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1768,21 +1779,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2818</v>
+        <v>2590</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1864,10 +1875,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111954135</v>
+        <v>111954188</v>
       </c>
       <c r="B12" t="n">
-        <v>92952</v>
+        <v>93248</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1880,34 +1891,43 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2779</v>
+        <v>210</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>695759.3320388016</v>
+        <v>695854.3031294853</v>
       </c>
       <c r="R12" t="n">
-        <v>6553536.94127673</v>
+        <v>6553777.651865888</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1939,7 +1959,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1949,7 +1969,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1961,9 +1981,24 @@
       <c r="AG12" t="b">
         <v>0</v>
       </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1981,10 +2016,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111954114</v>
+        <v>111954158</v>
       </c>
       <c r="B13" t="n">
-        <v>94173</v>
+        <v>95532</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1997,21 +2032,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2590</v>
+        <v>221945</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2021,10 +2056,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>695802.5905180702</v>
+        <v>695877.0654070158</v>
       </c>
       <c r="R13" t="n">
-        <v>6553528.34225694</v>
+        <v>6553625.364951649</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2056,7 +2091,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2066,7 +2101,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2093,10 +2128,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111954165</v>
+        <v>111954135</v>
       </c>
       <c r="B14" t="n">
-        <v>108219</v>
+        <v>92952</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2109,21 +2144,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>219711</v>
+        <v>2779</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2133,10 +2168,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>695912.2225252972</v>
+        <v>695759.3320388016</v>
       </c>
       <c r="R14" t="n">
-        <v>6553613.777598281</v>
+        <v>6553536.94127673</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2168,7 +2203,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2178,7 +2213,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2189,6 +2224,11 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2205,10 +2245,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111954131</v>
+        <v>111954118</v>
       </c>
       <c r="B15" t="n">
-        <v>89183</v>
+        <v>94173</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2221,21 +2261,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3215</v>
+        <v>2590</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2245,10 +2285,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>695672.0487292509</v>
+        <v>695797.07051896</v>
       </c>
       <c r="R15" t="n">
-        <v>6553407.850045409</v>
+        <v>6553495.101629349</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2280,7 +2320,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2290,7 +2330,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2317,10 +2357,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111954108</v>
+        <v>111954157</v>
       </c>
       <c r="B16" t="n">
-        <v>90332</v>
+        <v>94173</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2333,21 +2373,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4769</v>
+        <v>2590</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2357,10 +2397,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>695830.749629521</v>
+        <v>695879.2959036676</v>
       </c>
       <c r="R16" t="n">
-        <v>6553562.742190208</v>
+        <v>6553632.173627001</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2392,7 +2432,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2402,12 +2442,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:45</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Intill gran.</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2434,10 +2469,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111954158</v>
+        <v>111954167</v>
       </c>
       <c r="B17" t="n">
-        <v>95532</v>
+        <v>93171</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2450,21 +2485,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221945</v>
+        <v>2818</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2474,10 +2509,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>695877.0654070158</v>
+        <v>695901.3675654647</v>
       </c>
       <c r="R17" t="n">
-        <v>6553625.364951649</v>
+        <v>6553634.334477904</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2509,7 +2544,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2519,7 +2554,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2546,10 +2581,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111954145</v>
+        <v>111954160</v>
       </c>
       <c r="B18" t="n">
-        <v>98535</v>
+        <v>94173</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2562,21 +2597,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222498</v>
+        <v>2590</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2586,10 +2621,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>695858.182829462</v>
+        <v>695890.4165971773</v>
       </c>
       <c r="R18" t="n">
-        <v>6553691.855853913</v>
+        <v>6553626.563991487</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2621,7 +2656,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2631,7 +2666,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2658,10 +2693,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111954102</v>
+        <v>111954124</v>
       </c>
       <c r="B19" t="n">
-        <v>93171</v>
+        <v>5113</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2674,21 +2709,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2818</v>
+        <v>100526</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2698,10 +2733,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>695926.4066281476</v>
+        <v>695736.8704301633</v>
       </c>
       <c r="R19" t="n">
-        <v>6553628.923229965</v>
+        <v>6553421.467662166</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2733,7 +2768,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2743,7 +2778,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2767,12 +2802,12 @@
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>Gammal barklös granlåga.</t>
+          <t>Lutande död gran.</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
+          <t>Picea abies # Lutande död gran.</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2790,10 +2825,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111954161</v>
+        <v>111954150</v>
       </c>
       <c r="B20" t="n">
-        <v>95532</v>
+        <v>89183</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2806,21 +2841,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221945</v>
+        <v>3215</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2830,10 +2865,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>695896.3658051894</v>
+        <v>695844.0803595956</v>
       </c>
       <c r="R20" t="n">
-        <v>6553621.204334841</v>
+        <v>6553785.881987686</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2865,7 +2900,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2875,7 +2910,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2902,10 +2937,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111954134</v>
+        <v>111954161</v>
       </c>
       <c r="B21" t="n">
-        <v>98535</v>
+        <v>95532</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2918,21 +2953,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2942,10 +2977,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>695759.3320388016</v>
+        <v>695896.3658051894</v>
       </c>
       <c r="R21" t="n">
-        <v>6553536.94127673</v>
+        <v>6553621.204334841</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2977,7 +3012,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2987,7 +3022,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3014,10 +3049,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111954147</v>
+        <v>111954134</v>
       </c>
       <c r="B22" t="n">
-        <v>89789</v>
+        <v>98535</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3026,20 +3061,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6040162</v>
+        <v>222498</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Leptoporus erubescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Bourdot &amp; Galzin</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3049,10 +3089,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>695863.7275062524</v>
+        <v>695759.3320388016</v>
       </c>
       <c r="R22" t="n">
-        <v>6553815.209723577</v>
+        <v>6553536.94127673</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3084,7 +3124,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3094,7 +3134,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3121,10 +3161,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111954120</v>
+        <v>111954165</v>
       </c>
       <c r="B23" t="n">
-        <v>56414</v>
+        <v>108219</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3133,43 +3173,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100049</v>
+        <v>219711</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>695735.6871222925</v>
+        <v>695912.2225252972</v>
       </c>
       <c r="R23" t="n">
-        <v>6553444.581050223</v>
+        <v>6553613.777598281</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3201,7 +3236,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3211,12 +3246,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:27</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Hack på levande gran.</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3243,10 +3273,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111954167</v>
+        <v>111954101</v>
       </c>
       <c r="B24" t="n">
-        <v>93171</v>
+        <v>94134</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3255,25 +3285,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2818</v>
+        <v>53</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3283,10 +3313,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>695901.3675654647</v>
+        <v>695926.4066281476</v>
       </c>
       <c r="R24" t="n">
-        <v>6553634.334477904</v>
+        <v>6553628.923229965</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3318,7 +3348,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3328,7 +3358,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3339,6 +3369,26 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3355,10 +3405,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111954187</v>
+        <v>111954136</v>
       </c>
       <c r="B25" t="n">
-        <v>93171</v>
+        <v>93145</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3371,21 +3421,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2818</v>
+        <v>2671</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3395,10 +3445,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>695854.3031294853</v>
+        <v>695759.3320388016</v>
       </c>
       <c r="R25" t="n">
-        <v>6553777.651865888</v>
+        <v>6553536.94127673</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3430,7 +3480,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3440,7 +3490,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3452,24 +3502,9 @@
       <c r="AG25" t="b">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>Längs ned på förrötad granlåga.</t>
-        </is>
-      </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3487,10 +3522,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111954170</v>
+        <v>111954147</v>
       </c>
       <c r="B26" t="n">
-        <v>94173</v>
+        <v>89789</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3499,42 +3534,33 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2590</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Kornknutmossa</t>
-        </is>
+        <v>6040162</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Leptoporus erubescens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Fr.) Bourdot &amp; Galzin</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>695866.660800101</v>
+        <v>695863.7275062524</v>
       </c>
       <c r="R26" t="n">
-        <v>6553657.273816385</v>
+        <v>6553815.209723577</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3566,7 +3592,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3576,7 +3602,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3585,7 +3611,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3604,10 +3629,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111954101</v>
+        <v>111954113</v>
       </c>
       <c r="B27" t="n">
-        <v>94134</v>
+        <v>93171</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3616,25 +3641,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>53</v>
+        <v>2818</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3644,10 +3669,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>695926.4066281476</v>
+        <v>695802.5905180702</v>
       </c>
       <c r="R27" t="n">
-        <v>6553628.923229965</v>
+        <v>6553528.34225694</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3679,7 +3704,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3689,7 +3714,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3700,26 +3725,6 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>Gammal barklös granlåga.</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3736,10 +3741,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111954106</v>
+        <v>111954108</v>
       </c>
       <c r="B28" t="n">
-        <v>92952</v>
+        <v>90332</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3752,21 +3757,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2779</v>
+        <v>4769</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3776,10 +3781,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>695918.5640496905</v>
+        <v>695830.749629521</v>
       </c>
       <c r="R28" t="n">
-        <v>6553580.630297415</v>
+        <v>6553562.742190208</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3811,7 +3816,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3821,7 +3826,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Intill gran.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3832,11 +3842,6 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3853,7 +3858,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111954159</v>
+        <v>111954111</v>
       </c>
       <c r="B29" t="n">
         <v>94173</v>
@@ -3893,10 +3898,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>695890.7796608348</v>
+        <v>695776.66497851</v>
       </c>
       <c r="R29" t="n">
-        <v>6553579.206556734</v>
+        <v>6553520.834985243</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3928,7 +3933,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3938,7 +3943,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3965,10 +3970,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111954160</v>
+        <v>111954120</v>
       </c>
       <c r="B30" t="n">
-        <v>94173</v>
+        <v>56414</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3977,38 +3982,43 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2590</v>
+        <v>100049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>695890.4165971773</v>
+        <v>695735.6871222925</v>
       </c>
       <c r="R30" t="n">
-        <v>6553626.563991487</v>
+        <v>6553444.581050223</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4040,7 +4050,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4050,7 +4060,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Hack på levande gran.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4077,7 +4092,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111954118</v>
+        <v>111954159</v>
       </c>
       <c r="B31" t="n">
         <v>94173</v>
@@ -4117,10 +4132,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>695797.07051896</v>
+        <v>695890.7796608348</v>
       </c>
       <c r="R31" t="n">
-        <v>6553495.101629349</v>
+        <v>6553579.206556734</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4152,7 +4167,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4162,7 +4177,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4189,10 +4204,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111954123</v>
+        <v>111954170</v>
       </c>
       <c r="B32" t="n">
-        <v>5135</v>
+        <v>94173</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4205,34 +4220,38 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>105930</v>
+        <v>2590</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>695736.8704301633</v>
+        <v>695866.660800101</v>
       </c>
       <c r="R32" t="n">
-        <v>6553421.467662166</v>
+        <v>6553657.273816385</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4264,7 +4283,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4274,7 +4293,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4283,28 +4302,9 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Picea abies # Lutande död gran.</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4433,7 +4433,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111954111</v>
+        <v>111954116</v>
       </c>
       <c r="B34" t="n">
         <v>94173</v>
@@ -4473,10 +4473,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>695776.66497851</v>
+        <v>695813.6703547441</v>
       </c>
       <c r="R34" t="n">
-        <v>6553520.834985243</v>
+        <v>6553513.460727843</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4545,10 +4545,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111954150</v>
+        <v>111954187</v>
       </c>
       <c r="B35" t="n">
-        <v>89183</v>
+        <v>93171</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4561,21 +4561,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3215</v>
+        <v>2818</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4585,10 +4585,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>695844.0803595956</v>
+        <v>695854.3031294853</v>
       </c>
       <c r="R35" t="n">
-        <v>6553785.881987686</v>
+        <v>6553777.651865888</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4620,7 +4620,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4641,6 +4641,26 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4657,10 +4677,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111954136</v>
+        <v>111954106</v>
       </c>
       <c r="B36" t="n">
-        <v>93145</v>
+        <v>92952</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4673,21 +4693,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2671</v>
+        <v>2779</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4697,10 +4717,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>695759.3320388016</v>
+        <v>695918.5640496905</v>
       </c>
       <c r="R36" t="n">
-        <v>6553536.94127673</v>
+        <v>6553580.630297415</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4732,7 +4752,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4742,7 +4762,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4774,10 +4794,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111954124</v>
+        <v>111954145</v>
       </c>
       <c r="B37" t="n">
-        <v>5113</v>
+        <v>98535</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4790,21 +4810,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100526</v>
+        <v>222498</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4814,10 +4834,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>695736.8704301633</v>
+        <v>695858.182829462</v>
       </c>
       <c r="R37" t="n">
-        <v>6553421.467662166</v>
+        <v>6553691.855853913</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4849,7 +4869,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4859,7 +4879,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4870,26 +4890,6 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Picea abies # Lutande död gran.</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4906,10 +4906,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111954163</v>
+        <v>111954131</v>
       </c>
       <c r="B38" t="n">
-        <v>108219</v>
+        <v>89183</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4922,21 +4922,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>219711</v>
+        <v>3215</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>695909.345953525</v>
+        <v>695672.0487292509</v>
       </c>
       <c r="R38" t="n">
-        <v>6553609.510540643</v>
+        <v>6553407.850045409</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD38" t="b">

--- a/artfynd/A 34417-2023.xlsx
+++ b/artfynd/A 34417-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111713457</v>
+        <v>111713455</v>
       </c>
       <c r="B2" t="n">
-        <v>98535</v>
+        <v>94173</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222498</v>
+        <v>2590</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Öster om Brevik, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>695859.6211092162</v>
+        <v>695863.9162259072</v>
       </c>
       <c r="R2" t="n">
-        <v>6553693.989318338</v>
+        <v>6553559.8065641</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +759,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,7 +769,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -774,8 +778,19 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Gransumpskog</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Klen fuktig låga.</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -792,10 +807,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111713455</v>
+        <v>111713457</v>
       </c>
       <c r="B3" t="n">
-        <v>94173</v>
+        <v>98535</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,38 +823,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2590</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Öster om Brevik, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>695863.9162259072</v>
+        <v>695859.6211092162</v>
       </c>
       <c r="R3" t="n">
-        <v>6553559.8065641</v>
+        <v>6553693.989318338</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -871,7 +882,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -881,7 +892,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -890,19 +901,8 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Gransumpskog</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Klen fuktig låga.</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -1158,10 +1158,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111954123</v>
+        <v>111954116</v>
       </c>
       <c r="B6" t="n">
-        <v>5135</v>
+        <v>94173</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1174,21 +1174,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>105930</v>
+        <v>2590</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>695736.8704301633</v>
+        <v>695813.6703547441</v>
       </c>
       <c r="R6" t="n">
-        <v>6553421.467662166</v>
+        <v>6553513.460727843</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1254,26 +1254,6 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Picea abies # Lutande död gran.</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1290,10 +1270,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111954102</v>
+        <v>111954124</v>
       </c>
       <c r="B7" t="n">
-        <v>93171</v>
+        <v>5113</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1306,21 +1286,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2818</v>
+        <v>100526</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1330,10 +1310,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>695926.4066281476</v>
+        <v>695736.8704301633</v>
       </c>
       <c r="R7" t="n">
-        <v>6553628.923229965</v>
+        <v>6553421.467662166</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1365,7 +1345,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1375,7 +1355,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1399,12 +1379,12 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>Gammal barklös granlåga.</t>
+          <t>Lutande död gran.</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
+          <t>Picea abies # Lutande död gran.</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1422,10 +1402,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111954163</v>
+        <v>111954159</v>
       </c>
       <c r="B8" t="n">
-        <v>108219</v>
+        <v>94173</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1438,21 +1418,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>219711</v>
+        <v>2590</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1462,10 +1442,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>695909.345953525</v>
+        <v>695890.7796608348</v>
       </c>
       <c r="R8" t="n">
-        <v>6553609.510540643</v>
+        <v>6553579.206556734</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1497,7 +1477,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1507,7 +1487,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1534,10 +1514,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111954144</v>
+        <v>111954107</v>
       </c>
       <c r="B9" t="n">
-        <v>93145</v>
+        <v>98535</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1550,21 +1530,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2671</v>
+        <v>222498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1574,10 +1554,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>695851.2107494868</v>
+        <v>695831.158922115</v>
       </c>
       <c r="R9" t="n">
-        <v>6553646.698234474</v>
+        <v>6553564.82300008</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1609,7 +1589,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1619,7 +1599,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1630,11 +1610,6 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk sbergart.</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1651,10 +1626,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111954164</v>
+        <v>111954111</v>
       </c>
       <c r="B10" t="n">
-        <v>98535</v>
+        <v>94173</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1667,21 +1642,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222498</v>
+        <v>2590</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1691,10 +1666,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>695912.2225252972</v>
+        <v>695776.66497851</v>
       </c>
       <c r="R10" t="n">
-        <v>6553613.777598281</v>
+        <v>6553520.834985243</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1726,7 +1701,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1736,7 +1711,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1763,10 +1738,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111954114</v>
+        <v>111954131</v>
       </c>
       <c r="B11" t="n">
-        <v>94173</v>
+        <v>89183</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1779,21 +1754,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2590</v>
+        <v>3215</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1803,10 +1778,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>695802.5905180702</v>
+        <v>695672.0487292509</v>
       </c>
       <c r="R11" t="n">
-        <v>6553528.34225694</v>
+        <v>6553407.850045409</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1838,7 +1813,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1848,7 +1823,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1875,10 +1850,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111954188</v>
+        <v>111954147</v>
       </c>
       <c r="B12" t="n">
-        <v>93248</v>
+        <v>89789</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1887,47 +1862,33 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>210</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Grön sköldmossa</t>
-        </is>
+        <v>6040162</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Leptoporus erubescens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>(Fr.) Bourdot &amp; Galzin</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>695854.3031294853</v>
+        <v>695863.7275062524</v>
       </c>
       <c r="R12" t="n">
-        <v>6553777.651865888</v>
+        <v>6553815.209723577</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1959,7 +1920,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1969,7 +1930,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1980,26 +1941,6 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>Längs ned på förrötad granlåga.</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2016,10 +1957,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111954158</v>
+        <v>111954108</v>
       </c>
       <c r="B13" t="n">
-        <v>95532</v>
+        <v>90332</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2032,21 +1973,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221945</v>
+        <v>4769</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2056,10 +1997,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>695877.0654070158</v>
+        <v>695830.749629521</v>
       </c>
       <c r="R13" t="n">
-        <v>6553625.364951649</v>
+        <v>6553562.742190208</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2091,7 +2032,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2101,7 +2042,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Intill gran.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2128,10 +2074,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111954135</v>
+        <v>111954150</v>
       </c>
       <c r="B14" t="n">
-        <v>92952</v>
+        <v>89183</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2144,21 +2090,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2779</v>
+        <v>3215</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2168,10 +2114,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>695759.3320388016</v>
+        <v>695844.0803595956</v>
       </c>
       <c r="R14" t="n">
-        <v>6553536.94127673</v>
+        <v>6553785.881987686</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2203,7 +2149,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2213,7 +2159,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2224,11 +2170,6 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2245,10 +2186,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111954118</v>
+        <v>111954145</v>
       </c>
       <c r="B15" t="n">
-        <v>94173</v>
+        <v>98535</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2261,21 +2202,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2590</v>
+        <v>222498</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2285,10 +2226,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>695797.07051896</v>
+        <v>695858.182829462</v>
       </c>
       <c r="R15" t="n">
-        <v>6553495.101629349</v>
+        <v>6553691.855853913</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2320,7 +2261,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2330,7 +2271,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2357,10 +2298,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111954157</v>
+        <v>111954120</v>
       </c>
       <c r="B16" t="n">
-        <v>94173</v>
+        <v>56414</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2369,38 +2310,43 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2590</v>
+        <v>100049</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>695879.2959036676</v>
+        <v>695735.6871222925</v>
       </c>
       <c r="R16" t="n">
-        <v>6553632.173627001</v>
+        <v>6553444.581050223</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2432,7 +2378,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2442,7 +2388,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Hack på levande gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2469,10 +2420,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111954167</v>
+        <v>111954118</v>
       </c>
       <c r="B17" t="n">
-        <v>93171</v>
+        <v>94173</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2485,21 +2436,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2818</v>
+        <v>2590</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2509,10 +2460,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>695901.3675654647</v>
+        <v>695797.07051896</v>
       </c>
       <c r="R17" t="n">
-        <v>6553634.334477904</v>
+        <v>6553495.101629349</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2544,7 +2495,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2554,7 +2505,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2581,10 +2532,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111954160</v>
+        <v>111954144</v>
       </c>
       <c r="B18" t="n">
-        <v>94173</v>
+        <v>93145</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2597,21 +2548,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2590</v>
+        <v>2671</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2621,10 +2572,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>695890.4165971773</v>
+        <v>695851.2107494868</v>
       </c>
       <c r="R18" t="n">
-        <v>6553626.563991487</v>
+        <v>6553646.698234474</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2656,7 +2607,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2666,7 +2617,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2677,6 +2628,11 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk sbergart.</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2693,10 +2649,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111954124</v>
+        <v>111954123</v>
       </c>
       <c r="B19" t="n">
-        <v>5113</v>
+        <v>5135</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2709,21 +2665,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100526</v>
+        <v>105930</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2825,10 +2781,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111954150</v>
+        <v>111954101</v>
       </c>
       <c r="B20" t="n">
-        <v>89183</v>
+        <v>94134</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2837,25 +2793,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3215</v>
+        <v>53</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2865,10 +2821,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>695844.0803595956</v>
+        <v>695926.4066281476</v>
       </c>
       <c r="R20" t="n">
-        <v>6553785.881987686</v>
+        <v>6553628.923229965</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2900,7 +2856,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2910,7 +2866,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2921,6 +2877,26 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2937,10 +2913,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111954161</v>
+        <v>111954102</v>
       </c>
       <c r="B21" t="n">
-        <v>95532</v>
+        <v>93171</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2953,21 +2929,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221945</v>
+        <v>2818</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2977,10 +2953,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>695896.3658051894</v>
+        <v>695926.4066281476</v>
       </c>
       <c r="R21" t="n">
-        <v>6553621.204334841</v>
+        <v>6553628.923229965</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3012,7 +2988,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3022,7 +2998,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3033,6 +3009,26 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3049,10 +3045,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111954134</v>
+        <v>111954136</v>
       </c>
       <c r="B22" t="n">
-        <v>98535</v>
+        <v>93145</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3065,21 +3061,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>222498</v>
+        <v>2671</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3145,6 +3141,11 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3273,10 +3274,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111954101</v>
+        <v>111954163</v>
       </c>
       <c r="B24" t="n">
-        <v>94134</v>
+        <v>108219</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3285,25 +3286,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>53</v>
+        <v>219711</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3313,10 +3314,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>695926.4066281476</v>
+        <v>695909.345953525</v>
       </c>
       <c r="R24" t="n">
-        <v>6553628.923229965</v>
+        <v>6553609.510540643</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3348,7 +3349,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3358,7 +3359,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3369,26 +3370,6 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>Gammal barklös granlåga.</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3405,10 +3386,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111954136</v>
+        <v>111954167</v>
       </c>
       <c r="B25" t="n">
-        <v>93145</v>
+        <v>93171</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3421,21 +3402,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2671</v>
+        <v>2818</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3445,10 +3426,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>695759.3320388016</v>
+        <v>695901.3675654647</v>
       </c>
       <c r="R25" t="n">
-        <v>6553536.94127673</v>
+        <v>6553634.334477904</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3480,7 +3461,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3490,7 +3471,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3501,11 +3482,6 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3522,10 +3498,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111954147</v>
+        <v>111954160</v>
       </c>
       <c r="B26" t="n">
-        <v>89789</v>
+        <v>94173</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3534,20 +3510,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6040162</v>
+        <v>2590</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kornknutmossa</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Leptoporus erubescens</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Bourdot &amp; Galzin</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3557,10 +3538,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>695863.7275062524</v>
+        <v>695890.4165971773</v>
       </c>
       <c r="R26" t="n">
-        <v>6553815.209723577</v>
+        <v>6553626.563991487</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3592,7 +3573,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3602,7 +3583,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3629,10 +3610,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111954113</v>
+        <v>111954114</v>
       </c>
       <c r="B27" t="n">
-        <v>93171</v>
+        <v>94173</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3645,21 +3626,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2818</v>
+        <v>2590</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3741,10 +3722,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111954108</v>
+        <v>111954158</v>
       </c>
       <c r="B28" t="n">
-        <v>90332</v>
+        <v>95532</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3757,21 +3738,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4769</v>
+        <v>221945</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3781,10 +3762,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>695830.749629521</v>
+        <v>695877.0654070158</v>
       </c>
       <c r="R28" t="n">
-        <v>6553562.742190208</v>
+        <v>6553625.364951649</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3816,7 +3797,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3826,12 +3807,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>15:45</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Intill gran.</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3858,10 +3834,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111954111</v>
+        <v>111954113</v>
       </c>
       <c r="B29" t="n">
-        <v>94173</v>
+        <v>93171</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3874,21 +3850,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2590</v>
+        <v>2818</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3898,10 +3874,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>695776.66497851</v>
+        <v>695802.5905180702</v>
       </c>
       <c r="R29" t="n">
-        <v>6553520.834985243</v>
+        <v>6553528.34225694</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3933,7 +3909,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3943,7 +3919,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3970,10 +3946,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111954120</v>
+        <v>111954134</v>
       </c>
       <c r="B30" t="n">
-        <v>56414</v>
+        <v>98535</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3982,43 +3958,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>695735.6871222925</v>
+        <v>695759.3320388016</v>
       </c>
       <c r="R30" t="n">
-        <v>6553444.581050223</v>
+        <v>6553536.94127673</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4050,7 +4021,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4060,12 +4031,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:27</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Hack på levande gran.</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4092,10 +4058,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111954159</v>
+        <v>111954106</v>
       </c>
       <c r="B31" t="n">
-        <v>94173</v>
+        <v>92952</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4108,21 +4074,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2590</v>
+        <v>2779</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4132,10 +4098,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>695890.7796608348</v>
+        <v>695918.5640496905</v>
       </c>
       <c r="R31" t="n">
-        <v>6553579.206556734</v>
+        <v>6553580.630297415</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4167,7 +4133,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4177,7 +4143,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4188,6 +4154,11 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4204,10 +4175,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111954170</v>
+        <v>111954161</v>
       </c>
       <c r="B32" t="n">
-        <v>94173</v>
+        <v>95532</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4220,38 +4191,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2590</v>
+        <v>221945</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>695866.660800101</v>
+        <v>695896.3658051894</v>
       </c>
       <c r="R32" t="n">
-        <v>6553657.273816385</v>
+        <v>6553621.204334841</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4283,7 +4250,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4293,7 +4260,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4302,7 +4269,6 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4321,7 +4287,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111954107</v>
+        <v>111954164</v>
       </c>
       <c r="B33" t="n">
         <v>98535</v>
@@ -4361,10 +4327,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>695831.158922115</v>
+        <v>695912.2225252972</v>
       </c>
       <c r="R33" t="n">
-        <v>6553564.82300008</v>
+        <v>6553613.777598281</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4396,7 +4362,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4406,7 +4372,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4433,7 +4399,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111954116</v>
+        <v>111954157</v>
       </c>
       <c r="B34" t="n">
         <v>94173</v>
@@ -4473,10 +4439,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>695813.6703547441</v>
+        <v>695879.2959036676</v>
       </c>
       <c r="R34" t="n">
-        <v>6553513.460727843</v>
+        <v>6553632.173627001</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4508,7 +4474,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4518,7 +4484,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4545,10 +4511,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111954187</v>
+        <v>111954135</v>
       </c>
       <c r="B35" t="n">
-        <v>93171</v>
+        <v>92952</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4561,21 +4527,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2818</v>
+        <v>2779</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4585,10 +4551,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>695854.3031294853</v>
+        <v>695759.3320388016</v>
       </c>
       <c r="R35" t="n">
-        <v>6553777.651865888</v>
+        <v>6553536.94127673</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4620,7 +4586,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4630,7 +4596,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4642,24 +4608,9 @@
       <c r="AG35" t="b">
         <v>0</v>
       </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>Längs ned på förrötad granlåga.</t>
-        </is>
-      </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4677,10 +4628,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111954106</v>
+        <v>111954188</v>
       </c>
       <c r="B36" t="n">
-        <v>92952</v>
+        <v>93248</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4693,34 +4644,43 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2779</v>
+        <v>210</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>695918.5640496905</v>
+        <v>695854.3031294853</v>
       </c>
       <c r="R36" t="n">
-        <v>6553580.630297415</v>
+        <v>6553777.651865888</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4752,7 +4712,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4762,7 +4722,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4774,9 +4734,24 @@
       <c r="AG36" t="b">
         <v>0</v>
       </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4794,10 +4769,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111954145</v>
+        <v>111954187</v>
       </c>
       <c r="B37" t="n">
-        <v>98535</v>
+        <v>93171</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4810,21 +4785,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>222498</v>
+        <v>2818</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4834,10 +4809,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>695858.182829462</v>
+        <v>695854.3031294853</v>
       </c>
       <c r="R37" t="n">
-        <v>6553691.855853913</v>
+        <v>6553777.651865888</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4869,7 +4844,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4879,7 +4854,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4890,6 +4865,26 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4906,10 +4901,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111954131</v>
+        <v>111954170</v>
       </c>
       <c r="B38" t="n">
-        <v>89183</v>
+        <v>94173</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4922,34 +4917,38 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3215</v>
+        <v>2590</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>695672.0487292509</v>
+        <v>695866.660800101</v>
       </c>
       <c r="R38" t="n">
-        <v>6553407.850045409</v>
+        <v>6553657.273816385</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4981,7 +4980,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4991,7 +4990,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5000,6 +4999,7 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5062,6 +5062,7 @@
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Björnmossen, Srm</t>
@@ -5098,7 +5099,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -5108,7 +5109,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -5122,6 +5123,7 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 34417-2023.xlsx
+++ b/artfynd/A 34417-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111713455</v>
+        <v>111713457</v>
       </c>
       <c r="B2" t="n">
-        <v>94173</v>
+        <v>98535</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2590</v>
+        <v>222498</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Öster om Brevik, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>695863.9162259072</v>
+        <v>695859.6211092162</v>
       </c>
       <c r="R2" t="n">
-        <v>6553559.8065641</v>
+        <v>6553693.989318338</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -759,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -769,7 +765,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -778,19 +774,8 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Gransumpskog</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Klen fuktig låga.</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -807,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111713457</v>
+        <v>111713455</v>
       </c>
       <c r="B3" t="n">
-        <v>98535</v>
+        <v>94173</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -823,34 +808,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>2590</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Öster om Brevik, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>695859.6211092162</v>
+        <v>695863.9162259072</v>
       </c>
       <c r="R3" t="n">
-        <v>6553693.989318338</v>
+        <v>6553559.8065641</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -882,7 +871,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -892,7 +881,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -901,8 +890,19 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Gransumpskog</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Klen fuktig låga.</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -1158,7 +1158,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111954116</v>
+        <v>111954157</v>
       </c>
       <c r="B6" t="n">
         <v>94173</v>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>695813.6703547441</v>
+        <v>695879.2959036676</v>
       </c>
       <c r="R6" t="n">
-        <v>6553513.460727843</v>
+        <v>6553632.173627001</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1270,10 +1270,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111954124</v>
+        <v>111954120</v>
       </c>
       <c r="B7" t="n">
-        <v>5113</v>
+        <v>56414</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1282,38 +1282,43 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>695736.8704301633</v>
+        <v>695735.6871222925</v>
       </c>
       <c r="R7" t="n">
-        <v>6553421.467662166</v>
+        <v>6553444.581050223</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1345,7 +1350,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1355,7 +1360,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Hack på levande gran.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1366,26 +1376,6 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Picea abies # Lutande död gran.</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1402,7 +1392,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111954159</v>
+        <v>111954111</v>
       </c>
       <c r="B8" t="n">
         <v>94173</v>
@@ -1442,10 +1432,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>695890.7796608348</v>
+        <v>695776.66497851</v>
       </c>
       <c r="R8" t="n">
-        <v>6553579.206556734</v>
+        <v>6553520.834985243</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1477,7 +1467,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1487,7 +1477,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1514,10 +1504,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111954107</v>
+        <v>111954161</v>
       </c>
       <c r="B9" t="n">
-        <v>98535</v>
+        <v>95532</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1530,21 +1520,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1554,10 +1544,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>695831.158922115</v>
+        <v>695896.3658051894</v>
       </c>
       <c r="R9" t="n">
-        <v>6553564.82300008</v>
+        <v>6553621.204334841</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1589,7 +1579,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1599,7 +1589,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1626,7 +1616,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111954111</v>
+        <v>111954159</v>
       </c>
       <c r="B10" t="n">
         <v>94173</v>
@@ -1666,10 +1656,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>695776.66497851</v>
+        <v>695890.7796608348</v>
       </c>
       <c r="R10" t="n">
-        <v>6553520.834985243</v>
+        <v>6553579.206556734</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1701,7 +1691,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1711,7 +1701,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1850,10 +1840,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111954147</v>
+        <v>111954108</v>
       </c>
       <c r="B12" t="n">
-        <v>89789</v>
+        <v>90332</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1862,20 +1852,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6040162</v>
+        <v>4769</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Leptoporus erubescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Bourdot &amp; Galzin</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1885,10 +1880,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>695863.7275062524</v>
+        <v>695830.749629521</v>
       </c>
       <c r="R12" t="n">
-        <v>6553815.209723577</v>
+        <v>6553562.742190208</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1920,7 +1915,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1930,7 +1925,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Intill gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1957,10 +1957,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111954108</v>
+        <v>111954123</v>
       </c>
       <c r="B13" t="n">
-        <v>90332</v>
+        <v>5135</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1973,21 +1973,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4769</v>
+        <v>105930</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1997,10 +1997,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>695830.749629521</v>
+        <v>695736.8704301633</v>
       </c>
       <c r="R13" t="n">
-        <v>6553562.742190208</v>
+        <v>6553421.467662166</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2042,12 +2042,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:45</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Intill gran.</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2058,6 +2053,26 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Picea abies # Lutande död gran.</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2074,10 +2089,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111954150</v>
+        <v>111954101</v>
       </c>
       <c r="B14" t="n">
-        <v>89183</v>
+        <v>94134</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2086,25 +2101,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3215</v>
+        <v>53</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2114,10 +2129,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>695844.0803595956</v>
+        <v>695926.4066281476</v>
       </c>
       <c r="R14" t="n">
-        <v>6553785.881987686</v>
+        <v>6553628.923229965</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2149,7 +2164,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2159,7 +2174,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2170,6 +2185,26 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2298,10 +2333,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111954120</v>
+        <v>111954170</v>
       </c>
       <c r="B16" t="n">
-        <v>56414</v>
+        <v>94173</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2310,43 +2345,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100049</v>
+        <v>2590</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>695735.6871222925</v>
+        <v>695866.660800101</v>
       </c>
       <c r="R16" t="n">
-        <v>6553444.581050223</v>
+        <v>6553657.273816385</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2378,7 +2412,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2388,12 +2422,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:27</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Hack på levande gran.</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2402,6 +2431,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2420,10 +2450,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111954118</v>
+        <v>111954144</v>
       </c>
       <c r="B17" t="n">
-        <v>94173</v>
+        <v>93145</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2436,21 +2466,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2590</v>
+        <v>2671</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2460,10 +2490,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>695797.07051896</v>
+        <v>695851.2107494868</v>
       </c>
       <c r="R17" t="n">
-        <v>6553495.101629349</v>
+        <v>6553646.698234474</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2495,7 +2525,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2505,7 +2535,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2516,6 +2546,11 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk sbergart.</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2532,10 +2567,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111954144</v>
+        <v>111954163</v>
       </c>
       <c r="B18" t="n">
-        <v>93145</v>
+        <v>108219</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2548,21 +2583,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2671</v>
+        <v>219711</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2572,10 +2607,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>695851.2107494868</v>
+        <v>695909.345953525</v>
       </c>
       <c r="R18" t="n">
-        <v>6553646.698234474</v>
+        <v>6553609.510540643</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2607,7 +2642,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2617,7 +2652,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2628,11 +2663,6 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk sbergart.</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2649,10 +2679,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111954123</v>
+        <v>111954113</v>
       </c>
       <c r="B19" t="n">
-        <v>5135</v>
+        <v>93171</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2665,21 +2695,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>105930</v>
+        <v>2818</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2689,10 +2719,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>695736.8704301633</v>
+        <v>695802.5905180702</v>
       </c>
       <c r="R19" t="n">
-        <v>6553421.467662166</v>
+        <v>6553528.34225694</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2724,7 +2754,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2734,7 +2764,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2745,26 +2775,6 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Picea abies # Lutande död gran.</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2781,10 +2791,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111954101</v>
+        <v>111954106</v>
       </c>
       <c r="B20" t="n">
-        <v>94134</v>
+        <v>92952</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2793,25 +2803,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>53</v>
+        <v>2779</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2821,10 +2831,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>695926.4066281476</v>
+        <v>695918.5640496905</v>
       </c>
       <c r="R20" t="n">
-        <v>6553628.923229965</v>
+        <v>6553580.630297415</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2856,7 +2866,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2866,7 +2876,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2878,24 +2888,9 @@
       <c r="AG20" t="b">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>Gammal barklös granlåga.</t>
-        </is>
-      </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2913,10 +2908,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111954102</v>
+        <v>111954158</v>
       </c>
       <c r="B21" t="n">
-        <v>93171</v>
+        <v>95532</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2929,21 +2924,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2818</v>
+        <v>221945</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2953,10 +2948,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>695926.4066281476</v>
+        <v>695877.0654070158</v>
       </c>
       <c r="R21" t="n">
-        <v>6553628.923229965</v>
+        <v>6553625.364951649</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2988,7 +2983,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2998,7 +2993,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3009,26 +3004,6 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>Gammal barklös granlåga.</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3045,10 +3020,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111954136</v>
+        <v>111954124</v>
       </c>
       <c r="B22" t="n">
-        <v>93145</v>
+        <v>5113</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3061,21 +3036,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2671</v>
+        <v>100526</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3085,10 +3060,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>695759.3320388016</v>
+        <v>695736.8704301633</v>
       </c>
       <c r="R22" t="n">
-        <v>6553536.94127673</v>
+        <v>6553421.467662166</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3120,7 +3095,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3130,7 +3105,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3142,9 +3117,24 @@
       <c r="AG22" t="b">
         <v>0</v>
       </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
+          <t>Picea abies # Lutande död gran.</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3162,10 +3152,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111954165</v>
+        <v>111954188</v>
       </c>
       <c r="B23" t="n">
-        <v>108219</v>
+        <v>93248</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3178,34 +3168,43 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>219711</v>
+        <v>210</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>695912.2225252972</v>
+        <v>695854.3031294853</v>
       </c>
       <c r="R23" t="n">
-        <v>6553613.777598281</v>
+        <v>6553777.651865888</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3237,7 +3236,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3247,7 +3246,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3258,6 +3257,26 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3274,10 +3293,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111954163</v>
+        <v>111954134</v>
       </c>
       <c r="B24" t="n">
-        <v>108219</v>
+        <v>98535</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3290,21 +3309,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>219711</v>
+        <v>222498</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3314,10 +3333,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>695909.345953525</v>
+        <v>695759.3320388016</v>
       </c>
       <c r="R24" t="n">
-        <v>6553609.510540643</v>
+        <v>6553536.94127673</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3349,7 +3368,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3359,7 +3378,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3386,10 +3405,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111954167</v>
+        <v>111954150</v>
       </c>
       <c r="B25" t="n">
-        <v>93171</v>
+        <v>89183</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3402,21 +3421,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2818</v>
+        <v>3215</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3426,10 +3445,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>695901.3675654647</v>
+        <v>695844.0803595956</v>
       </c>
       <c r="R25" t="n">
-        <v>6553634.334477904</v>
+        <v>6553785.881987686</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3461,7 +3480,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3471,7 +3490,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3498,10 +3517,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111954160</v>
+        <v>111954165</v>
       </c>
       <c r="B26" t="n">
-        <v>94173</v>
+        <v>108219</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3514,21 +3533,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2590</v>
+        <v>219711</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3538,10 +3557,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>695890.4165971773</v>
+        <v>695912.2225252972</v>
       </c>
       <c r="R26" t="n">
-        <v>6553626.563991487</v>
+        <v>6553613.777598281</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3573,7 +3592,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3583,7 +3602,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3610,10 +3629,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111954114</v>
+        <v>111954187</v>
       </c>
       <c r="B27" t="n">
-        <v>94173</v>
+        <v>93171</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3626,21 +3645,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2590</v>
+        <v>2818</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3650,10 +3669,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>695802.5905180702</v>
+        <v>695854.3031294853</v>
       </c>
       <c r="R27" t="n">
-        <v>6553528.34225694</v>
+        <v>6553777.651865888</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3685,7 +3704,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3695,7 +3714,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3706,6 +3725,26 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3722,10 +3761,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111954158</v>
+        <v>111954167</v>
       </c>
       <c r="B28" t="n">
-        <v>95532</v>
+        <v>93171</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3738,21 +3777,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221945</v>
+        <v>2818</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3762,10 +3801,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>695877.0654070158</v>
+        <v>695901.3675654647</v>
       </c>
       <c r="R28" t="n">
-        <v>6553625.364951649</v>
+        <v>6553634.334477904</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3797,7 +3836,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3807,7 +3846,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3834,10 +3873,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111954113</v>
+        <v>111954135</v>
       </c>
       <c r="B29" t="n">
-        <v>93171</v>
+        <v>92952</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3850,21 +3889,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2818</v>
+        <v>2779</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3874,10 +3913,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>695802.5905180702</v>
+        <v>695759.3320388016</v>
       </c>
       <c r="R29" t="n">
-        <v>6553528.34225694</v>
+        <v>6553536.94127673</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3909,7 +3948,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3919,7 +3958,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3930,6 +3969,11 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -3946,10 +3990,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111954134</v>
+        <v>111954102</v>
       </c>
       <c r="B30" t="n">
-        <v>98535</v>
+        <v>93171</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3962,21 +4006,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>222498</v>
+        <v>2818</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3986,10 +4030,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>695759.3320388016</v>
+        <v>695926.4066281476</v>
       </c>
       <c r="R30" t="n">
-        <v>6553536.94127673</v>
+        <v>6553628.923229965</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4021,7 +4065,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4031,7 +4075,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4042,6 +4086,26 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4058,10 +4122,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111954106</v>
+        <v>111954136</v>
       </c>
       <c r="B31" t="n">
-        <v>92952</v>
+        <v>93145</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4074,21 +4138,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2779</v>
+        <v>2671</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4098,10 +4162,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>695918.5640496905</v>
+        <v>695759.3320388016</v>
       </c>
       <c r="R31" t="n">
-        <v>6553580.630297415</v>
+        <v>6553536.94127673</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4133,7 +4197,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4143,7 +4207,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4175,10 +4239,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111954161</v>
+        <v>111954114</v>
       </c>
       <c r="B32" t="n">
-        <v>95532</v>
+        <v>94173</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4191,21 +4255,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221945</v>
+        <v>2590</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4215,10 +4279,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>695896.3658051894</v>
+        <v>695802.5905180702</v>
       </c>
       <c r="R32" t="n">
-        <v>6553621.204334841</v>
+        <v>6553528.34225694</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4250,7 +4314,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4260,7 +4324,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4287,10 +4351,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111954164</v>
+        <v>111954118</v>
       </c>
       <c r="B33" t="n">
-        <v>98535</v>
+        <v>94173</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4303,21 +4367,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222498</v>
+        <v>2590</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4327,10 +4391,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>695912.2225252972</v>
+        <v>695797.07051896</v>
       </c>
       <c r="R33" t="n">
-        <v>6553613.777598281</v>
+        <v>6553495.101629349</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4362,7 +4426,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4372,7 +4436,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4399,7 +4463,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111954157</v>
+        <v>111954116</v>
       </c>
       <c r="B34" t="n">
         <v>94173</v>
@@ -4439,10 +4503,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>695879.2959036676</v>
+        <v>695813.6703547441</v>
       </c>
       <c r="R34" t="n">
-        <v>6553632.173627001</v>
+        <v>6553513.460727843</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4474,7 +4538,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4484,7 +4548,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4511,10 +4575,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111954135</v>
+        <v>111954147</v>
       </c>
       <c r="B35" t="n">
-        <v>92952</v>
+        <v>89789</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4523,25 +4587,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2779</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Guldlockmossa</t>
-        </is>
+        <v>6040162</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Leptoporus erubescens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Fr.) Bourdot &amp; Galzin</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4551,10 +4610,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>695759.3320388016</v>
+        <v>695863.7275062524</v>
       </c>
       <c r="R35" t="n">
-        <v>6553536.94127673</v>
+        <v>6553815.209723577</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4586,7 +4645,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4596,7 +4655,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4607,11 +4666,6 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4628,10 +4682,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111954188</v>
+        <v>111954164</v>
       </c>
       <c r="B36" t="n">
-        <v>93248</v>
+        <v>98535</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4644,43 +4698,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>210</v>
+        <v>222498</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>695854.3031294853</v>
+        <v>695912.2225252972</v>
       </c>
       <c r="R36" t="n">
-        <v>6553777.651865888</v>
+        <v>6553613.777598281</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4712,7 +4757,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4722,7 +4767,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4733,26 +4778,6 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>Längs ned på förrötad granlåga.</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4769,10 +4794,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111954187</v>
+        <v>111954107</v>
       </c>
       <c r="B37" t="n">
-        <v>93171</v>
+        <v>98535</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4785,21 +4810,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2818</v>
+        <v>222498</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4809,10 +4834,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>695854.3031294853</v>
+        <v>695831.158922115</v>
       </c>
       <c r="R37" t="n">
-        <v>6553777.651865888</v>
+        <v>6553564.82300008</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4844,7 +4869,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4854,7 +4879,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4865,26 +4890,6 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>Längs ned på förrötad granlåga.</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4901,7 +4906,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111954170</v>
+        <v>111954160</v>
       </c>
       <c r="B38" t="n">
         <v>94173</v>
@@ -4935,20 +4940,16 @@
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>695866.660800101</v>
+        <v>695890.4165971773</v>
       </c>
       <c r="R38" t="n">
-        <v>6553657.273816385</v>
+        <v>6553626.563991487</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4980,7 +4981,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4990,7 +4991,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4999,7 +5000,6 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 34417-2023.xlsx
+++ b/artfynd/A 34417-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111713457</v>
+        <v>111713455</v>
       </c>
       <c r="B2" t="n">
-        <v>98535</v>
+        <v>94173</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222498</v>
+        <v>2590</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Öster om Brevik, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>695859.6211092162</v>
+        <v>695863.9162259072</v>
       </c>
       <c r="R2" t="n">
-        <v>6553693.989318338</v>
+        <v>6553559.8065641</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +759,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,7 +769,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -774,8 +778,19 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Gransumpskog</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Klen fuktig låga.</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -792,10 +807,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111713455</v>
+        <v>111713457</v>
       </c>
       <c r="B3" t="n">
-        <v>94173</v>
+        <v>98535</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,38 +823,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2590</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Öster om Brevik, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>695863.9162259072</v>
+        <v>695859.6211092162</v>
       </c>
       <c r="R3" t="n">
-        <v>6553559.8065641</v>
+        <v>6553693.989318338</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -871,7 +882,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -881,7 +892,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -890,19 +901,8 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Gransumpskog</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Klen fuktig låga.</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -1158,10 +1158,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111954157</v>
+        <v>111954188</v>
       </c>
       <c r="B6" t="n">
-        <v>94173</v>
+        <v>93248</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1174,34 +1174,43 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2590</v>
+        <v>210</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>695879.2959036676</v>
+        <v>695854.3031294853</v>
       </c>
       <c r="R6" t="n">
-        <v>6553632.173627001</v>
+        <v>6553777.651865888</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1233,7 +1242,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1243,7 +1252,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1254,6 +1263,26 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1270,10 +1299,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111954120</v>
+        <v>111954144</v>
       </c>
       <c r="B7" t="n">
-        <v>56414</v>
+        <v>93145</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1282,43 +1311,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>2671</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>695735.6871222925</v>
+        <v>695851.2107494868</v>
       </c>
       <c r="R7" t="n">
-        <v>6553444.581050223</v>
+        <v>6553646.698234474</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1350,7 +1374,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1360,12 +1384,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:27</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Hack på levande gran.</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1376,6 +1395,11 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk sbergart.</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1392,10 +1416,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111954111</v>
+        <v>111954120</v>
       </c>
       <c r="B8" t="n">
-        <v>94173</v>
+        <v>56414</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,38 +1428,43 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2590</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>695776.66497851</v>
+        <v>695735.6871222925</v>
       </c>
       <c r="R8" t="n">
-        <v>6553520.834985243</v>
+        <v>6553444.581050223</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1467,7 +1496,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1477,7 +1506,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Hack på levande gran.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1504,10 +1538,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111954161</v>
+        <v>111954134</v>
       </c>
       <c r="B9" t="n">
-        <v>95532</v>
+        <v>98535</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1520,21 +1554,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1544,10 +1578,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>695896.3658051894</v>
+        <v>695759.3320388016</v>
       </c>
       <c r="R9" t="n">
-        <v>6553621.204334841</v>
+        <v>6553536.94127673</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1579,7 +1613,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1589,7 +1623,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1616,7 +1650,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111954159</v>
+        <v>111954116</v>
       </c>
       <c r="B10" t="n">
         <v>94173</v>
@@ -1656,10 +1690,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>695890.7796608348</v>
+        <v>695813.6703547441</v>
       </c>
       <c r="R10" t="n">
-        <v>6553579.206556734</v>
+        <v>6553513.460727843</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1691,7 +1725,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1701,7 +1735,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1728,10 +1762,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111954131</v>
+        <v>111954114</v>
       </c>
       <c r="B11" t="n">
-        <v>89183</v>
+        <v>94173</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1744,21 +1778,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3215</v>
+        <v>2590</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1768,10 +1802,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>695672.0487292509</v>
+        <v>695802.5905180702</v>
       </c>
       <c r="R11" t="n">
-        <v>6553407.850045409</v>
+        <v>6553528.34225694</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1803,7 +1837,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1813,7 +1847,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1840,10 +1874,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111954108</v>
+        <v>111954101</v>
       </c>
       <c r="B12" t="n">
-        <v>90332</v>
+        <v>94134</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,25 +1886,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4769</v>
+        <v>53</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1880,10 +1914,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>695830.749629521</v>
+        <v>695926.4066281476</v>
       </c>
       <c r="R12" t="n">
-        <v>6553562.742190208</v>
+        <v>6553628.923229965</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1915,7 +1949,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1925,12 +1959,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:45</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Intill gran.</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1941,6 +1970,26 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1957,10 +2006,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111954123</v>
+        <v>111954145</v>
       </c>
       <c r="B13" t="n">
-        <v>5135</v>
+        <v>98535</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1973,21 +2022,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>105930</v>
+        <v>222498</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1997,10 +2046,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>695736.8704301633</v>
+        <v>695858.182829462</v>
       </c>
       <c r="R13" t="n">
-        <v>6553421.467662166</v>
+        <v>6553691.855853913</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2032,7 +2081,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2042,7 +2091,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2053,26 +2102,6 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Picea abies # Lutande död gran.</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2089,10 +2118,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111954101</v>
+        <v>111954170</v>
       </c>
       <c r="B14" t="n">
-        <v>94134</v>
+        <v>94173</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2101,38 +2130,42 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>2590</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>695926.4066281476</v>
+        <v>695866.660800101</v>
       </c>
       <c r="R14" t="n">
-        <v>6553628.923229965</v>
+        <v>6553657.273816385</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2164,7 +2197,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2174,7 +2207,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2183,28 +2216,9 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>Gammal barklös granlåga.</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2221,10 +2235,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111954145</v>
+        <v>111954108</v>
       </c>
       <c r="B15" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2237,21 +2251,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2261,10 +2275,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>695858.182829462</v>
+        <v>695830.749629521</v>
       </c>
       <c r="R15" t="n">
-        <v>6553691.855853913</v>
+        <v>6553562.742190208</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2296,7 +2310,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2306,7 +2320,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Intill gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2333,10 +2352,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111954170</v>
+        <v>111954158</v>
       </c>
       <c r="B16" t="n">
-        <v>94173</v>
+        <v>95532</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2349,38 +2368,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2590</v>
+        <v>221945</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>695866.660800101</v>
+        <v>695877.0654070158</v>
       </c>
       <c r="R16" t="n">
-        <v>6553657.273816385</v>
+        <v>6553625.364951649</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2412,7 +2427,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2422,7 +2437,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2431,7 +2446,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2450,10 +2464,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111954144</v>
+        <v>111954160</v>
       </c>
       <c r="B17" t="n">
-        <v>93145</v>
+        <v>94173</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2466,21 +2480,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2671</v>
+        <v>2590</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2490,10 +2504,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>695851.2107494868</v>
+        <v>695890.4165971773</v>
       </c>
       <c r="R17" t="n">
-        <v>6553646.698234474</v>
+        <v>6553626.563991487</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2525,7 +2539,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2535,7 +2549,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2546,11 +2560,6 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk sbergart.</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2567,10 +2576,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111954163</v>
+        <v>111954123</v>
       </c>
       <c r="B18" t="n">
-        <v>108219</v>
+        <v>5135</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2583,21 +2592,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>219711</v>
+        <v>105930</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2607,10 +2616,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>695909.345953525</v>
+        <v>695736.8704301633</v>
       </c>
       <c r="R18" t="n">
-        <v>6553609.510540643</v>
+        <v>6553421.467662166</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2642,7 +2651,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2652,7 +2661,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2663,6 +2672,26 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Picea abies # Lutande död gran.</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2679,7 +2708,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111954113</v>
+        <v>111954102</v>
       </c>
       <c r="B19" t="n">
         <v>93171</v>
@@ -2719,10 +2748,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>695802.5905180702</v>
+        <v>695926.4066281476</v>
       </c>
       <c r="R19" t="n">
-        <v>6553528.34225694</v>
+        <v>6553628.923229965</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2754,7 +2783,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2764,7 +2793,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2775,6 +2804,26 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2791,10 +2840,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111954106</v>
+        <v>111954163</v>
       </c>
       <c r="B20" t="n">
-        <v>92952</v>
+        <v>108219</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2807,21 +2856,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2779</v>
+        <v>219711</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2831,10 +2880,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>695918.5640496905</v>
+        <v>695909.345953525</v>
       </c>
       <c r="R20" t="n">
-        <v>6553580.630297415</v>
+        <v>6553609.510540643</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2866,7 +2915,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2876,7 +2925,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2887,11 +2936,6 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2908,10 +2952,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111954158</v>
+        <v>111954111</v>
       </c>
       <c r="B21" t="n">
-        <v>95532</v>
+        <v>94173</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2924,21 +2968,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221945</v>
+        <v>2590</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2948,10 +2992,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>695877.0654070158</v>
+        <v>695776.66497851</v>
       </c>
       <c r="R21" t="n">
-        <v>6553625.364951649</v>
+        <v>6553520.834985243</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2983,7 +3027,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2993,7 +3037,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3020,10 +3064,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111954124</v>
+        <v>111954135</v>
       </c>
       <c r="B22" t="n">
-        <v>5113</v>
+        <v>92952</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3036,21 +3080,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100526</v>
+        <v>2779</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3060,10 +3104,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>695736.8704301633</v>
+        <v>695759.3320388016</v>
       </c>
       <c r="R22" t="n">
-        <v>6553421.467662166</v>
+        <v>6553536.94127673</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3095,7 +3139,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3105,7 +3149,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3117,24 +3161,9 @@
       <c r="AG22" t="b">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Picea abies # Lutande död gran.</t>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3152,10 +3181,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111954188</v>
+        <v>111954131</v>
       </c>
       <c r="B23" t="n">
-        <v>93248</v>
+        <v>89183</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3168,43 +3197,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>210</v>
+        <v>3215</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>695854.3031294853</v>
+        <v>695672.0487292509</v>
       </c>
       <c r="R23" t="n">
-        <v>6553777.651865888</v>
+        <v>6553407.850045409</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3236,7 +3256,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3246,7 +3266,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3257,26 +3277,6 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>Längs ned på förrötad granlåga.</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3293,10 +3293,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111954134</v>
+        <v>111954165</v>
       </c>
       <c r="B24" t="n">
-        <v>98535</v>
+        <v>108219</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3309,21 +3309,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>222498</v>
+        <v>219711</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3333,10 +3333,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>695759.3320388016</v>
+        <v>695912.2225252972</v>
       </c>
       <c r="R24" t="n">
-        <v>6553536.94127673</v>
+        <v>6553613.777598281</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3405,10 +3405,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111954150</v>
+        <v>111954147</v>
       </c>
       <c r="B25" t="n">
-        <v>89183</v>
+        <v>89789</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3417,25 +3417,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3215</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Rödgul trumpetsvamp</t>
-        </is>
+        <v>6040162</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Leptoporus erubescens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Fr.) Bourdot &amp; Galzin</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3445,10 +3440,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>695844.0803595956</v>
+        <v>695863.7275062524</v>
       </c>
       <c r="R25" t="n">
-        <v>6553785.881987686</v>
+        <v>6553815.209723577</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3480,7 +3475,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3490,7 +3485,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3517,10 +3512,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111954165</v>
+        <v>111954113</v>
       </c>
       <c r="B26" t="n">
-        <v>108219</v>
+        <v>93171</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3533,21 +3528,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>219711</v>
+        <v>2818</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3557,10 +3552,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>695912.2225252972</v>
+        <v>695802.5905180702</v>
       </c>
       <c r="R26" t="n">
-        <v>6553613.777598281</v>
+        <v>6553528.34225694</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3592,7 +3587,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3602,7 +3597,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3629,7 +3624,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111954187</v>
+        <v>111954167</v>
       </c>
       <c r="B27" t="n">
         <v>93171</v>
@@ -3669,10 +3664,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>695854.3031294853</v>
+        <v>695901.3675654647</v>
       </c>
       <c r="R27" t="n">
-        <v>6553777.651865888</v>
+        <v>6553634.334477904</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3704,7 +3699,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3714,7 +3709,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3725,26 +3720,6 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>Längs ned på förrötad granlåga.</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3761,10 +3736,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111954167</v>
+        <v>111954164</v>
       </c>
       <c r="B28" t="n">
-        <v>93171</v>
+        <v>98535</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3777,21 +3752,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2818</v>
+        <v>222498</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3801,10 +3776,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>695901.3675654647</v>
+        <v>695912.2225252972</v>
       </c>
       <c r="R28" t="n">
-        <v>6553634.334477904</v>
+        <v>6553613.777598281</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3836,7 +3811,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3846,7 +3821,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3873,10 +3848,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111954135</v>
+        <v>111954157</v>
       </c>
       <c r="B29" t="n">
-        <v>92952</v>
+        <v>94173</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3889,21 +3864,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2779</v>
+        <v>2590</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3913,10 +3888,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>695759.3320388016</v>
+        <v>695879.2959036676</v>
       </c>
       <c r="R29" t="n">
-        <v>6553536.94127673</v>
+        <v>6553632.173627001</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3948,7 +3923,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3958,7 +3933,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3969,11 +3944,6 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -3990,7 +3960,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111954102</v>
+        <v>111954187</v>
       </c>
       <c r="B30" t="n">
         <v>93171</v>
@@ -4030,10 +4000,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>695926.4066281476</v>
+        <v>695854.3031294853</v>
       </c>
       <c r="R30" t="n">
-        <v>6553628.923229965</v>
+        <v>6553777.651865888</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4065,7 +4035,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4075,7 +4045,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4099,12 +4069,12 @@
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>Gammal barklös granlåga.</t>
+          <t>Längs ned på förrötad granlåga.</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4122,10 +4092,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111954136</v>
+        <v>111954159</v>
       </c>
       <c r="B31" t="n">
-        <v>93145</v>
+        <v>94173</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4138,21 +4108,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2671</v>
+        <v>2590</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4162,10 +4132,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>695759.3320388016</v>
+        <v>695890.7796608348</v>
       </c>
       <c r="R31" t="n">
-        <v>6553536.94127673</v>
+        <v>6553579.206556734</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4197,7 +4167,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4207,7 +4177,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4218,11 +4188,6 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4239,7 +4204,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111954114</v>
+        <v>111954118</v>
       </c>
       <c r="B32" t="n">
         <v>94173</v>
@@ -4279,10 +4244,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>695802.5905180702</v>
+        <v>695797.07051896</v>
       </c>
       <c r="R32" t="n">
-        <v>6553528.34225694</v>
+        <v>6553495.101629349</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4314,7 +4279,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4324,7 +4289,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4351,10 +4316,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111954118</v>
+        <v>111954124</v>
       </c>
       <c r="B33" t="n">
-        <v>94173</v>
+        <v>5113</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4367,21 +4332,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2590</v>
+        <v>100526</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4391,10 +4356,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>695797.07051896</v>
+        <v>695736.8704301633</v>
       </c>
       <c r="R33" t="n">
-        <v>6553495.101629349</v>
+        <v>6553421.467662166</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4426,7 +4391,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4436,7 +4401,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4447,6 +4412,26 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Picea abies # Lutande död gran.</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4463,10 +4448,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111954116</v>
+        <v>111954150</v>
       </c>
       <c r="B34" t="n">
-        <v>94173</v>
+        <v>89183</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4479,21 +4464,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2590</v>
+        <v>3215</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4503,10 +4488,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>695813.6703547441</v>
+        <v>695844.0803595956</v>
       </c>
       <c r="R34" t="n">
-        <v>6553513.460727843</v>
+        <v>6553785.881987686</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4538,7 +4523,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4548,7 +4533,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4575,10 +4560,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111954147</v>
+        <v>111954136</v>
       </c>
       <c r="B35" t="n">
-        <v>89789</v>
+        <v>93145</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4587,20 +4572,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6040162</v>
+        <v>2671</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Fällmossa</t>
+        </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Leptoporus erubescens</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Bourdot &amp; Galzin</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4610,10 +4600,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>695863.7275062524</v>
+        <v>695759.3320388016</v>
       </c>
       <c r="R35" t="n">
-        <v>6553815.209723577</v>
+        <v>6553536.94127673</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4645,7 +4635,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4655,7 +4645,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4666,6 +4656,11 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4682,10 +4677,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111954164</v>
+        <v>111954106</v>
       </c>
       <c r="B36" t="n">
-        <v>98535</v>
+        <v>92952</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4698,21 +4693,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>222498</v>
+        <v>2779</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4722,10 +4717,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>695912.2225252972</v>
+        <v>695918.5640496905</v>
       </c>
       <c r="R36" t="n">
-        <v>6553613.777598281</v>
+        <v>6553580.630297415</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4757,7 +4752,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4767,7 +4762,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4778,6 +4773,11 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4906,10 +4906,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111954160</v>
+        <v>111954161</v>
       </c>
       <c r="B38" t="n">
-        <v>94173</v>
+        <v>95532</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4922,21 +4922,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2590</v>
+        <v>221945</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>695890.4165971773</v>
+        <v>695896.3658051894</v>
       </c>
       <c r="R38" t="n">
-        <v>6553626.563991487</v>
+        <v>6553621.204334841</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD38" t="b">

--- a/artfynd/A 34417-2023.xlsx
+++ b/artfynd/A 34417-2023.xlsx
@@ -3848,10 +3848,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111954157</v>
+        <v>111954187</v>
       </c>
       <c r="B29" t="n">
-        <v>94173</v>
+        <v>93171</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3864,21 +3864,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2590</v>
+        <v>2818</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>695879.2959036676</v>
+        <v>695854.3031294853</v>
       </c>
       <c r="R29" t="n">
-        <v>6553632.173627001</v>
+        <v>6553777.651865888</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3944,6 +3944,26 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -3960,10 +3980,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111954187</v>
+        <v>111954157</v>
       </c>
       <c r="B30" t="n">
-        <v>93171</v>
+        <v>94173</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3976,21 +3996,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2818</v>
+        <v>2590</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4000,10 +4020,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>695854.3031294853</v>
+        <v>695879.2959036676</v>
       </c>
       <c r="R30" t="n">
-        <v>6553777.651865888</v>
+        <v>6553632.173627001</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4035,7 +4055,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4045,7 +4065,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4056,26 +4076,6 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>Längs ned på förrötad granlåga.</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4092,10 +4092,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111954159</v>
+        <v>111954124</v>
       </c>
       <c r="B31" t="n">
-        <v>94173</v>
+        <v>5113</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4108,21 +4108,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2590</v>
+        <v>100526</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>695890.7796608348</v>
+        <v>695736.8704301633</v>
       </c>
       <c r="R31" t="n">
-        <v>6553579.206556734</v>
+        <v>6553421.467662166</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4188,6 +4188,26 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Picea abies # Lutande död gran.</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4204,7 +4224,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111954118</v>
+        <v>111954159</v>
       </c>
       <c r="B32" t="n">
         <v>94173</v>
@@ -4244,10 +4264,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>695797.07051896</v>
+        <v>695890.7796608348</v>
       </c>
       <c r="R32" t="n">
-        <v>6553495.101629349</v>
+        <v>6553579.206556734</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4279,7 +4299,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4289,7 +4309,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4316,10 +4336,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111954124</v>
+        <v>111954118</v>
       </c>
       <c r="B33" t="n">
-        <v>5113</v>
+        <v>94173</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4332,21 +4352,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100526</v>
+        <v>2590</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4356,10 +4376,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>695736.8704301633</v>
+        <v>695797.07051896</v>
       </c>
       <c r="R33" t="n">
-        <v>6553421.467662166</v>
+        <v>6553495.101629349</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4391,7 +4411,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4401,7 +4421,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4412,26 +4432,6 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Picea abies # Lutande död gran.</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">

--- a/artfynd/A 34417-2023.xlsx
+++ b/artfynd/A 34417-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY39"/>
+  <dimension ref="A1:AY38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111713455</v>
+        <v>111713457</v>
       </c>
       <c r="B2" t="n">
-        <v>94173</v>
+        <v>98535</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2590</v>
+        <v>222498</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Öster om Brevik, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>695863.9162259072</v>
+        <v>695860</v>
       </c>
       <c r="R2" t="n">
-        <v>6553559.8065641</v>
+        <v>6553694</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -759,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -769,7 +765,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -778,19 +774,8 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Gransumpskog</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Klen fuktig låga.</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -807,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111713457</v>
+        <v>111713455</v>
       </c>
       <c r="B3" t="n">
-        <v>98535</v>
+        <v>94173</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -823,34 +808,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>2590</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Öster om Brevik, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>695859.6211092162</v>
+        <v>695864</v>
       </c>
       <c r="R3" t="n">
-        <v>6553693.989318338</v>
+        <v>6553560</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -882,7 +871,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -892,7 +881,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -901,8 +890,19 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Gransumpskog</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Klen fuktig låga.</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>695942.6774062206</v>
+        <v>695943</v>
       </c>
       <c r="R4" t="n">
-        <v>6553663.74395387</v>
+        <v>6553664</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>695862.1592837617</v>
+        <v>695862</v>
       </c>
       <c r="R5" t="n">
-        <v>6553543.752691799</v>
+        <v>6553544</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1118,19 +1118,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1158,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111954188</v>
+        <v>111954135</v>
       </c>
       <c r="B6" t="n">
-        <v>93248</v>
+        <v>92952</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1174,43 +1164,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>210</v>
+        <v>2779</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>(Hedw.) Schimp.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>695854.3031294853</v>
+        <v>695759</v>
       </c>
       <c r="R6" t="n">
-        <v>6553777.651865888</v>
+        <v>6553537</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1242,7 +1223,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1252,7 +1233,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1264,24 +1245,9 @@
       <c r="AG6" t="b">
         <v>0</v>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>Längs ned på förrötad granlåga.</t>
-        </is>
-      </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1299,10 +1265,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111954144</v>
+        <v>111954158</v>
       </c>
       <c r="B7" t="n">
-        <v>93145</v>
+        <v>95532</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1315,21 +1281,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2671</v>
+        <v>221945</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1339,10 +1305,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>695851.2107494868</v>
+        <v>695877</v>
       </c>
       <c r="R7" t="n">
-        <v>6553646.698234474</v>
+        <v>6553625</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1374,7 +1340,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1384,7 +1350,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1395,11 +1361,6 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk sbergart.</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1461,10 +1422,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>695735.6871222925</v>
+        <v>695736</v>
       </c>
       <c r="R8" t="n">
-        <v>6553444.581050223</v>
+        <v>6553445</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1538,10 +1499,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111954134</v>
+        <v>111954114</v>
       </c>
       <c r="B9" t="n">
-        <v>98535</v>
+        <v>94173</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1554,21 +1515,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222498</v>
+        <v>2590</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1578,10 +1539,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>695759.3320388016</v>
+        <v>695803</v>
       </c>
       <c r="R9" t="n">
-        <v>6553536.94127673</v>
+        <v>6553528</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1613,7 +1574,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1623,7 +1584,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1650,10 +1611,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111954116</v>
+        <v>111954102</v>
       </c>
       <c r="B10" t="n">
-        <v>94173</v>
+        <v>93171</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1666,21 +1627,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2590</v>
+        <v>2818</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1690,10 +1651,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>695813.6703547441</v>
+        <v>695926</v>
       </c>
       <c r="R10" t="n">
-        <v>6553513.460727843</v>
+        <v>6553629</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1725,7 +1686,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1735,7 +1696,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1746,6 +1707,26 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1762,10 +1743,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111954114</v>
+        <v>111954136</v>
       </c>
       <c r="B11" t="n">
-        <v>94173</v>
+        <v>93145</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1778,21 +1759,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2590</v>
+        <v>2671</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1802,10 +1783,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>695802.5905180702</v>
+        <v>695759</v>
       </c>
       <c r="R11" t="n">
-        <v>6553528.34225694</v>
+        <v>6553537</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1837,7 +1818,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1847,7 +1828,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1858,6 +1839,11 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1874,10 +1860,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111954101</v>
+        <v>111954159</v>
       </c>
       <c r="B12" t="n">
-        <v>94134</v>
+        <v>94173</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1886,25 +1872,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>53</v>
+        <v>2590</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1914,10 +1900,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>695926.4066281476</v>
+        <v>695891</v>
       </c>
       <c r="R12" t="n">
-        <v>6553628.923229965</v>
+        <v>6553579</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1949,7 +1935,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1959,7 +1945,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1970,26 +1956,6 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>Gammal barklös granlåga.</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2006,10 +1972,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111954145</v>
+        <v>111954187</v>
       </c>
       <c r="B13" t="n">
-        <v>98535</v>
+        <v>93171</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2022,21 +1988,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222498</v>
+        <v>2818</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2046,10 +2012,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>695858.182829462</v>
+        <v>695854</v>
       </c>
       <c r="R13" t="n">
-        <v>6553691.855853913</v>
+        <v>6553778</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2081,7 +2047,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2091,7 +2057,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2102,6 +2068,26 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2118,7 +2104,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111954170</v>
+        <v>111954118</v>
       </c>
       <c r="B14" t="n">
         <v>94173</v>
@@ -2152,20 +2138,16 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>695866.660800101</v>
+        <v>695797</v>
       </c>
       <c r="R14" t="n">
-        <v>6553657.273816385</v>
+        <v>6553495</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2197,7 +2179,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2207,7 +2189,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2216,7 +2198,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2235,10 +2216,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111954108</v>
+        <v>111954131</v>
       </c>
       <c r="B15" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2251,21 +2232,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2275,10 +2256,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>695830.749629521</v>
+        <v>695672</v>
       </c>
       <c r="R15" t="n">
-        <v>6553562.742190208</v>
+        <v>6553408</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2310,7 +2291,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2320,12 +2301,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:45</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Intill gran.</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2352,10 +2328,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111954158</v>
+        <v>111954134</v>
       </c>
       <c r="B16" t="n">
-        <v>95532</v>
+        <v>98535</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2368,21 +2344,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2392,10 +2368,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>695877.0654070158</v>
+        <v>695759</v>
       </c>
       <c r="R16" t="n">
-        <v>6553625.364951649</v>
+        <v>6553537</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2427,7 +2403,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2437,7 +2413,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2504,10 +2480,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>695890.4165971773</v>
+        <v>695890</v>
       </c>
       <c r="R17" t="n">
-        <v>6553626.563991487</v>
+        <v>6553627</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2576,10 +2552,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111954123</v>
+        <v>111954106</v>
       </c>
       <c r="B18" t="n">
-        <v>5135</v>
+        <v>92952</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2592,21 +2568,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>105930</v>
+        <v>2779</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2616,10 +2592,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>695736.8704301633</v>
+        <v>695919</v>
       </c>
       <c r="R18" t="n">
-        <v>6553421.467662166</v>
+        <v>6553581</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2651,7 +2627,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2661,7 +2637,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2673,24 +2649,9 @@
       <c r="AG18" t="b">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Picea abies # Lutande död gran.</t>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2708,10 +2669,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111954102</v>
+        <v>111954150</v>
       </c>
       <c r="B19" t="n">
-        <v>93171</v>
+        <v>89183</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2724,21 +2685,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2818</v>
+        <v>3215</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2748,10 +2709,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>695926.4066281476</v>
+        <v>695844</v>
       </c>
       <c r="R19" t="n">
-        <v>6553628.923229965</v>
+        <v>6553786</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2783,7 +2744,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2793,7 +2754,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2804,26 +2765,6 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>Gammal barklös granlåga.</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2840,10 +2781,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111954163</v>
+        <v>111954157</v>
       </c>
       <c r="B20" t="n">
-        <v>108219</v>
+        <v>94173</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2856,21 +2797,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>219711</v>
+        <v>2590</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2880,10 +2821,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>695909.345953525</v>
+        <v>695879</v>
       </c>
       <c r="R20" t="n">
-        <v>6553609.510540643</v>
+        <v>6553632</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2915,7 +2856,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2925,7 +2866,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2952,10 +2893,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111954111</v>
+        <v>111954124</v>
       </c>
       <c r="B21" t="n">
-        <v>94173</v>
+        <v>5113</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2968,21 +2909,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2590</v>
+        <v>100526</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2992,10 +2933,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>695776.66497851</v>
+        <v>695737</v>
       </c>
       <c r="R21" t="n">
-        <v>6553520.834985243</v>
+        <v>6553421</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3027,7 +2968,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3037,7 +2978,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3048,6 +2989,26 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Picea abies # Lutande död gran.</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3064,10 +3025,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111954135</v>
+        <v>111954165</v>
       </c>
       <c r="B22" t="n">
-        <v>92952</v>
+        <v>108219</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3080,21 +3041,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2779</v>
+        <v>219711</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3104,10 +3065,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>695759.3320388016</v>
+        <v>695912</v>
       </c>
       <c r="R22" t="n">
-        <v>6553536.94127673</v>
+        <v>6553614</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3139,7 +3100,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3149,7 +3110,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3160,11 +3121,6 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3181,10 +3137,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111954131</v>
+        <v>111954123</v>
       </c>
       <c r="B23" t="n">
-        <v>89183</v>
+        <v>5135</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3197,21 +3153,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3215</v>
+        <v>105930</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3221,10 +3177,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>695672.0487292509</v>
+        <v>695737</v>
       </c>
       <c r="R23" t="n">
-        <v>6553407.850045409</v>
+        <v>6553421</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3256,7 +3212,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3266,7 +3222,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3277,6 +3233,26 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Picea abies # Lutande död gran.</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3293,10 +3269,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111954165</v>
+        <v>111954167</v>
       </c>
       <c r="B24" t="n">
-        <v>108219</v>
+        <v>93171</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3309,21 +3285,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>219711</v>
+        <v>2818</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3333,10 +3309,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>695912.2225252972</v>
+        <v>695901</v>
       </c>
       <c r="R24" t="n">
-        <v>6553613.777598281</v>
+        <v>6553634</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3368,7 +3344,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3378,7 +3354,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3405,10 +3381,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111954147</v>
+        <v>111954107</v>
       </c>
       <c r="B25" t="n">
-        <v>89789</v>
+        <v>98535</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3417,20 +3393,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6040162</v>
+        <v>222498</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Leptoporus erubescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Bourdot &amp; Galzin</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3440,10 +3421,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>695863.7275062524</v>
+        <v>695831</v>
       </c>
       <c r="R25" t="n">
-        <v>6553815.209723577</v>
+        <v>6553565</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3475,7 +3456,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3485,7 +3466,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3512,10 +3493,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111954113</v>
+        <v>111954161</v>
       </c>
       <c r="B26" t="n">
-        <v>93171</v>
+        <v>95532</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3528,21 +3509,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2818</v>
+        <v>221945</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3552,10 +3533,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>695802.5905180702</v>
+        <v>695896</v>
       </c>
       <c r="R26" t="n">
-        <v>6553528.34225694</v>
+        <v>6553621</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3587,7 +3568,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3597,7 +3578,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3624,10 +3605,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111954167</v>
+        <v>111954101</v>
       </c>
       <c r="B27" t="n">
-        <v>93171</v>
+        <v>94134</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3636,25 +3617,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2818</v>
+        <v>53</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3664,10 +3645,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>695901.3675654647</v>
+        <v>695926</v>
       </c>
       <c r="R27" t="n">
-        <v>6553634.334477904</v>
+        <v>6553629</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3699,7 +3680,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3709,7 +3690,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3720,6 +3701,26 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3776,10 +3777,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>695912.2225252972</v>
+        <v>695912</v>
       </c>
       <c r="R28" t="n">
-        <v>6553613.777598281</v>
+        <v>6553614</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3848,10 +3849,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111954187</v>
+        <v>111954188</v>
       </c>
       <c r="B29" t="n">
-        <v>93171</v>
+        <v>93248</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3864,34 +3865,43 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2818</v>
+        <v>210</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>695854.3031294853</v>
+        <v>695854</v>
       </c>
       <c r="R29" t="n">
-        <v>6553777.651865888</v>
+        <v>6553778</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3980,10 +3990,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111954157</v>
+        <v>111954163</v>
       </c>
       <c r="B30" t="n">
-        <v>94173</v>
+        <v>108219</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3996,21 +4006,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2590</v>
+        <v>219711</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4020,10 +4030,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>695879.2959036676</v>
+        <v>695909</v>
       </c>
       <c r="R30" t="n">
-        <v>6553632.173627001</v>
+        <v>6553610</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4055,7 +4065,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4065,7 +4075,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4092,10 +4102,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111954124</v>
+        <v>111954145</v>
       </c>
       <c r="B31" t="n">
-        <v>5113</v>
+        <v>98535</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4108,21 +4118,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100526</v>
+        <v>222498</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4132,10 +4142,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>695736.8704301633</v>
+        <v>695858</v>
       </c>
       <c r="R31" t="n">
-        <v>6553421.467662166</v>
+        <v>6553692</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4167,7 +4177,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4177,7 +4187,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4188,26 +4198,6 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Picea abies # Lutande död gran.</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4224,10 +4214,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111954159</v>
+        <v>111954108</v>
       </c>
       <c r="B32" t="n">
-        <v>94173</v>
+        <v>90332</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4240,21 +4230,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2590</v>
+        <v>4769</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4264,10 +4254,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>695890.7796608348</v>
+        <v>695831</v>
       </c>
       <c r="R32" t="n">
-        <v>6553579.206556734</v>
+        <v>6553563</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4299,7 +4289,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4309,7 +4299,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Intill gran.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4336,10 +4331,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111954118</v>
+        <v>111954113</v>
       </c>
       <c r="B33" t="n">
-        <v>94173</v>
+        <v>93171</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4352,21 +4347,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2590</v>
+        <v>2818</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4376,10 +4371,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>695797.07051896</v>
+        <v>695803</v>
       </c>
       <c r="R33" t="n">
-        <v>6553495.101629349</v>
+        <v>6553528</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4411,7 +4406,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4421,7 +4416,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4448,10 +4443,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111954150</v>
+        <v>111954111</v>
       </c>
       <c r="B34" t="n">
-        <v>89183</v>
+        <v>94173</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4464,21 +4459,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3215</v>
+        <v>2590</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4488,10 +4483,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>695844.0803595956</v>
+        <v>695777</v>
       </c>
       <c r="R34" t="n">
-        <v>6553785.881987686</v>
+        <v>6553521</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4523,7 +4518,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4533,7 +4528,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4560,7 +4555,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111954136</v>
+        <v>111954144</v>
       </c>
       <c r="B35" t="n">
         <v>93145</v>
@@ -4600,10 +4595,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>695759.3320388016</v>
+        <v>695851</v>
       </c>
       <c r="R35" t="n">
-        <v>6553536.94127673</v>
+        <v>6553647</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4635,7 +4630,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4645,7 +4640,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4659,7 +4654,7 @@
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
+          <t>Klippbrant. Sannolikt basisk sbergart.</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4677,10 +4672,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111954106</v>
+        <v>111954170</v>
       </c>
       <c r="B36" t="n">
-        <v>92952</v>
+        <v>94173</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4693,34 +4688,38 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2779</v>
+        <v>2590</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>695918.5640496905</v>
+        <v>695867</v>
       </c>
       <c r="R36" t="n">
-        <v>6553580.630297415</v>
+        <v>6553657</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4752,7 +4751,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4762,7 +4761,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4771,13 +4770,9 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4794,10 +4789,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111954107</v>
+        <v>111954116</v>
       </c>
       <c r="B37" t="n">
-        <v>98535</v>
+        <v>94173</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4810,21 +4805,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>222498</v>
+        <v>2590</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4834,10 +4829,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>695831.158922115</v>
+        <v>695814</v>
       </c>
       <c r="R37" t="n">
-        <v>6553564.82300008</v>
+        <v>6553513</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4869,7 +4864,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4879,7 +4874,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4906,10 +4901,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111954161</v>
+        <v>111962068</v>
       </c>
       <c r="B38" t="n">
-        <v>95532</v>
+        <v>90666</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4922,37 +4917,48 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>221945</v>
+        <v>4364</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Ornö, öster om Brevik, Srm</t>
+          <t>Björnmossen, Srm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>695896.3658051894</v>
+        <v>695715</v>
       </c>
       <c r="R38" t="n">
-        <v>6553621.204334841</v>
+        <v>6553439</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4976,22 +4982,22 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5000,145 +5006,22 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Cecilia Gottfries</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+          <t>Cecilia Gottfries</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>111962068</v>
-      </c>
-      <c r="B39" t="n">
-        <v>90666</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>LC</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>4364</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Hydnellum ferrugineum</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Björnmossen, Srm</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>695715.315722955</v>
-      </c>
-      <c r="R39" t="n">
-        <v>6553439.418369018</v>
-      </c>
-      <c r="S39" t="n">
-        <v>50</v>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Stockholm</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Haninge</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Södermanland</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Ornö</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>10:53</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>10:53</t>
-        </is>
-      </c>
-      <c r="AD39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT39" t="inlineStr"/>
-      <c r="AW39" t="inlineStr">
-        <is>
-          <t>Cecilia Gottfries</t>
-        </is>
-      </c>
-      <c r="AX39" t="inlineStr">
-        <is>
-          <t>Cecilia Gottfries</t>
-        </is>
-      </c>
-      <c r="AY39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 34417-2023.xlsx
+++ b/artfynd/A 34417-2023.xlsx
@@ -1044,7 +1044,7 @@
         <v>111891039</v>
       </c>
       <c r="B5" t="n">
-        <v>108219</v>
+        <v>108741</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111954135</v>
+        <v>111954131</v>
       </c>
       <c r="B6" t="n">
-        <v>92952</v>
+        <v>89317</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,21 +1164,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2779</v>
+        <v>3215</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>695759</v>
+        <v>695672</v>
       </c>
       <c r="R6" t="n">
-        <v>6553537</v>
+        <v>6553408</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1244,11 +1244,6 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1265,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111954158</v>
+        <v>111954106</v>
       </c>
       <c r="B7" t="n">
-        <v>95532</v>
+        <v>93101</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1281,21 +1276,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221945</v>
+        <v>2779</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1305,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>695877</v>
+        <v>695919</v>
       </c>
       <c r="R7" t="n">
-        <v>6553625</v>
+        <v>6553581</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1340,7 +1335,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1350,7 +1345,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,6 +1356,11 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1380,7 +1380,7 @@
         <v>111954120</v>
       </c>
       <c r="B8" t="n">
-        <v>56414</v>
+        <v>56446</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1499,10 +1499,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111954114</v>
+        <v>111954102</v>
       </c>
       <c r="B9" t="n">
-        <v>94173</v>
+        <v>93320</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1515,21 +1515,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2590</v>
+        <v>2818</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1539,10 +1539,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>695803</v>
+        <v>695926</v>
       </c>
       <c r="R9" t="n">
-        <v>6553528</v>
+        <v>6553629</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1595,6 +1595,26 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1611,10 +1631,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111954102</v>
+        <v>111954113</v>
       </c>
       <c r="B10" t="n">
-        <v>93171</v>
+        <v>93320</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1651,10 +1671,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>695926</v>
+        <v>695803</v>
       </c>
       <c r="R10" t="n">
-        <v>6553629</v>
+        <v>6553528</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1686,7 +1706,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1696,7 +1716,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1707,26 +1727,6 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>Gammal barklös granlåga.</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1743,10 +1743,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111954136</v>
+        <v>111954159</v>
       </c>
       <c r="B11" t="n">
-        <v>93145</v>
+        <v>94326</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1759,21 +1759,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2671</v>
+        <v>2590</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>695759</v>
+        <v>695891</v>
       </c>
       <c r="R11" t="n">
-        <v>6553537</v>
+        <v>6553579</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1839,11 +1839,6 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1860,10 +1855,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111954159</v>
+        <v>111954107</v>
       </c>
       <c r="B12" t="n">
-        <v>94173</v>
+        <v>98961</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1876,21 +1871,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2590</v>
+        <v>222498</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1900,10 +1895,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>695891</v>
+        <v>695831</v>
       </c>
       <c r="R12" t="n">
-        <v>6553579</v>
+        <v>6553565</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1935,7 +1930,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1945,7 +1940,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1972,10 +1967,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111954187</v>
+        <v>111954123</v>
       </c>
       <c r="B13" t="n">
-        <v>93171</v>
+        <v>5135</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1988,21 +1983,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2818</v>
+        <v>105930</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2012,10 +2007,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>695854</v>
+        <v>695737</v>
       </c>
       <c r="R13" t="n">
-        <v>6553778</v>
+        <v>6553421</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2047,7 +2042,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2057,7 +2052,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2081,12 +2076,12 @@
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>Längs ned på förrötad granlåga.</t>
+          <t>Lutande död gran.</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+          <t>Picea abies # Lutande död gran.</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2104,10 +2099,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111954118</v>
+        <v>111954163</v>
       </c>
       <c r="B14" t="n">
-        <v>94173</v>
+        <v>108741</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2120,21 +2115,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2590</v>
+        <v>219711</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2144,10 +2139,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>695797</v>
+        <v>695909</v>
       </c>
       <c r="R14" t="n">
-        <v>6553495</v>
+        <v>6553610</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2179,7 +2174,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2189,7 +2184,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2216,10 +2211,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111954131</v>
+        <v>111954167</v>
       </c>
       <c r="B15" t="n">
-        <v>89183</v>
+        <v>93320</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2232,21 +2227,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3215</v>
+        <v>2818</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2256,10 +2251,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>695672</v>
+        <v>695901</v>
       </c>
       <c r="R15" t="n">
-        <v>6553408</v>
+        <v>6553634</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2291,7 +2286,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2301,7 +2296,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2328,10 +2323,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111954134</v>
+        <v>111954188</v>
       </c>
       <c r="B16" t="n">
-        <v>98535</v>
+        <v>93399</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2344,34 +2339,43 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222498</v>
+        <v>210</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>695759</v>
+        <v>695854</v>
       </c>
       <c r="R16" t="n">
-        <v>6553537</v>
+        <v>6553778</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2403,7 +2407,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2413,7 +2417,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2424,6 +2428,26 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2440,10 +2464,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111954160</v>
+        <v>111954164</v>
       </c>
       <c r="B17" t="n">
-        <v>94173</v>
+        <v>98961</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2456,21 +2480,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2590</v>
+        <v>222498</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2480,10 +2504,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>695890</v>
+        <v>695912</v>
       </c>
       <c r="R17" t="n">
-        <v>6553627</v>
+        <v>6553614</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2515,7 +2539,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2525,7 +2549,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2552,10 +2576,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111954106</v>
+        <v>111954134</v>
       </c>
       <c r="B18" t="n">
-        <v>92952</v>
+        <v>98961</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2568,21 +2592,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2779</v>
+        <v>222498</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2592,10 +2616,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>695919</v>
+        <v>695759</v>
       </c>
       <c r="R18" t="n">
-        <v>6553581</v>
+        <v>6553537</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2627,7 +2651,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2637,7 +2661,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2648,11 +2672,6 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2669,10 +2688,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111954150</v>
+        <v>111954144</v>
       </c>
       <c r="B19" t="n">
-        <v>89183</v>
+        <v>93293</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2685,21 +2704,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3215</v>
+        <v>2671</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2709,10 +2728,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>695844</v>
+        <v>695851</v>
       </c>
       <c r="R19" t="n">
-        <v>6553786</v>
+        <v>6553647</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2744,7 +2763,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2754,7 +2773,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2765,6 +2784,11 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk sbergart.</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2781,10 +2805,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111954157</v>
+        <v>111954108</v>
       </c>
       <c r="B20" t="n">
-        <v>94173</v>
+        <v>90466</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2797,21 +2821,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2590</v>
+        <v>4769</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2821,10 +2845,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>695879</v>
+        <v>695831</v>
       </c>
       <c r="R20" t="n">
-        <v>6553632</v>
+        <v>6553563</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2856,7 +2880,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2866,7 +2890,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Intill gran.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2893,10 +2922,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111954124</v>
+        <v>111954136</v>
       </c>
       <c r="B21" t="n">
-        <v>5113</v>
+        <v>93293</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2909,21 +2938,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100526</v>
+        <v>2671</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2933,10 +2962,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>695737</v>
+        <v>695759</v>
       </c>
       <c r="R21" t="n">
-        <v>6553421</v>
+        <v>6553537</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2968,7 +2997,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2978,7 +3007,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2990,24 +3019,9 @@
       <c r="AG21" t="b">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Picea abies # Lutande död gran.</t>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3025,10 +3039,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111954165</v>
+        <v>111954114</v>
       </c>
       <c r="B22" t="n">
-        <v>108219</v>
+        <v>94326</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3041,21 +3055,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>219711</v>
+        <v>2590</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3065,10 +3079,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>695912</v>
+        <v>695803</v>
       </c>
       <c r="R22" t="n">
-        <v>6553614</v>
+        <v>6553528</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3100,7 +3114,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3110,7 +3124,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3137,10 +3151,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111954123</v>
+        <v>111954161</v>
       </c>
       <c r="B23" t="n">
-        <v>5135</v>
+        <v>95687</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3153,21 +3167,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>105930</v>
+        <v>221945</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3177,10 +3191,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>695737</v>
+        <v>695896</v>
       </c>
       <c r="R23" t="n">
-        <v>6553421</v>
+        <v>6553621</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3212,7 +3226,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3222,7 +3236,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3233,26 +3247,6 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Picea abies # Lutande död gran.</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3269,10 +3263,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111954167</v>
+        <v>111954101</v>
       </c>
       <c r="B24" t="n">
-        <v>93171</v>
+        <v>94287</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3281,25 +3275,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2818</v>
+        <v>53</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3309,10 +3303,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>695901</v>
+        <v>695926</v>
       </c>
       <c r="R24" t="n">
-        <v>6553634</v>
+        <v>6553629</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3344,7 +3338,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3354,7 +3348,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3365,6 +3359,26 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3381,10 +3395,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111954107</v>
+        <v>111954165</v>
       </c>
       <c r="B25" t="n">
-        <v>98535</v>
+        <v>108741</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3397,21 +3411,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>222498</v>
+        <v>219711</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3421,10 +3435,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>695831</v>
+        <v>695912</v>
       </c>
       <c r="R25" t="n">
-        <v>6553565</v>
+        <v>6553614</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3456,7 +3470,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3466,7 +3480,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3493,10 +3507,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111954161</v>
+        <v>111954145</v>
       </c>
       <c r="B26" t="n">
-        <v>95532</v>
+        <v>98961</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3509,21 +3523,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3533,10 +3547,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>695896</v>
+        <v>695858</v>
       </c>
       <c r="R26" t="n">
-        <v>6553621</v>
+        <v>6553692</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3568,7 +3582,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3578,7 +3592,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3605,10 +3619,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111954101</v>
+        <v>111954150</v>
       </c>
       <c r="B27" t="n">
-        <v>94134</v>
+        <v>89317</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3617,25 +3631,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>53</v>
+        <v>3215</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3645,10 +3659,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>695926</v>
+        <v>695844</v>
       </c>
       <c r="R27" t="n">
-        <v>6553629</v>
+        <v>6553786</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3680,7 +3694,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3690,7 +3704,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3701,26 +3715,6 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>Gammal barklös granlåga.</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3737,10 +3731,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111954164</v>
+        <v>111954124</v>
       </c>
       <c r="B28" t="n">
-        <v>98535</v>
+        <v>5113</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3753,21 +3747,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>222498</v>
+        <v>100526</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3777,10 +3771,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>695912</v>
+        <v>695737</v>
       </c>
       <c r="R28" t="n">
-        <v>6553614</v>
+        <v>6553421</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3812,7 +3806,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3822,7 +3816,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3833,6 +3827,26 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Picea abies # Lutande död gran.</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3849,10 +3863,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111954188</v>
+        <v>111954116</v>
       </c>
       <c r="B29" t="n">
-        <v>93248</v>
+        <v>94326</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3865,43 +3879,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>210</v>
+        <v>2590</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>695854</v>
+        <v>695814</v>
       </c>
       <c r="R29" t="n">
-        <v>6553778</v>
+        <v>6553513</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3933,7 +3938,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3943,7 +3948,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3954,26 +3959,6 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>Längs ned på förrötad granlåga.</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
-        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -3990,10 +3975,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111954163</v>
+        <v>111954187</v>
       </c>
       <c r="B30" t="n">
-        <v>108219</v>
+        <v>93320</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4006,21 +3991,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>219711</v>
+        <v>2818</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4030,10 +4015,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>695909</v>
+        <v>695854</v>
       </c>
       <c r="R30" t="n">
-        <v>6553610</v>
+        <v>6553778</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4065,7 +4050,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4075,7 +4060,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4086,6 +4071,26 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4102,10 +4107,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111954145</v>
+        <v>111954118</v>
       </c>
       <c r="B31" t="n">
-        <v>98535</v>
+        <v>94326</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4118,21 +4123,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>222498</v>
+        <v>2590</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4142,10 +4147,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>695858</v>
+        <v>695797</v>
       </c>
       <c r="R31" t="n">
-        <v>6553692</v>
+        <v>6553495</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4177,7 +4182,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4187,7 +4192,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4214,10 +4219,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111954108</v>
+        <v>111954160</v>
       </c>
       <c r="B32" t="n">
-        <v>90332</v>
+        <v>94326</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4230,21 +4235,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4769</v>
+        <v>2590</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4254,10 +4259,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>695831</v>
+        <v>695890</v>
       </c>
       <c r="R32" t="n">
-        <v>6553563</v>
+        <v>6553627</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4289,7 +4294,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4299,12 +4304,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>15:45</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Intill gran.</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4331,10 +4331,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111954113</v>
+        <v>111954111</v>
       </c>
       <c r="B33" t="n">
-        <v>93171</v>
+        <v>94326</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4347,21 +4347,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2818</v>
+        <v>2590</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4371,10 +4371,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>695803</v>
+        <v>695777</v>
       </c>
       <c r="R33" t="n">
-        <v>6553528</v>
+        <v>6553521</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4443,10 +4443,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111954111</v>
+        <v>111954157</v>
       </c>
       <c r="B34" t="n">
-        <v>94173</v>
+        <v>94326</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>695777</v>
+        <v>695879</v>
       </c>
       <c r="R34" t="n">
-        <v>6553521</v>
+        <v>6553632</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4555,10 +4555,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111954144</v>
+        <v>111954170</v>
       </c>
       <c r="B35" t="n">
-        <v>93145</v>
+        <v>94326</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4571,34 +4571,38 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2671</v>
+        <v>2590</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>695851</v>
+        <v>695867</v>
       </c>
       <c r="R35" t="n">
-        <v>6553647</v>
+        <v>6553657</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4630,7 +4634,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4640,7 +4644,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4649,13 +4653,9 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk sbergart.</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4672,10 +4672,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111954170</v>
+        <v>111954158</v>
       </c>
       <c r="B36" t="n">
-        <v>94173</v>
+        <v>95687</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4688,38 +4688,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2590</v>
+        <v>221945</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>695867</v>
+        <v>695877</v>
       </c>
       <c r="R36" t="n">
-        <v>6553657</v>
+        <v>6553625</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4751,7 +4747,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4761,7 +4757,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4770,7 +4766,6 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -4789,10 +4784,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111954116</v>
+        <v>111954135</v>
       </c>
       <c r="B37" t="n">
-        <v>94173</v>
+        <v>93101</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4805,21 +4800,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2590</v>
+        <v>2779</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4829,10 +4824,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>695814</v>
+        <v>695759</v>
       </c>
       <c r="R37" t="n">
-        <v>6553513</v>
+        <v>6553537</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4864,7 +4859,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4874,7 +4869,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4885,6 +4880,11 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4904,7 +4904,7 @@
         <v>111962068</v>
       </c>
       <c r="B38" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>

--- a/artfynd/A 34417-2023.xlsx
+++ b/artfynd/A 34417-2023.xlsx
@@ -1044,7 +1044,7 @@
         <v>111891039</v>
       </c>
       <c r="B5" t="n">
-        <v>108741</v>
+        <v>108774</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111954131</v>
+        <v>111954102</v>
       </c>
       <c r="B6" t="n">
-        <v>89317</v>
+        <v>93334</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,21 +1164,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3215</v>
+        <v>2818</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>695672</v>
+        <v>695926</v>
       </c>
       <c r="R6" t="n">
-        <v>6553408</v>
+        <v>6553629</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1244,6 +1244,26 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1260,10 +1280,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111954106</v>
+        <v>111954165</v>
       </c>
       <c r="B7" t="n">
-        <v>93101</v>
+        <v>108774</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,21 +1296,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2779</v>
+        <v>219711</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1320,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>695919</v>
+        <v>695912</v>
       </c>
       <c r="R7" t="n">
-        <v>6553581</v>
+        <v>6553614</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1335,7 +1355,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1345,7 +1365,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1356,11 +1376,6 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1377,10 +1392,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111954120</v>
+        <v>111954160</v>
       </c>
       <c r="B8" t="n">
-        <v>56446</v>
+        <v>94340</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1389,43 +1404,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>2590</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>695736</v>
+        <v>695890</v>
       </c>
       <c r="R8" t="n">
-        <v>6553445</v>
+        <v>6553627</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1457,7 +1467,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1467,12 +1477,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:27</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Hack på levande gran.</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1499,10 +1504,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111954102</v>
+        <v>111954118</v>
       </c>
       <c r="B9" t="n">
-        <v>93320</v>
+        <v>94340</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1515,21 +1520,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2818</v>
+        <v>2590</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1539,10 +1544,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>695926</v>
+        <v>695797</v>
       </c>
       <c r="R9" t="n">
-        <v>6553629</v>
+        <v>6553495</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1574,7 +1579,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1584,7 +1589,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1595,26 +1600,6 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>Gammal barklös granlåga.</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1631,10 +1616,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111954113</v>
+        <v>111954167</v>
       </c>
       <c r="B10" t="n">
-        <v>93320</v>
+        <v>93334</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1671,10 +1656,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>695803</v>
+        <v>695901</v>
       </c>
       <c r="R10" t="n">
-        <v>6553528</v>
+        <v>6553634</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1706,7 +1691,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1716,7 +1701,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1743,10 +1728,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111954159</v>
+        <v>111954157</v>
       </c>
       <c r="B11" t="n">
-        <v>94326</v>
+        <v>94340</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1783,10 +1768,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>695891</v>
+        <v>695879</v>
       </c>
       <c r="R11" t="n">
-        <v>6553579</v>
+        <v>6553632</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1818,7 +1803,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1828,7 +1813,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1855,10 +1840,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111954107</v>
+        <v>111954145</v>
       </c>
       <c r="B12" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1895,10 +1880,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>695831</v>
+        <v>695858</v>
       </c>
       <c r="R12" t="n">
-        <v>6553565</v>
+        <v>6553692</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1930,7 +1915,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1940,7 +1925,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1967,10 +1952,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111954123</v>
+        <v>111954111</v>
       </c>
       <c r="B13" t="n">
-        <v>5135</v>
+        <v>94340</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1983,21 +1968,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>105930</v>
+        <v>2590</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2007,10 +1992,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>695737</v>
+        <v>695777</v>
       </c>
       <c r="R13" t="n">
-        <v>6553421</v>
+        <v>6553521</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2042,7 +2027,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2052,7 +2037,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2063,26 +2048,6 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Picea abies # Lutande död gran.</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2099,10 +2064,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111954163</v>
+        <v>111954124</v>
       </c>
       <c r="B14" t="n">
-        <v>108741</v>
+        <v>5113</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2115,21 +2080,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>219711</v>
+        <v>100526</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2139,10 +2104,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>695909</v>
+        <v>695737</v>
       </c>
       <c r="R14" t="n">
-        <v>6553610</v>
+        <v>6553421</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2174,7 +2139,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2184,7 +2149,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2195,6 +2160,26 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Picea abies # Lutande död gran.</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2211,10 +2196,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111954167</v>
+        <v>111954106</v>
       </c>
       <c r="B15" t="n">
-        <v>93320</v>
+        <v>93115</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2227,21 +2212,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2818</v>
+        <v>2779</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2251,10 +2236,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>695901</v>
+        <v>695919</v>
       </c>
       <c r="R15" t="n">
-        <v>6553634</v>
+        <v>6553581</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2286,7 +2271,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2296,7 +2281,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2307,6 +2292,11 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2323,10 +2313,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111954188</v>
+        <v>111954107</v>
       </c>
       <c r="B16" t="n">
-        <v>93399</v>
+        <v>98980</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2339,43 +2329,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>210</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>695854</v>
+        <v>695831</v>
       </c>
       <c r="R16" t="n">
-        <v>6553778</v>
+        <v>6553565</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2407,7 +2388,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2417,7 +2398,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2428,26 +2409,6 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>Längs ned på förrötad granlåga.</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2464,10 +2425,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111954164</v>
+        <v>111954120</v>
       </c>
       <c r="B17" t="n">
-        <v>98961</v>
+        <v>56446</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2476,38 +2437,43 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>695912</v>
+        <v>695736</v>
       </c>
       <c r="R17" t="n">
-        <v>6553614</v>
+        <v>6553445</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2539,7 +2505,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2549,7 +2515,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Hack på levande gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2576,10 +2547,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111954134</v>
+        <v>111954159</v>
       </c>
       <c r="B18" t="n">
-        <v>98961</v>
+        <v>94340</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2592,21 +2563,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222498</v>
+        <v>2590</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2616,10 +2587,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>695759</v>
+        <v>695891</v>
       </c>
       <c r="R18" t="n">
-        <v>6553537</v>
+        <v>6553579</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2651,7 +2622,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2661,7 +2632,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2688,10 +2659,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111954144</v>
+        <v>111954116</v>
       </c>
       <c r="B19" t="n">
-        <v>93293</v>
+        <v>94340</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2704,21 +2675,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2671</v>
+        <v>2590</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2728,10 +2699,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>695851</v>
+        <v>695814</v>
       </c>
       <c r="R19" t="n">
-        <v>6553647</v>
+        <v>6553513</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2763,7 +2734,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2773,7 +2744,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2784,11 +2755,6 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk sbergart.</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2805,10 +2771,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111954108</v>
+        <v>111954135</v>
       </c>
       <c r="B20" t="n">
-        <v>90466</v>
+        <v>93115</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2821,21 +2787,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4769</v>
+        <v>2779</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2845,10 +2811,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>695831</v>
+        <v>695759</v>
       </c>
       <c r="R20" t="n">
-        <v>6553563</v>
+        <v>6553537</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2880,7 +2846,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2890,12 +2856,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:45</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Intill gran.</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2906,6 +2867,11 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2922,10 +2888,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111954136</v>
+        <v>111954150</v>
       </c>
       <c r="B21" t="n">
-        <v>93293</v>
+        <v>89331</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2938,21 +2904,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2671</v>
+        <v>3215</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2962,10 +2928,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>695759</v>
+        <v>695844</v>
       </c>
       <c r="R21" t="n">
-        <v>6553537</v>
+        <v>6553786</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2997,7 +2963,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3007,7 +2973,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3018,11 +2984,6 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3039,10 +3000,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111954114</v>
+        <v>111954187</v>
       </c>
       <c r="B22" t="n">
-        <v>94326</v>
+        <v>93334</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3055,21 +3016,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2590</v>
+        <v>2818</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3079,10 +3040,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>695803</v>
+        <v>695854</v>
       </c>
       <c r="R22" t="n">
-        <v>6553528</v>
+        <v>6553778</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3114,7 +3075,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3124,7 +3085,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3135,6 +3096,26 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3151,10 +3132,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111954161</v>
+        <v>111954131</v>
       </c>
       <c r="B23" t="n">
-        <v>95687</v>
+        <v>89331</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3167,21 +3148,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>221945</v>
+        <v>3215</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3191,10 +3172,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>695896</v>
+        <v>695672</v>
       </c>
       <c r="R23" t="n">
-        <v>6553621</v>
+        <v>6553408</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3226,7 +3207,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3236,7 +3217,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3263,10 +3244,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111954101</v>
+        <v>111954170</v>
       </c>
       <c r="B24" t="n">
-        <v>94287</v>
+        <v>94340</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3275,38 +3256,42 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>53</v>
+        <v>2590</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>695926</v>
+        <v>695867</v>
       </c>
       <c r="R24" t="n">
-        <v>6553629</v>
+        <v>6553657</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3338,7 +3323,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3348,7 +3333,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3357,28 +3342,9 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>Gammal barklös granlåga.</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3395,10 +3361,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111954165</v>
+        <v>111954113</v>
       </c>
       <c r="B25" t="n">
-        <v>108741</v>
+        <v>93334</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3411,21 +3377,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>219711</v>
+        <v>2818</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3435,10 +3401,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>695912</v>
+        <v>695803</v>
       </c>
       <c r="R25" t="n">
-        <v>6553614</v>
+        <v>6553528</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3470,7 +3436,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3480,7 +3446,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3507,10 +3473,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111954145</v>
+        <v>111954163</v>
       </c>
       <c r="B26" t="n">
-        <v>98961</v>
+        <v>108774</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3523,21 +3489,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>222498</v>
+        <v>219711</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3547,10 +3513,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>695858</v>
+        <v>695909</v>
       </c>
       <c r="R26" t="n">
-        <v>6553692</v>
+        <v>6553610</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3582,7 +3548,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3592,7 +3558,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3619,10 +3585,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111954150</v>
+        <v>111954136</v>
       </c>
       <c r="B27" t="n">
-        <v>89317</v>
+        <v>93307</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3635,21 +3601,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3215</v>
+        <v>2671</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3659,10 +3625,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>695844</v>
+        <v>695759</v>
       </c>
       <c r="R27" t="n">
-        <v>6553786</v>
+        <v>6553537</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3694,7 +3660,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3704,7 +3670,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3715,6 +3681,11 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3731,10 +3702,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111954124</v>
+        <v>111954188</v>
       </c>
       <c r="B28" t="n">
-        <v>5113</v>
+        <v>93413</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3747,34 +3718,43 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100526</v>
+        <v>210</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>695737</v>
+        <v>695854</v>
       </c>
       <c r="R28" t="n">
-        <v>6553421</v>
+        <v>6553778</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3806,7 +3786,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3816,7 +3796,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3840,12 +3820,12 @@
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>Lutande död gran.</t>
+          <t>Längs ned på förrötad granlåga.</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Picea abies # Lutande död gran.</t>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3863,10 +3843,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111954116</v>
+        <v>111954134</v>
       </c>
       <c r="B29" t="n">
-        <v>94326</v>
+        <v>98980</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3879,21 +3859,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2590</v>
+        <v>222498</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3903,10 +3883,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>695814</v>
+        <v>695759</v>
       </c>
       <c r="R29" t="n">
-        <v>6553513</v>
+        <v>6553537</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3938,7 +3918,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3948,7 +3928,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3975,10 +3955,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111954187</v>
+        <v>111954114</v>
       </c>
       <c r="B30" t="n">
-        <v>93320</v>
+        <v>94340</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3991,21 +3971,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2818</v>
+        <v>2590</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4015,10 +3995,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>695854</v>
+        <v>695803</v>
       </c>
       <c r="R30" t="n">
-        <v>6553778</v>
+        <v>6553528</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4050,7 +4030,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4060,7 +4040,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4071,26 +4051,6 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>Längs ned på förrötad granlåga.</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4107,10 +4067,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111954118</v>
+        <v>111954108</v>
       </c>
       <c r="B31" t="n">
-        <v>94326</v>
+        <v>90480</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4123,21 +4083,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2590</v>
+        <v>4769</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4147,10 +4107,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>695797</v>
+        <v>695831</v>
       </c>
       <c r="R31" t="n">
-        <v>6553495</v>
+        <v>6553563</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4182,7 +4142,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4192,7 +4152,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Intill gran.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4219,10 +4184,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111954160</v>
+        <v>111954161</v>
       </c>
       <c r="B32" t="n">
-        <v>94326</v>
+        <v>95701</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4235,21 +4200,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2590</v>
+        <v>221945</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4259,10 +4224,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>695890</v>
+        <v>695896</v>
       </c>
       <c r="R32" t="n">
-        <v>6553627</v>
+        <v>6553621</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4294,7 +4259,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4304,7 +4269,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4331,10 +4296,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111954111</v>
+        <v>111954144</v>
       </c>
       <c r="B33" t="n">
-        <v>94326</v>
+        <v>93307</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4347,21 +4312,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2590</v>
+        <v>2671</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4371,10 +4336,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>695777</v>
+        <v>695851</v>
       </c>
       <c r="R33" t="n">
-        <v>6553521</v>
+        <v>6553647</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4406,7 +4371,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4416,7 +4381,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4427,6 +4392,11 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk sbergart.</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4443,10 +4413,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111954157</v>
+        <v>111954123</v>
       </c>
       <c r="B34" t="n">
-        <v>94326</v>
+        <v>5135</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4459,21 +4429,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2590</v>
+        <v>105930</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4483,10 +4453,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>695879</v>
+        <v>695737</v>
       </c>
       <c r="R34" t="n">
-        <v>6553632</v>
+        <v>6553421</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4518,7 +4488,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4528,7 +4498,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4539,6 +4509,26 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Picea abies # Lutande död gran.</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4555,10 +4545,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111954170</v>
+        <v>111954158</v>
       </c>
       <c r="B35" t="n">
-        <v>94326</v>
+        <v>95701</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4571,38 +4561,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2590</v>
+        <v>221945</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>695867</v>
+        <v>695877</v>
       </c>
       <c r="R35" t="n">
-        <v>6553657</v>
+        <v>6553625</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4634,7 +4620,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4644,7 +4630,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4653,7 +4639,6 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4672,10 +4657,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111954158</v>
+        <v>111954164</v>
       </c>
       <c r="B36" t="n">
-        <v>95687</v>
+        <v>98980</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4688,21 +4673,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4712,10 +4697,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>695877</v>
+        <v>695912</v>
       </c>
       <c r="R36" t="n">
-        <v>6553625</v>
+        <v>6553614</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4747,7 +4732,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4757,7 +4742,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4784,10 +4769,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111954135</v>
+        <v>111954101</v>
       </c>
       <c r="B37" t="n">
-        <v>93101</v>
+        <v>94301</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4796,25 +4781,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2779</v>
+        <v>53</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4824,10 +4809,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>695759</v>
+        <v>695926</v>
       </c>
       <c r="R37" t="n">
-        <v>6553537</v>
+        <v>6553629</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4859,7 +4844,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4869,7 +4854,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4881,9 +4866,24 @@
       <c r="AG37" t="b">
         <v>0</v>
       </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
+          <t>Picea abies # Gammal barklös granlåga.</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -4904,7 +4904,7 @@
         <v>111962068</v>
       </c>
       <c r="B38" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>

--- a/artfynd/A 34417-2023.xlsx
+++ b/artfynd/A 34417-2023.xlsx
@@ -1148,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111954102</v>
+        <v>111954188</v>
       </c>
       <c r="B6" t="n">
-        <v>93334</v>
+        <v>93413</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,34 +1164,43 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2818</v>
+        <v>210</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>695926</v>
+        <v>695854</v>
       </c>
       <c r="R6" t="n">
-        <v>6553629</v>
+        <v>6553778</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1223,7 +1232,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1233,7 +1242,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1257,12 +1266,12 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>Gammal barklös granlåga.</t>
+          <t>Längs ned på förrötad granlåga.</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1280,10 +1289,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111954165</v>
+        <v>111954120</v>
       </c>
       <c r="B7" t="n">
-        <v>108774</v>
+        <v>56446</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1292,38 +1301,43 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219711</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>695912</v>
+        <v>695736</v>
       </c>
       <c r="R7" t="n">
-        <v>6553614</v>
+        <v>6553445</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1355,7 +1369,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1365,7 +1379,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Hack på levande gran.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1392,10 +1411,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111954160</v>
+        <v>111954108</v>
       </c>
       <c r="B8" t="n">
-        <v>94340</v>
+        <v>90480</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1408,21 +1427,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2590</v>
+        <v>4769</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1432,10 +1451,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>695890</v>
+        <v>695831</v>
       </c>
       <c r="R8" t="n">
-        <v>6553627</v>
+        <v>6553563</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1467,7 +1486,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1477,7 +1496,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Intill gran.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1504,10 +1528,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111954118</v>
+        <v>111954136</v>
       </c>
       <c r="B9" t="n">
-        <v>94340</v>
+        <v>93307</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1520,21 +1544,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2590</v>
+        <v>2671</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1544,10 +1568,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>695797</v>
+        <v>695759</v>
       </c>
       <c r="R9" t="n">
-        <v>6553495</v>
+        <v>6553537</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1579,7 +1603,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1589,7 +1613,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1600,6 +1624,11 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1616,10 +1645,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111954167</v>
+        <v>111954145</v>
       </c>
       <c r="B10" t="n">
-        <v>93334</v>
+        <v>98980</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1632,21 +1661,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2818</v>
+        <v>222498</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1656,10 +1685,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>695901</v>
+        <v>695858</v>
       </c>
       <c r="R10" t="n">
-        <v>6553634</v>
+        <v>6553692</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1691,7 +1720,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1701,7 +1730,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1728,10 +1757,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111954157</v>
+        <v>111954135</v>
       </c>
       <c r="B11" t="n">
-        <v>94340</v>
+        <v>93115</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1744,21 +1773,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2590</v>
+        <v>2779</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1768,10 +1797,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>695879</v>
+        <v>695759</v>
       </c>
       <c r="R11" t="n">
-        <v>6553632</v>
+        <v>6553537</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1803,7 +1832,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1813,7 +1842,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1824,6 +1853,11 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1840,10 +1874,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111954145</v>
+        <v>111954158</v>
       </c>
       <c r="B12" t="n">
-        <v>98980</v>
+        <v>95701</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1856,21 +1890,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1880,10 +1914,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>695858</v>
+        <v>695877</v>
       </c>
       <c r="R12" t="n">
-        <v>6553692</v>
+        <v>6553625</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1915,7 +1949,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1925,7 +1959,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1952,10 +1986,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111954111</v>
+        <v>111954187</v>
       </c>
       <c r="B13" t="n">
-        <v>94340</v>
+        <v>93334</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1968,21 +2002,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2590</v>
+        <v>2818</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1992,10 +2026,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>695777</v>
+        <v>695854</v>
       </c>
       <c r="R13" t="n">
-        <v>6553521</v>
+        <v>6553778</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2027,7 +2061,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2037,7 +2071,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2048,6 +2082,26 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>Längs ned på förrötad granlåga.</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2064,10 +2118,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111954124</v>
+        <v>111954160</v>
       </c>
       <c r="B14" t="n">
-        <v>5113</v>
+        <v>94340</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2080,21 +2134,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100526</v>
+        <v>2590</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2104,10 +2158,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>695737</v>
+        <v>695890</v>
       </c>
       <c r="R14" t="n">
-        <v>6553421</v>
+        <v>6553627</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2139,7 +2193,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2149,7 +2203,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2160,26 +2214,6 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Picea abies # Lutande död gran.</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2196,10 +2230,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111954106</v>
+        <v>111954111</v>
       </c>
       <c r="B15" t="n">
-        <v>93115</v>
+        <v>94340</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2212,21 +2246,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2779</v>
+        <v>2590</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2236,10 +2270,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>695919</v>
+        <v>695777</v>
       </c>
       <c r="R15" t="n">
-        <v>6553581</v>
+        <v>6553521</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2271,7 +2305,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2281,7 +2315,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2292,11 +2326,6 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2313,10 +2342,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111954107</v>
+        <v>111954116</v>
       </c>
       <c r="B16" t="n">
-        <v>98980</v>
+        <v>94340</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2329,21 +2358,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222498</v>
+        <v>2590</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2353,10 +2382,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>695831</v>
+        <v>695814</v>
       </c>
       <c r="R16" t="n">
-        <v>6553565</v>
+        <v>6553513</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2388,7 +2417,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2398,7 +2427,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2425,10 +2454,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111954120</v>
+        <v>111954107</v>
       </c>
       <c r="B17" t="n">
-        <v>56446</v>
+        <v>98980</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2437,43 +2466,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>695736</v>
+        <v>695831</v>
       </c>
       <c r="R17" t="n">
-        <v>6553445</v>
+        <v>6553565</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2505,7 +2529,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2515,12 +2539,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:27</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Hack på levande gran.</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2547,10 +2566,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111954159</v>
+        <v>111954101</v>
       </c>
       <c r="B18" t="n">
-        <v>94340</v>
+        <v>94301</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2559,25 +2578,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2590</v>
+        <v>53</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2587,10 +2606,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>695891</v>
+        <v>695926</v>
       </c>
       <c r="R18" t="n">
-        <v>6553579</v>
+        <v>6553629</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2622,7 +2641,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2632,7 +2651,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2643,6 +2662,26 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2659,10 +2698,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111954116</v>
+        <v>111954102</v>
       </c>
       <c r="B19" t="n">
-        <v>94340</v>
+        <v>93334</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2675,21 +2714,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2590</v>
+        <v>2818</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2699,10 +2738,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>695814</v>
+        <v>695926</v>
       </c>
       <c r="R19" t="n">
-        <v>6553513</v>
+        <v>6553629</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2734,7 +2773,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2744,7 +2783,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2755,6 +2794,26 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2771,10 +2830,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111954135</v>
+        <v>111954164</v>
       </c>
       <c r="B20" t="n">
-        <v>93115</v>
+        <v>98980</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2787,21 +2846,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2779</v>
+        <v>222498</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2811,10 +2870,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>695759</v>
+        <v>695912</v>
       </c>
       <c r="R20" t="n">
-        <v>6553537</v>
+        <v>6553614</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2846,7 +2905,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2856,7 +2915,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2867,11 +2926,6 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2888,10 +2942,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111954150</v>
+        <v>111954161</v>
       </c>
       <c r="B21" t="n">
-        <v>89331</v>
+        <v>95701</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2904,21 +2958,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3215</v>
+        <v>221945</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2928,10 +2982,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>695844</v>
+        <v>695896</v>
       </c>
       <c r="R21" t="n">
-        <v>6553786</v>
+        <v>6553621</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2963,7 +3017,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2973,7 +3027,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3000,10 +3054,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111954187</v>
+        <v>111954157</v>
       </c>
       <c r="B22" t="n">
-        <v>93334</v>
+        <v>94340</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3016,21 +3070,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2818</v>
+        <v>2590</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3040,10 +3094,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>695854</v>
+        <v>695879</v>
       </c>
       <c r="R22" t="n">
-        <v>6553778</v>
+        <v>6553632</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3075,7 +3129,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3085,7 +3139,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3096,26 +3150,6 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>Längs ned på förrötad granlåga.</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3132,10 +3166,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111954131</v>
+        <v>111954134</v>
       </c>
       <c r="B23" t="n">
-        <v>89331</v>
+        <v>98980</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3148,21 +3182,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3215</v>
+        <v>222498</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3172,10 +3206,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>695672</v>
+        <v>695759</v>
       </c>
       <c r="R23" t="n">
-        <v>6553408</v>
+        <v>6553537</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3207,7 +3241,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3217,7 +3251,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3244,10 +3278,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111954170</v>
+        <v>111954144</v>
       </c>
       <c r="B24" t="n">
-        <v>94340</v>
+        <v>93307</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3260,38 +3294,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2590</v>
+        <v>2671</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>695867</v>
+        <v>695851</v>
       </c>
       <c r="R24" t="n">
-        <v>6553657</v>
+        <v>6553647</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3323,7 +3353,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3333,7 +3363,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3342,9 +3372,13 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk sbergart.</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3361,10 +3395,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111954113</v>
+        <v>111954106</v>
       </c>
       <c r="B25" t="n">
-        <v>93334</v>
+        <v>93115</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3377,21 +3411,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2818</v>
+        <v>2779</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3401,10 +3435,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>695803</v>
+        <v>695919</v>
       </c>
       <c r="R25" t="n">
-        <v>6553528</v>
+        <v>6553581</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3436,7 +3470,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3446,7 +3480,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3457,6 +3491,11 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Klippbrant. Sannolikt basisk bergart.</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3473,10 +3512,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111954163</v>
+        <v>111954159</v>
       </c>
       <c r="B26" t="n">
-        <v>108774</v>
+        <v>94340</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3489,21 +3528,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>219711</v>
+        <v>2590</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3513,10 +3552,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>695909</v>
+        <v>695891</v>
       </c>
       <c r="R26" t="n">
-        <v>6553610</v>
+        <v>6553579</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3548,7 +3587,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3558,7 +3597,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3585,10 +3624,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111954136</v>
+        <v>111954167</v>
       </c>
       <c r="B27" t="n">
-        <v>93307</v>
+        <v>93334</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3601,21 +3640,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2671</v>
+        <v>2818</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3625,10 +3664,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>695759</v>
+        <v>695901</v>
       </c>
       <c r="R27" t="n">
-        <v>6553537</v>
+        <v>6553634</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3660,7 +3699,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3670,7 +3709,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3681,11 +3720,6 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk bergart.</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3702,10 +3736,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111954188</v>
+        <v>111954123</v>
       </c>
       <c r="B28" t="n">
-        <v>93413</v>
+        <v>5135</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3718,43 +3752,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>210</v>
+        <v>105930</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>695854</v>
+        <v>695737</v>
       </c>
       <c r="R28" t="n">
-        <v>6553778</v>
+        <v>6553421</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3786,7 +3811,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3796,7 +3821,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3820,12 +3845,12 @@
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>Längs ned på förrötad granlåga.</t>
+          <t>Lutande död gran.</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Picea abies # Längs ned på förrötad granlåga.</t>
+          <t>Picea abies # Lutande död gran.</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3843,10 +3868,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111954134</v>
+        <v>111954113</v>
       </c>
       <c r="B29" t="n">
-        <v>98980</v>
+        <v>93334</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3859,21 +3884,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>222498</v>
+        <v>2818</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3883,10 +3908,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>695759</v>
+        <v>695803</v>
       </c>
       <c r="R29" t="n">
-        <v>6553537</v>
+        <v>6553528</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3918,7 +3943,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3928,7 +3953,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3955,7 +3980,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111954114</v>
+        <v>111954170</v>
       </c>
       <c r="B30" t="n">
         <v>94340</v>
@@ -3989,16 +4014,20 @@
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>695803</v>
+        <v>695867</v>
       </c>
       <c r="R30" t="n">
-        <v>6553528</v>
+        <v>6553657</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4030,7 +4059,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4040,7 +4069,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4049,6 +4078,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4067,10 +4097,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111954108</v>
+        <v>111954114</v>
       </c>
       <c r="B31" t="n">
-        <v>90480</v>
+        <v>94340</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4083,21 +4113,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4769</v>
+        <v>2590</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4107,10 +4137,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>695831</v>
+        <v>695803</v>
       </c>
       <c r="R31" t="n">
-        <v>6553563</v>
+        <v>6553528</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4142,7 +4172,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4152,12 +4182,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>15:45</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Intill gran.</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4184,10 +4209,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111954161</v>
+        <v>111954131</v>
       </c>
       <c r="B32" t="n">
-        <v>95701</v>
+        <v>89331</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4200,21 +4225,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221945</v>
+        <v>3215</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4224,10 +4249,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>695896</v>
+        <v>695672</v>
       </c>
       <c r="R32" t="n">
-        <v>6553621</v>
+        <v>6553408</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4259,7 +4284,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4269,7 +4294,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4296,10 +4321,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111954144</v>
+        <v>111954165</v>
       </c>
       <c r="B33" t="n">
-        <v>93307</v>
+        <v>108774</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4312,21 +4337,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2671</v>
+        <v>219711</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4336,10 +4361,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>695851</v>
+        <v>695912</v>
       </c>
       <c r="R33" t="n">
-        <v>6553647</v>
+        <v>6553614</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4371,7 +4396,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4381,7 +4406,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4392,11 +4417,6 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Klippbrant. Sannolikt basisk sbergart.</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4413,10 +4433,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111954123</v>
+        <v>111954163</v>
       </c>
       <c r="B34" t="n">
-        <v>5135</v>
+        <v>108774</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4429,21 +4449,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>105930</v>
+        <v>219711</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4453,10 +4473,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>695737</v>
+        <v>695909</v>
       </c>
       <c r="R34" t="n">
-        <v>6553421</v>
+        <v>6553610</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4488,7 +4508,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4498,7 +4518,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4509,26 +4529,6 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Picea abies # Lutande död gran.</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4545,10 +4545,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111954158</v>
+        <v>111954124</v>
       </c>
       <c r="B35" t="n">
-        <v>95701</v>
+        <v>5113</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4561,21 +4561,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>221945</v>
+        <v>100526</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4585,10 +4585,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>695877</v>
+        <v>695737</v>
       </c>
       <c r="R35" t="n">
-        <v>6553625</v>
+        <v>6553421</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4620,7 +4620,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4641,6 +4641,26 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Picea abies # Lutande död gran.</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4657,10 +4677,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111954164</v>
+        <v>111954150</v>
       </c>
       <c r="B36" t="n">
-        <v>98980</v>
+        <v>89331</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4673,21 +4693,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>222498</v>
+        <v>3215</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4697,10 +4717,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>695912</v>
+        <v>695844</v>
       </c>
       <c r="R36" t="n">
-        <v>6553614</v>
+        <v>6553786</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4732,7 +4752,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4742,7 +4762,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4769,10 +4789,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111954101</v>
+        <v>111954118</v>
       </c>
       <c r="B37" t="n">
-        <v>94301</v>
+        <v>94340</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4781,25 +4801,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>53</v>
+        <v>2590</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4809,10 +4829,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>695926</v>
+        <v>695797</v>
       </c>
       <c r="R37" t="n">
-        <v>6553629</v>
+        <v>6553495</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4844,7 +4864,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4854,7 +4874,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4865,26 +4885,6 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>Gammal barklös granlåga.</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">

--- a/artfynd/A 34417-2023.xlsx
+++ b/artfynd/A 34417-2023.xlsx
@@ -2342,10 +2342,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111954116</v>
+        <v>111954101</v>
       </c>
       <c r="B16" t="n">
-        <v>94340</v>
+        <v>94301</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2354,25 +2354,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2590</v>
+        <v>53</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>695814</v>
+        <v>695926</v>
       </c>
       <c r="R16" t="n">
-        <v>6553513</v>
+        <v>6553629</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2438,6 +2438,26 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2454,10 +2474,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111954107</v>
+        <v>111954102</v>
       </c>
       <c r="B17" t="n">
-        <v>98980</v>
+        <v>93334</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2470,21 +2490,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>222498</v>
+        <v>2818</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2494,10 +2514,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>695831</v>
+        <v>695926</v>
       </c>
       <c r="R17" t="n">
-        <v>6553565</v>
+        <v>6553629</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2529,7 +2549,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2539,7 +2559,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2550,6 +2570,26 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>Gammal barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal barklös granlåga.</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2566,10 +2606,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111954101</v>
+        <v>111954116</v>
       </c>
       <c r="B18" t="n">
-        <v>94301</v>
+        <v>94340</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2578,25 +2618,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>53</v>
+        <v>2590</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2606,10 +2646,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>695926</v>
+        <v>695814</v>
       </c>
       <c r="R18" t="n">
-        <v>6553629</v>
+        <v>6553513</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2641,7 +2681,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2651,7 +2691,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2662,26 +2702,6 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>Gammal barklös granlåga.</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2698,10 +2718,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111954102</v>
+        <v>111954107</v>
       </c>
       <c r="B19" t="n">
-        <v>93334</v>
+        <v>98980</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2714,21 +2734,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2818</v>
+        <v>222498</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2738,10 +2758,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>695926</v>
+        <v>695831</v>
       </c>
       <c r="R19" t="n">
-        <v>6553629</v>
+        <v>6553565</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2773,7 +2793,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2783,7 +2803,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2794,26 +2814,6 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>Gammal barklös granlåga.</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Picea abies # Gammal barklös granlåga.</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -3736,10 +3736,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111954123</v>
+        <v>111954170</v>
       </c>
       <c r="B28" t="n">
-        <v>5135</v>
+        <v>94340</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3752,34 +3752,38 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>105930</v>
+        <v>2590</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>695737</v>
+        <v>695867</v>
       </c>
       <c r="R28" t="n">
-        <v>6553421</v>
+        <v>6553657</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3811,7 +3815,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3821,7 +3825,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3830,28 +3834,9 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>Lutande död gran.</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Picea abies # Lutande död gran.</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3980,10 +3965,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111954170</v>
+        <v>111954123</v>
       </c>
       <c r="B30" t="n">
-        <v>94340</v>
+        <v>5135</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3996,38 +3981,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2590</v>
+        <v>105930</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Ornö, öster om Brevik, Srm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>695867</v>
+        <v>695737</v>
       </c>
       <c r="R30" t="n">
-        <v>6553657</v>
+        <v>6553421</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4059,7 +4040,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4069,7 +4050,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4078,9 +4059,28 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>Lutande död gran.</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Picea abies # Lutande död gran.</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
